--- a/806209426/localisation/excel/bftb_decisions_l_german.xlsx
+++ b/806209426/localisation/excel/bftb_decisions_l_german.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve"> GRE_1936_election_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn König §YGeorg II.§! nicht verhaftet wird, mischt er sich in die Wahl im Januar ein und sorgt dafür, dass seine monarchistischen Unterstützer ihr Regierungsmandat beibehalten.\n</t>
+    <t xml:space="preserve">Wenn König §Y§Y Georg II. §!§!  nicht verhaftet wird, mischt er sich in die Wahl im Januar ein und sorgt dafür, dass seine monarchistischen Unterstützer ihr Regierungsmandat beibehalten.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_put_the_king_under_house_arrest:</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve"> GRE_1936_arrest_the_king_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der König wird verhaftet und die  §YVenizelisten§! gewinnen die Wahl.\n</t>
+    <t xml:space="preserve">Der König wird verhaftet und die  §Y§Y Venizelisten §!§!  gewinnen die Wahl.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_king_arrested:</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve"> GRE_italian_influence_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn wir uns zu sehr auf §Y[FROM.GetAdjective]e§! Hilfe verlassen, könnte das unsere Souveränität gefährden.\n</t>
+    <t xml:space="preserve">Wenn wir uns zu sehr auf §Y§Y [FROM.GetAdjective]e §!§!  Hilfe verlassen, könnte das unsere Souveränität gefährden.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_temper_italian_colonial_ambitions_in_greece:</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve"> GRE_italian_influence_shunned_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn wir nach der §Y[FROM.GetAdjective]en§! Großzügigkeit sie jetzt verstoßen, könnte das zu einem §YKrieg§! führen!\n</t>
+    <t xml:space="preserve">Wenn wir nach der §Y§Y [FROM.GetAdjective]en §!§!  Großzügigkeit sie jetzt verstoßen, könnte das zu einem §Y§Y Krieg §!§!  führen!\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_attend_talks_with_the_presidium:</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve"> GRE_soviet_influence_shunned_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn wir nach der §Y[FROM.GetAdjective]en§! Großzügigkeit sie jetzt verstoßen, könnte das zu einem §YKrieg§! führen!</t>
+    <t xml:space="preserve">Wenn wir nach der §Y§Y [FROM.GetAdjective]en §!§!  Großzügigkeit sie jetzt verstoßen, könnte das zu einem §Y§Y Krieg §!§!  führen!</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_pay_back_debt_to_the_ifc_category:</t>
@@ -319,115 +319,115 @@
     <t xml:space="preserve"> GRE_pay_back_debt_to_the_ifc_category_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Seit unserem Unabhängigkeitskrieg 1829 wird Griechenland von finanziellen Schulden geplagt, und der Erste Weltkrieg hat die Situation nicht gerade verbessert. Wenn wir unsere Schulden zurückzahlen können, ist das ein entscheidender Schritt, um zumindest eine gewisse wirtschaftliche Stabilität in Griechenland zurückzuerlangen. Alternativ gibt es auch gewisse radikale Bewegungen, die dafür bekannt sind, sich nicht um politische und wirtschaftliche Konventionen zu scheren. Wenn wir uns einer dieser Bewegungen anschließen oder aber einfach zusehen, wie die Welt mit der Zeit immer stärker zerfällt, könnten sich auch drastischere Wege auftun, die wir beschreiten können ...\n\n§YSchulden§! bei den §YBriten§!: [ROOT.GetDebtPercentageBritain]\n\n§YSchulden§! bei den §YFranzosen§!: [ROOT.GetDebtPercentageFrance] \n\n§YSchulden§! bei den §YItalienern§!: [ROOT.GetDebtPercentageItaly] \n\n§YSchulden§! insgesamt Bezahlt: [ROOT.GetDebtPercentagePaidTotal]</t>
+    <t xml:space="preserve">Seit unserem Unabhängigkeitskrieg 1829 wird Griechenland von finanziellen Schulden geplagt, und der Erste Weltkrieg hat die Situation nicht gerade verbessert. Wenn wir unsere Schulden zurückzahlen können, ist das ein entscheidender Schritt, um zumindest eine gewisse wirtschaftliche Stabilität in Griechenland zurückzuerlangen. Alternativ gibt es auch gewisse radikale Bewegungen, die dafür bekannt sind, sich nicht um politische und wirtschaftliche Konventionen zu scheren. Wenn wir uns einer dieser Bewegungen anschließen oder aber einfach zusehen, wie die Welt mit der Zeit immer stärker zerfällt, könnten sich auch drastischere Wege auftun, die wir beschreiten können ...\n\n§Y§Y Schulden §!§!  bei den §Y§Y Briten §!§! : [ROOT.GetDebtPercentageBritain]\n\n§Y§Y Schulden §!§!  bei den §Y§Y Franzosen §!§! : [ROOT.GetDebtPercentageFrance] \n\n§Y§Y Schulden §!§!  bei den §Y§Y Italienern §!§! : [ROOT.GetDebtPercentageItaly] \n\n§Y§Y Schulden §!§!  insgesamt Bezahlt: [ROOT.GetDebtPercentagePaidTotal]</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_100:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y100%§!</t>
+    <t xml:space="preserve">§Y§Y 100% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_100:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G100%§!</t>
+    <t xml:space="preserve">§G§G 100% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_9107:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G91,7%§!</t>
+    <t xml:space="preserve">§G§G 91,7% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_8304:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G83,4%§!</t>
+    <t xml:space="preserve">§G§G 83,4% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_75:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y75%§!</t>
+    <t xml:space="preserve">§Y§Y 75% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_75:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G75%§!</t>
+    <t xml:space="preserve">§G§G 75% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_6607:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G66,7%§!</t>
+    <t xml:space="preserve">§G§G 66,7% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_5804:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G58,4%§!</t>
+    <t xml:space="preserve">§G§G 58,4% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_50:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y50%§!</t>
+    <t xml:space="preserve">§Y§Y 50% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_50:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G50%§!</t>
+    <t xml:space="preserve">§G§G 50% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_4107:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G41,7%§!</t>
+    <t xml:space="preserve">§G§G 41,7% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_3304:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G33,4%§!</t>
+    <t xml:space="preserve">§G§G 33,4% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_25:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y25%§!</t>
+    <t xml:space="preserve">§Y§Y 25% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_25:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G25%§!</t>
+    <t xml:space="preserve">§G§G 25% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_1607:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G16,7%§!</t>
+    <t xml:space="preserve">§G§G 16,7% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_paid_804:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G8,4%§!</t>
+    <t xml:space="preserve">§G§G 8,4% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_0:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y0%§!</t>
+    <t xml:space="preserve">§Y§Y 0% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_no_debt_paid:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YEs wurden keine Schulden bezahlt§!.</t>
+    <t xml:space="preserve">§Y§Y Es wurden keine Schulden bezahlt §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_small_installment_payment_ENG:</t>
@@ -445,25 +445,25 @@
     <t xml:space="preserve"> GRE_small_payment_to_british_debt_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[ENG.GetNameDef]§! zurückgezahlt.\n</t>
+    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ENG.GetNameDef] §!§!  zurückgezahlt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_small_payment_to_french_debt_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[FRA.GetNameDef]§! zurückgezahlt.\n</t>
+    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [FRA.GetNameDef] §!§!  zurückgezahlt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_small_payment_to_italians_debt_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[ITA.GetNameDef]§! zurückgezahlt.\n</t>
+    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ITA.GetNameDef] §!§!  zurückgezahlt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_force_debt_clearance_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn wir unsere finanzielle Beziehung zu §Y[FROM.GetNameDef]§! beenden, lassen wir auch unsere §YSchulden§! bei ihnen einfach hinter uns.\n</t>
+    <t xml:space="preserve">Wenn wir unsere finanzielle Beziehung zu §Y§Y [FROM.GetNameDef] §!§!  beenden, lassen wir auch unsere §Y§Y Schulden §!§!  bei ihnen einfach hinter uns.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_debt_payment_impossible_tt:</t>
@@ -487,19 +487,19 @@
     <t xml:space="preserve"> GRE_large_payment_to_british_debt_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[ENG.GetNameDef]§! zurückgezahlt.\n</t>
+    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ENG.GetNameDef] §!§!  zurückgezahlt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_large_payment_to_french_debt_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[FRA.GetNameDef]§! zurückgezahlt.\n</t>
+    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [FRA.GetNameDef] §!§!  zurückgezahlt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_large_payment_to_italians_debt_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[ITA.GetNameDef]§! zurückgezahlt.\n</t>
+    <t xml:space="preserve">Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ITA.GetNameDef] §!§!  zurückgezahlt.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_restructuring_our_debt:</t>
@@ -511,7 +511,7 @@
     <t xml:space="preserve"> GRE_restructure_debt_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle aktuellen §YSchulden§! gegenüber der §YInternationalen Finanzkommission§! werden halbiert.</t>
+    <t xml:space="preserve">Alle aktuellen §Y§Y Schulden §!§!  gegenüber der §Y§Y Internationalen Finanzkommission §!§!  werden halbiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_defaulting_on_our_debt:</t>
@@ -523,19 +523,19 @@
     <t xml:space="preserve"> GRE_default_on_debt_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein solch drastischer Schritt könnte §Yunerwünschte Konsequenzen§! haben, die über die Beendigung unserer finanziellen Beziehung zu unseren Gläubigern hinausgehen.\n</t>
+    <t xml:space="preserve">Ein solch drastischer Schritt könnte §Y§Y unerwünschte Konsequenzen §!§!  haben, die über die Beendigung unserer finanziellen Beziehung zu unseren Gläubigern hinausgehen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_completely_debt_free:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir sind vollkommen §Yschuldenfrei§!.</t>
+    <t xml:space="preserve">Wir sind vollkommen §Y§Y schuldenfrei §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_defaulted_on_debt_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir sind unseren finanziellen Verpflichtungen §Ynicht nachgekommen§!.</t>
+    <t xml:space="preserve">Wir sind unseren finanziellen Verpflichtungen §Y§Y nicht nachgekommen §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_recommission_the_american_battleships:</t>
@@ -613,13 +613,13 @@
     <t xml:space="preserve"> GRE_faction_loyal:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GLoyal§!</t>
+    <t xml:space="preserve">§G§G Loyal §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_friendly:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GFreundlich§!</t>
+    <t xml:space="preserve">§G§G Freundlich §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_indifferent:</t>
@@ -631,37 +631,37 @@
     <t xml:space="preserve"> GRE_faction_hostile:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RFeindlich§!</t>
+    <t xml:space="preserve">§R§R Feindlich §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_inconsequential:</t>
   </si>
   <si>
-    <t xml:space="preserve">§gBelanglos§!</t>
+    <t xml:space="preserve">§g§g Belanglos §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_friendly_effects:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YEffekte:§! §GStabilität: +5% \nRekrutierbare-Bevölkerung-Faktor: +15%§!</t>
+    <t xml:space="preserve">\n§Y§Y Effekte: §!§!  §G§G Stabilität: +5% \nRekrutierbare-Bevölkerung-Faktor: +15% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_indifferent_effects:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YEffekte:§! §WKein Effekt.§!</t>
+    <t xml:space="preserve">\n§Y§Y Effekte: §!§!  §W§W Kein Effekt. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_hostile_effects:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YEffekte:§! §RStabilität: -15%§!</t>
+    <t xml:space="preserve">\n§Y§Y Effekte: §!§!  §R§R Stabilität: -15% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_loyal_effects:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YEffekte:§! §GStabilität: +10% \nRekrutierbare-Bevölkerung-Faktor: +20%§!</t>
+    <t xml:space="preserve">\n§Y§Y Effekte: §!§!  §G§G Stabilität: +10% \nRekrutierbare-Bevölkerung-Faktor: +20% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_monarchists_name_text:</t>
@@ -769,7 +769,7 @@
     <t xml:space="preserve"> GRE_ATTITUDE_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YEinstellung§! steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \n§GFreundliche§! und §Gloyale§! Gruppierungen verleihen Boni auf Stabilität und Mannstärke. \n§RFeindliche§! Gruppierungen reduzieren die Stabilität.\nGleichgültige und §gbelanglose§! Gruppierungen verleihen weder einen Bonus, noch einen Malus.</t>
+    <t xml:space="preserve">§Y§Y Einstellung §!§!  steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \n§G§G Freundliche §!§!  und §G§G loyale §!§!  Gruppierungen verleihen Boni auf Stabilität und Mannstärke. \n§R§R Feindliche §!§!  Gruppierungen reduzieren die Stabilität.\nGleichgültige und §g§g belanglose §!§!  Gruppierungen verleihen weder einen Bonus, noch einen Malus.</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_STABILITY_TOOLTIP:</t>
@@ -787,13 +787,13 @@
     <t xml:space="preserve"> GRE_faction_loyal_stability:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+10%§!</t>
+    <t xml:space="preserve">§G§G +10% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_friendly_stability:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+5%§!</t>
+    <t xml:space="preserve">§G§G +5% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_indifferent_stability:</t>
@@ -802,19 +802,19 @@
     <t xml:space="preserve"> GRE_faction_hostile_stability:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R-15%§!</t>
+    <t xml:space="preserve">§R§R -15% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_loyal_manpower:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+20%§!</t>
+    <t xml:space="preserve">§G§G +20% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_friendly_manpower:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+15%§!</t>
+    <t xml:space="preserve">§G§G +15% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_faction_indifferent_manpower:</t>
@@ -904,31 +904,31 @@
     <t xml:space="preserve"> GRE_germany_rebuffed:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YDeutsche§! Investitionspläne abgelehnt</t>
+    <t xml:space="preserve">§Y§Y Deutsche §!§!  Investitionspläne abgelehnt</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_britain_rebuffed:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YBritische§! Investitionspläne abgelehnt</t>
+    <t xml:space="preserve">§Y§Y Britische §!§!  Investitionspläne abgelehnt</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_france_rebuffed:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YFranzösische§! Investitionspläne abgelehnt</t>
+    <t xml:space="preserve">§Y§Y Französische §!§!  Investitionspläne abgelehnt</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_italy_rebuffed:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YItalienische§! Investitionspläne abgelehnt</t>
+    <t xml:space="preserve">§Y§Y Italienische §!§!  Investitionspläne abgelehnt</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_soviets_rebuffed:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YSowjetische§! Investitionspläne abgelehnt</t>
+    <t xml:space="preserve">§Y§Y Sowjetische §!§!  Investitionspläne abgelehnt</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_factions_unlocked:</t>
@@ -940,31 +940,31 @@
     <t xml:space="preserve"> GRE_monarchist_economy_change_radical_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §YMonarchistischen Fraktion§! um §R15§!.\n</t>
+    <t xml:space="preserve">Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §Y§Y Monarchistischen Fraktion §!§!  um §R§R 15 §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_republican_economy_change_radical_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §YVenizelistischen Fraktion§! um §R10§!.\n</t>
+    <t xml:space="preserve">Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §Y§Y Venizelistischen Fraktion §!§!  um §R§R 10 §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_monarchist_economy_change_positive_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §YMonarchistischen Fraktion§! um §G10§!.\n</t>
+    <t xml:space="preserve">Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §Y§Y Monarchistischen Fraktion §!§!  um §G§G 10 §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_republican_economy_change_positive_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §YRepublikanischen Fraktion§! um §G5§!.\n</t>
+    <t xml:space="preserve">Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §Y§Y Republikanischen Fraktion §!§!  um §G§G 5 §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_communist_economy_change_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Konstanz der seit langem verfolgten Wirtschaftspolitik verringert die Loyalität der §YKommunistischen Fraktion§! um §R5§!.\n</t>
+    <t xml:space="preserve">Die Konstanz der seit langem verfolgten Wirtschaftspolitik verringert die Loyalität der §Y§Y Kommunistischen Fraktion §!§!  um §R§R 5 §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> SOV_set_up_puppet_state_in_turkey:</t>
@@ -994,49 +994,49 @@
     <t xml:space="preserve"> form_country_dyrrachium_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Um das §YThema Dyrrachium§! wiederherzustellen, ist die Kontrolle über §YAlbanien§! und §YMontenegro§! erforderlich.</t>
+    <t xml:space="preserve">Um das §Y§Y Thema Dyrrachium §!§!  wiederherzustellen, ist die Kontrolle über §Y§Y Albanien §!§!  und §Y§Y Montenegro §!§!  erforderlich.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_paristrion_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Um das §YThema Paristrion§! wiederherzustellen, ist die Kontrolle über die südlichen Staaten und Küstenstaaten §YRumäniens§! erforderlich.</t>
+    <t xml:space="preserve">Um das §Y§Y Thema Paristrion §!§!  wiederherzustellen, ist die Kontrolle über die südlichen Staaten und Küstenstaaten §Y§Y Rumäniens §!§!  erforderlich.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_boulgarias_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Um das §YThema Bulgarien§! wiederherzustellen, ist die Kontrolle über alle Staaten §YBulgariens§! und §YMazedoniens§! erforderlich.</t>
+    <t xml:space="preserve">Um das §Y§Y Thema Bulgarien §!§!  wiederherzustellen, ist die Kontrolle über alle Staaten §Y§Y Bulgariens §!§!  und §Y§Y Mazedoniens §!§!  erforderlich.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_sirmium_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Um das §YThema Sirmium§! wiederherzustellen, ist die Kontrolle über die südlichen Staaten, zentralen Staaten und Küstenstaaten §YJugoslawiens§! erforderlich.</t>
+    <t xml:space="preserve">Um das §Y§Y Thema Sirmium §!§!  wiederherzustellen, ist die Kontrolle über die südlichen Staaten, zentralen Staaten und Küstenstaaten §Y§Y Jugoslawiens §!§!  erforderlich.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_dyrrachium_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erlangen Sie Kerngebiete in §YAlbanien§! und §YMontenegro§! und benennen Sie sie um.\n</t>
+    <t xml:space="preserve">Erlangen Sie Kerngebiete in §Y§Y Albanien §!§!  und §Y§Y Montenegro §!§!  und benennen Sie sie um.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_paristrion_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erlangen Sie Kerngebiete in den betreffenden §Yrumänischen§! Staaten und benennen Sie sie um.\n</t>
+    <t xml:space="preserve">Erlangen Sie Kerngebiete in den betreffenden §Y§Y rumänischen §!§!  Staaten und benennen Sie sie um.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_boulgarias_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erlangen Sie Kerngebiete in allen §Ybulgarischen§! Staaten und in §YMazedonien§! und benennen Sie sie um.\n</t>
+    <t xml:space="preserve">Erlangen Sie Kerngebiete in allen §Y§Y bulgarischen §!§!  Staaten und in §Y§Y Mazedonien §!§!  und benennen Sie sie um.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_sirmium_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erlangen Sie Kerngebiete in den betreffenden §Yjugoslawischen§! Staaten und benennen Sie sie um.\n</t>
+    <t xml:space="preserve">Erlangen Sie Kerngebiete in den betreffenden §Y§Y jugoslawischen §!§!  Staaten und benennen Sie sie um.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> form_byzantine_empire_flag:</t>
@@ -1066,31 +1066,31 @@
     <t xml:space="preserve"> form_country_turkish_coastal_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert alle westlichen §Ytürkischen§! Küstenstaaten.</t>
+    <t xml:space="preserve">Kontrolliert alle westlichen §Y§Y türkischen §!§!  Küstenstaaten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_dodecanese_required_state_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert den §YDodekanes§!.</t>
+    <t xml:space="preserve">Kontrolliert den §Y§Y Dodekanes §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_cyprus_required_state_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §YZypern§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y Zypern §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_turkish_coast_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erlangen Sie Kerngebiete in allen westlichen §Ytürkischen§! Küstenstaaten.</t>
+    <t xml:space="preserve">Erlangen Sie Kerngebiete in allen westlichen §Y§Y türkischen §!§!  Küstenstaaten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_cyprus_coring_state_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erlangen Sie Kerngebiete auf §YZypern§!.</t>
+    <t xml:space="preserve">Erlangen Sie Kerngebiete auf §Y§Y Zypern §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> GRE_move_capital_to_constantinople:</t>
@@ -1168,25 +1168,25 @@
     <t xml:space="preserve"> form_country_southern_yugoslavia_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert alle §Ybulgarischen§! und §Yalbanischen§! Staaten sowie alle §Yjugoslawischen§! Staaten südlich von §YSerbien§!.</t>
+    <t xml:space="preserve">Kontrolliert alle §Y§Y bulgarischen §!§!  und §Y§Y albanischen §!§!  Staaten sowie alle §Y§Y jugoslawischen §!§!  Staaten südlich von §Y§Y Serbien §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_southern_central_asia_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[742.GetName]§!, §Y[732.GetName]§! und §Y[405.GetName]§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [742.GetName] §!§! , §Y§Y [732.GetName] §!§!  und §Y§Y [405.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_british_levant_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[454.GetName]§!, §Y[455.GetName]§! und §Y[656.GetName]§!</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [454.GetName] §!§! , §Y§Y [455.GetName] §!§!  und §Y§Y [656.GetName] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_punjab_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert alle §Ypakistanischen§! Staaten.</t>
+    <t xml:space="preserve">Kontrolliert alle §Y§Y pakistanischen §!§!  Staaten.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_the_constitutional_arrows_category:</t>
@@ -1288,7 +1288,7 @@
     <t xml:space="preserve"> TUR_no_longer_has_etatism_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unterstützt den §YEtatismus§! nicht länger</t>
+    <t xml:space="preserve">Unterstützt den §Y§Y Etatismus §!§!  nicht länger</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_etatism_abolished:</t>
@@ -1534,7 +1534,7 @@
     <t xml:space="preserve"> TUR_sponsored_killigil_armaments_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YWaffenfabrik Killigil§! durch die Entscheidung §YSanayiciler-Industrieprojekte§! gefördert.</t>
+    <t xml:space="preserve">§Y§Y Waffenfabrik Killigil §!§!  durch die Entscheidung §Y§Y Sanayiciler-Industrieprojekte §!§!  gefördert.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_sponsor_the_nuri_demirag_besiktas_aircraft_factory:</t>
@@ -1576,7 +1576,7 @@
     <t xml:space="preserve"> TUR_karabuk_iron_steel_factory_modernised_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §YEisen- und Stahlfabrik Karabuk§! wurde durch die §YSanayiciler§! modernisiert.</t>
+    <t xml:space="preserve">Die §Y§Y Eisen- und Stahlfabrik Karabuk §!§!  wurde durch die §Y§Y Sanayiciler §!§!  modernisiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_sponsor_petrol_olfisis_formation:</t>
@@ -1678,7 +1678,7 @@
     <t xml:space="preserve"> TUR_investment_opinion_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Je besser die Meinung, die §Y[FROM.GetNameDef]§! von uns hat, desto mehr Investitionsgelegenheiten gibt es.\n</t>
+    <t xml:space="preserve">Je besser die Meinung, die §Y§Y [FROM.GetNameDef] §!§!  von uns hat, desto mehr Investitionsgelegenheiten gibt es.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> ROOT_invest_in_turkish_state_building:</t>
@@ -1726,7 +1726,7 @@
     <t xml:space="preserve"> ROOT_turkish_investment_ai_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Je besser unsere §YInvestitionen§! in §Y[TUR.GetNameDef]§!, desto enger können wir sie an unsere eigenen Interessen binden und gleichzeitig Distanz zwischen sie und unsere Feinde bringen.\n</t>
+    <t xml:space="preserve">Je besser unsere §Y§Y Investitionen §!§!  in §Y§Y [TUR.GetNameDef] §!§! , desto enger können wir sie an unsere eigenen Interessen binden und gleichzeitig Distanz zwischen sie und unsere Feinde bringen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_kurdish_state_management_category:</t>
@@ -1750,37 +1750,37 @@
     <t xml:space="preserve"> TUR_agitate_kurdish_state_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_tur_kurdish §Ykurdischen Rebellen§! erhöhen die Intensität ihres Widerstands gegen die Regierung in §Y[TUR_kurdish_state_event_target.GetName]§!.</t>
+    <t xml:space="preserve">Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  erhöhen die Intensität ihres Widerstands gegen die Regierung in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_pacify_kurdish_state_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_tur_kurdish §Ykurdischen Rebellen§! in §Y[TUR_kurdish_state_event_target.GetName]§! werden befriedet.</t>
+    <t xml:space="preserve">Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§!  werden befriedet.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_placate_kurdish_state_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_tur_kurdish §Ykurdischen Rebellen§! in §Y[TUR_kurdish_state_event_target.GetName]§! werden besänftigt.</t>
+    <t xml:space="preserve">Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§!  werden besänftigt.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_kurdish_modifiers_trigger_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle £faction_tur_kurdish §Ykurdischen§! Staaten sind entweder §YKerngebiete§! oder haben den Modifikator §YSeparatistische Erschöpfung§!.</t>
+    <t xml:space="preserve">Alle £faction_tur_kurdish §Y§Y kurdischen §!§!  Staaten sind entweder §Y§Y Kerngebiete §!§!  oder haben den Modifikator §Y§Y Separatistische Erschöpfung §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_no_current_integration_targets_available_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Bevor der a£faction_tur_kurdish §Ykurdische§! Staat zum Kerngebiet werden kann, muss der §YGehorsam§! auf mindestens §Y70%§! erhöht werden und der §YWiderstand§! muss auf mindestens §Y30%§! verringert werden.</t>
+    <t xml:space="preserve">Bevor der a£faction_tur_kurdish §Y§Y kurdische §!§!  Staat zum Kerngebiet werden kann, muss der §Y§Y Gehorsam §!§!  auf mindestens §Y§Y 70% §!§!  erhöht werden und der §Y§Y Widerstand §!§!  muss auf mindestens §Y§Y 30% §!§!  verringert werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_integrate_kurdish_state_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Der £faction_tur_kurdish §Ykurdische§! Staat verliert seine Staatsmodifikatoren und wird zu einem Kerngebiet von §Y[TUR.GetNameDef]§!.</t>
+    <t xml:space="preserve">Der £faction_tur_kurdish §Y§Y kurdische §!§!  Staat verliert seine Staatsmodifikatoren und wird zu einem Kerngebiet von §Y§Y [TUR.GetNameDef] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_counter_the_rebels_in_diyarbakir:</t>
@@ -1834,13 +1834,13 @@
     <t xml:space="preserve"> TUR_decision_cost_kurd_rebels:</t>
   </si>
   <si>
-    <t xml:space="preserve">£command_power  §Y15§!</t>
+    <t xml:space="preserve">£command_power  §Y§Y 15 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_decision_cost_kurd_rebels_blocked:</t>
   </si>
   <si>
-    <t xml:space="preserve">£command_power  §R15§!</t>
+    <t xml:space="preserve">£command_power  §R§R 15 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_offer_conscription_exceptions_to_kurdish_groups:</t>
@@ -1870,7 +1870,7 @@
     <t xml:space="preserve"> TUR_unlock_kurdish_integration_decisions_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schaltet Entscheidungen frei:§Y$TUR_integrate_kurdish_state$§!.</t>
+    <t xml:space="preserve">Schaltet Entscheidungen frei:§Y§Y $TUR_integrate_kurdish_state$ §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_integrate_diyarbakir:</t>
@@ -2023,19 +2023,19 @@
     <t xml:space="preserve"> TUR_kemalist_loyalty_and_power_update_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §Ykemalistischen Offiziere§! passen ihren Status als Reaktion auf die Handlungen der Regierung an.</t>
+    <t xml:space="preserve">Die §Y§Y kemalistischen Offiziere §!§!  passen ihren Status als Reaktion auf die Handlungen der Regierung an.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_kemalist_influenced_state_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_tur_kemalist §YKemalisten§! übernehmen als unangefochtene Verwalter des Staats.</t>
+    <t xml:space="preserve">Die £faction_tur_kemalist §Y§Y Kemalisten §!§!  übernehmen als unangefochtene Verwalter des Staats.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_kemalist_turn_hostile_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_tur_kemalist §YKemalisten§! werden der Regierung gegenüber §Rfeindselig§! .</t>
+    <t xml:space="preserve">Die £faction_tur_kemalist §Y§Y Kemalisten §!§!  werden der Regierung gegenüber §R§R feindselig §!§!  .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_counter_influence_of_fundamentalists_in_state:</t>
@@ -2077,19 +2077,19 @@
     <t xml:space="preserve"> TUR_ideological_battleground_state:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist kein £faction_tur_unaligned §Yneutraler Staat§!</t>
+    <t xml:space="preserve">Ist kein £faction_tur_unaligned §Y§Y neutraler Staat §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_is_fundamentalist_state_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Gilt als £faction_tur_traditionalist §Ytraditionalistischer Staat§!</t>
+    <t xml:space="preserve">Gilt als £faction_tur_traditionalist §Y§Y traditionalistischer Staat §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_is_kemalist_state_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Gilt als £faction_tur_kemalist §Ykemalistischer Staat§!</t>
+    <t xml:space="preserve">Gilt als £faction_tur_kemalist §Y§Y kemalistischer Staat §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_traditionalist_infiltration_mission:</t>
@@ -2152,7 +2152,7 @@
     <t xml:space="preserve"> TUR_hostile_kemalists_influenced_state_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_tur_kemalist §Ykemalistischen Verräter§! verschanzen sich in §Y[TUR_kemalist_state_event_target.GetName]§!.</t>
+    <t xml:space="preserve">Die £faction_tur_kemalist §Y§Y kemalistischen Verräter §!§!  verschanzen sich in §Y§Y [TUR_kemalist_state_event_target.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_thwarting_kemalist_infiltration:</t>
@@ -2404,49 +2404,49 @@
     <t xml:space="preserve"> form_rumelia_greece_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert alle §Ygriechischen§! Festlandstaaten.</t>
+    <t xml:space="preserve">Kontrolliert alle §Y§Y griechischen §!§!  Festlandstaaten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_rumelia_bulgaria_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert alle §Ybulgarischen§! Staaten.</t>
+    <t xml:space="preserve">Kontrolliert alle §Y§Y bulgarischen §!§!  Staaten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_rumelia_yugoslavia_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert alle §Yserbischen§!, §Ymazedonischen§! und §Ymontenegrinischen§! Staaten.</t>
+    <t xml:space="preserve">Kontrolliert alle §Y§Y serbischen §!§! , §Y§Y mazedonischen §!§!  und §Y§Y montenegrinischen §!§!  Staaten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_rumelia_albania_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert alle §Yalbanischen§! Staaten.</t>
+    <t xml:space="preserve">Kontrolliert alle §Y§Y albanischen §!§!  Staaten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_rumelia_greece_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Macht alle §Ygriechischen§! Festlandstaaten zu Kerngebieten.</t>
+    <t xml:space="preserve">Macht alle §Y§Y griechischen §!§!  Festlandstaaten zu Kerngebieten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_rumelia_bulgaria_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Macht alle §Ybulgarischen§! Staaten zu Kerngebieten.</t>
+    <t xml:space="preserve">Macht alle §Y§Y bulgarischen §!§!  Staaten zu Kerngebieten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_rumelia_yugoslavia_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Macht alle §Yserbischen§!, §Ymazedonischen§! und §Ymontenegrinischen§! Staaten zu Kerngebieten.</t>
+    <t xml:space="preserve">Macht alle §Y§Y serbischen §!§! , §Y§Y mazedonischen §!§!  und §Y§Y montenegrinischen §!§!  Staaten zu Kerngebieten.</t>
   </si>
   <si>
     <t xml:space="preserve"> form_rumelia_albania_coring_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Macht alle §Yalbanischen§! Staaten zu Kernen.</t>
+    <t xml:space="preserve">Macht alle §Y§Y albanischen §!§!  Staaten zu Kernen.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_the_fading_father_category:</t>
@@ -2488,7 +2488,7 @@
     <t xml:space="preserve"> TUR_worsen_ataturks_health_effect_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YMustafa Kemal Atatürk§! ist wegen seines §Rschlechten Gesundheitszustands§! als Staatsoberhaupt weniger effektiv.</t>
+    <t xml:space="preserve">§Y§Y Mustafa Kemal Atatürk §!§!  ist wegen seines §R§R schlechten Gesundheitszustands §!§!  als Staatsoberhaupt weniger effektiv.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_retire_ataturk:</t>
@@ -2506,37 +2506,37 @@
     <t xml:space="preserve"> TUR_ataturk_health_poor_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YMustafa Kemal Atatürk§! Gesundheitszustand gilt als §Yschlecht§!.</t>
+    <t xml:space="preserve">§Y§Y Mustafa Kemal Atatürk §!§!  Gesundheitszustand gilt als §Y§Y schlecht §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_ataturk_health_terminal_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YMustafa Kemal Atatürk§! wird wegen seines §Yunheilbaren§! Zustands palliativ gepflegt.</t>
+    <t xml:space="preserve">§Y§Y Mustafa Kemal Atatürk §!§!  wird wegen seines §Y§Y unheilbaren §!§!  Zustands palliativ gepflegt.</t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_ataturk_health_stable:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YStabil§!</t>
+    <t xml:space="preserve">§Y§Y Stabil §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_ataturk_health_poor:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YSchlecht§!</t>
+    <t xml:space="preserve">§Y§Y Schlecht §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_ataturk_health_terminal:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RUnheilbar§!</t>
+    <t xml:space="preserve">§R§R Unheilbar §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TUR_acquiesce_to_fundamentalists_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dieser Staat und bis zu §Y2§! weitere £faction_tur_traditionalist §Ytraditionalistische Staaten§! werden anfangen, mit der Regierung zu kooperieren.</t>
+    <t xml:space="preserve">Dieser Staat und bis zu §Y§Y 2 §!§!  weitere £faction_tur_traditionalist §Y§Y traditionalistische Staaten §!§!  werden anfangen, mit der Regierung zu kooperieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> the_national_oath_category:</t>
@@ -2632,43 +2632,43 @@
     <t xml:space="preserve"> form_country_turan_syria_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[799.GetName]§! und §Y[680.GetName]§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [799.GetName] §!§!  und §Y§Y [680.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_turan_iraq_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[676.GetName]§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [676.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_turan_iran_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[421.GetName]§!, §Y[419.GetName]§!, §Y[420.GetName]§!, §Y[417.GetName]§!, §Y[413.GetName]§!, §Y[266.GetName]§! und §Y[416.GetName]§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [421.GetName] §!§! , §Y§Y [419.GetName] §!§! , §Y§Y [420.GetName] §!§! , §Y§Y [417.GetName] §!§! , §Y§Y [413.GetName] §!§! , §Y§Y [266.GetName] §!§!  und §Y§Y [416.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_turan_azerbaijan_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[229.GetName]§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [229.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_turan_kuban_crimea_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[233.GetName]§!, §Y[232.GetName]§!, §Y[235.GetName]§!, §Y[234.GetName]§!, §Y[237.GetName]§!, §Y[238.GetName]§!, §Y[236.GetName]§!, §Y[407.GetName]§!, §Y[406.GetName]§!, §Y[218.GetName]§!, §Y[227.GetName]§!, §Y[228.GetName]§!, §Y[200.GetName]§!, §Y[196.GetName]§! und §Y[137.GetName]§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [233.GetName] §!§! , §Y§Y [232.GetName] §!§! , §Y§Y [235.GetName] §!§! , §Y§Y [234.GetName] §!§! , §Y§Y [237.GetName] §!§! , §Y§Y [238.GetName] §!§! , §Y§Y [236.GetName] §!§! , §Y§Y [407.GetName] §!§! , §Y§Y [406.GetName] §!§! , §Y§Y [218.GetName] §!§! , §Y§Y [227.GetName] §!§! , §Y§Y [228.GetName] §!§! , §Y§Y [200.GetName] §!§! , §Y§Y [196.GetName] §!§!  und §Y§Y [137.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_turan_urals_central_asia_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[582.GetName]§!, §Y[402.GetName]§!, §Y[583.GetName]§!, §Y[587.GetName]§!, §Y[585.GetName]§!, §Y[584.GetName]§!, §Y[405.GetName]§!, §Y[404.GetName]§!, §Y[586.GetName]§!, §Y[732.GetName]§!, §Y[742.GetName]§!, §Y[589.GetName]§!, §Y[588.GetName]§!, §Y[590.GetName]§!, §Y[570.GetName]§! und §Y[571.GetName]§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [582.GetName] §!§! , §Y§Y [402.GetName] §!§! , §Y§Y [583.GetName] §!§! , §Y§Y [587.GetName] §!§! , §Y§Y [585.GetName] §!§! , §Y§Y [584.GetName] §!§! , §Y§Y [405.GetName] §!§! , §Y§Y [404.GetName] §!§! , §Y§Y [586.GetName] §!§! , §Y§Y [732.GetName] §!§! , §Y§Y [742.GetName] §!§! , §Y§Y [589.GetName] §!§! , §Y§Y [588.GetName] §!§! , §Y§Y [590.GetName] §!§! , §Y§Y [570.GetName] §!§!  und §Y§Y [571.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> form_country_turan_siberia_required_states_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrolliert §Y[654.GetName]§!, §Y[40.GetName]§!, §Y[569.GetName]§!, §Y[568.GetName]§!, §Y[329.GetName]§!, §Y[567.GetName]§!, §Y[566.GetName]§!, §Y[564.GetName]§!, §Y[563.GetName]§!, §Y[565.GetName]§!, §Y[561.GetName]§!, §Y[574.GetName]§!, §Y[562.GetName]§!, §Y[644.GetName]§! und §Y[637.GetName]§!.</t>
+    <t xml:space="preserve">Kontrolliert §Y§Y [654.GetName] §!§! , §Y§Y [40.GetName] §!§! , §Y§Y [569.GetName] §!§! , §Y§Y [568.GetName] §!§! , §Y§Y [329.GetName] §!§! , §Y§Y [567.GetName] §!§! , §Y§Y [566.GetName] §!§! , §Y§Y [564.GetName] §!§! , §Y§Y [563.GetName] §!§! , §Y§Y [565.GetName] §!§! , §Y§Y [561.GetName] §!§! , §Y§Y [574.GetName] §!§! , §Y§Y [562.GetName] §!§! , §Y§Y [644.GetName] §!§!  und §Y§Y [637.GetName] §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> kurdish_agitation:</t>
@@ -2881,13 +2881,13 @@
     <t xml:space="preserve"> BUL_loyalty_status_crushed:</t>
   </si>
   <si>
-    <t xml:space="preserve">§gZerschlagen§!</t>
+    <t xml:space="preserve">§g§g Zerschlagen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_loyalty_status_integrated:</t>
   </si>
   <si>
-    <t xml:space="preserve">§gIntegriert§!</t>
+    <t xml:space="preserve">§g§g Integriert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_popularity_status_crushed:</t>
@@ -2929,61 +2929,61 @@
     <t xml:space="preserve"> BUL_ZVENO_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">£faction_bul_zveno §YZveno§! ist eine nationalistische Organisation, die den Armeeoffizieren gegründet wurde und momentan von Kimon Georgiew geleitet wird. \n£faction_bul_zveno §YZveno§! wird Armeeoffiziere auffordern, der Organisation beizutreten. Mit der Zeit könnte die Gruppe sogar versuchen, einen Staatsstreich durchzuführen und eine Militärdiktatur zu installieren.</t>
+    <t xml:space="preserve">£faction_bul_zveno §Y§Y Zveno §!§!  ist eine nationalistische Organisation, die den Armeeoffizieren gegründet wurde und momentan von Kimon Georgiew geleitet wird. \n£faction_bul_zveno §Y§Y Zveno §!§!  wird Armeeoffiziere auffordern, der Organisation beizutreten. Mit der Zeit könnte die Gruppe sogar versuchen, einen Staatsstreich durchzuführen und eine Militärdiktatur zu installieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_BS_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_bul_bs §YBreiten Sozialisten§! sind Sozialdemokraten, die breite Klassenbündnisse unterstützen. \nDie £faction_bul_bs §YBreiten Sozialisten§! genießen großen Einfluss bei Industriearbeitern und Gewerkschaften und werden zu Generalstreiks aufrufen, wenn sie der Regierung gegenüber nicht loyal ergeben sind.</t>
+    <t xml:space="preserve">Die £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  sind Sozialdemokraten, die breite Klassenbündnisse unterstützen. \nDie £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  genießen großen Einfluss bei Industriearbeitern und Gewerkschaften und werden zu Generalstreiks aufrufen, wenn sie der Regierung gegenüber nicht loyal ergeben sind.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_BZNS_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_bul_bzns §YAgrarunion§! ist eine 1934 verbotene politische Organisation, die sich primär mit Fragen rund um die Agrarwirtschaft beschäftigt. \nDie £faction_bul_bzns §YAgrarunion§! genießt in den ländlichen Regionen des Landes großen Einfluss und wird versuchen, die Bauern auf ihre Seite zu ziehen.</t>
+    <t xml:space="preserve">Die £faction_bul_bzns §Y§Y Agrarunion §!§!  ist eine 1934 verbotene politische Organisation, die sich primär mit Fragen rund um die Agrarwirtschaft beschäftigt. \nDie £faction_bul_bzns §Y§Y Agrarunion §!§!  genießt in den ländlichen Regionen des Landes großen Einfluss und wird versuchen, die Bauern auf ihre Seite zu ziehen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_NSM_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die £faction_bul_nsm §YNationalsozialistische Bewegung§! ist eine extrem rechte Organisation unter der Führung des ehemaligen Zveno-Mitglieds Aleksandar Zwankow. \nDie £faction_bul_nsm §YNationalsozialistische Bewegung§! wird versuchen, die Massen auf ihre Seite zu ziehen, indem sie im ganzen Land Demonstrationen und Proteste organisiert.</t>
+    <t xml:space="preserve">Die £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  ist eine extrem rechte Organisation unter der Führung des ehemaligen Zveno-Mitglieds Aleksandar Zwankow. \nDie £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wird versuchen, die Massen auf ihre Seite zu ziehen, indem sie im ganzen Land Demonstrationen und Proteste organisiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_LOYALTY_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YLoyalität§! steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \nJe höher die §YLoyalität§!, desto unwahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung in die Regierung integriert werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um die Mitglieder der Regierung auf Linie mit der Regierung zu bringen und ihre §YLoyalität§! auf 100 zu erhöhen.</t>
+    <t xml:space="preserve">§Y§Y Loyalität §!§!  steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \nJe höher die §Y§Y Loyalität §!§! , desto unwahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung in die Regierung integriert werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um die Mitglieder der Regierung auf Linie mit der Regierung zu bringen und ihre §Y§Y Loyalität §!§!  auf 100 zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_POPULARITY_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YBeliebtheit§! steht für die Unterstützung, die eine Gruppierung aus bestimmten Teilen der Bevölkerung erhält (beispielsweise Militärangehörige, Proletarier, Bauern oder Rechtsradikale). \nJe höher die §YBeliebtheit§!, desto wahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung zerschlagen werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um sie zu schwächen und ihre §YBeliebtheit§! auf 0 zu senken.</t>
+    <t xml:space="preserve">§Y§Y Beliebtheit §!§!  steht für die Unterstützung, die eine Gruppierung aus bestimmten Teilen der Bevölkerung erhält (beispielsweise Militärangehörige, Proletarier, Bauern oder Rechtsradikale). \nJe höher die §Y§Y Beliebtheit §!§! , desto wahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung zerschlagen werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um sie zu schwächen und ihre §Y§Y Beliebtheit §!§!  auf 0 zu senken.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_reduced_faction_interaction_cost_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Entscheidungskosten für die Aktivierung aller §YFraktionsverwaltung§!-Entscheidungen werden halbiert.</t>
+    <t xml:space="preserve">Die Entscheidungskosten für die Aktivierung aller §Y§Y Fraktionsverwaltung §!§! -Entscheidungen werden halbiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_reduced_communist_oppression_cost_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Entscheidungskosten für die Unterdrückung der §YBreiten Sozialisten§! werden halbiert.</t>
+    <t xml:space="preserve">Die Entscheidungskosten für die Unterdrückung der §Y§Y Breiten Sozialisten §!§!  werden halbiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_improved_faction_effects_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verstärkte Effekte auf Fraktionen durch alle §YFraktionsverwaltung§!-Entscheidungen.</t>
+    <t xml:space="preserve">Verstärkte Effekte auf Fraktionen durch alle §Y§Y Fraktionsverwaltung §!§! -Entscheidungen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_reduced_faction_interaction_cooldown_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YFraktionsverwaltung§!-Entscheidungen werden schneller abgeschlossen und stehen nach Aktivierung schneller zur Verfügung.</t>
+    <t xml:space="preserve">§Y§Y Fraktionsverwaltung §!§! -Entscheidungen werden schneller abgeschlossen und stehen nach Aktivierung schneller zur Verfügung.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_zveno_tt:</t>
@@ -3013,97 +3013,97 @@
     <t xml:space="preserve"> BUL_zveno_name_and_icon:</t>
   </si>
   <si>
-    <t xml:space="preserve">£faction_bul_zveno §YSweno§!</t>
+    <t xml:space="preserve">£faction_bul_zveno §Y§Y Sweno §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bs_name_and_icon:</t>
   </si>
   <si>
-    <t xml:space="preserve">£faction_bul_bs §YBreite Sozialisten§!</t>
+    <t xml:space="preserve">£faction_bul_bs §Y§Y Breite Sozialisten §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bzns_name_and_icon:</t>
   </si>
   <si>
-    <t xml:space="preserve">£faction_bul_bzns §YAgrarunion§!</t>
+    <t xml:space="preserve">£faction_bul_bzns §Y§Y Agrarunion §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_nsm_name_and_icon:</t>
   </si>
   <si>
-    <t xml:space="preserve">£faction_bul_nsm §YNationalsozialistische Bewegung§!</t>
+    <t xml:space="preserve">£faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_low_loyalty_increase_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+[?BUL.BUL_faction_low_increase]§! Fraktionsloyalität.</t>
+    <t xml:space="preserve">§G§G +[?BUL.BUL_faction_low_increase] §!§!  Fraktionsloyalität.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_low_popularity_increase_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+[?BUL.BUL_faction_low_increase]§! Fraktionsbeliebtheit.</t>
+    <t xml:space="preserve">§G§G +[?BUL.BUL_faction_low_increase] §!§!  Fraktionsbeliebtheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_medium_loyalty_increase_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+[?BUL.BUL_faction_medium_increase]§! Fraktionsloyalität.</t>
+    <t xml:space="preserve">§G§G +[?BUL.BUL_faction_medium_increase] §!§!  Fraktionsloyalität.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_medium_popularity_increase_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+[?BUL.BUL_faction_medium_increase]§! Fraktionsbeliebtheit.</t>
+    <t xml:space="preserve">§G§G +[?BUL.BUL_faction_medium_increase] §!§!  Fraktionsbeliebtheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_high_loyalty_increase_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+[?BUL.BUL_faction_high_increase]§! Fraktionsloyalität.</t>
+    <t xml:space="preserve">§G§G +[?BUL.BUL_faction_high_increase] §!§!  Fraktionsloyalität.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_high_popularity_increase_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§G+[?BUL.BUL_faction_high_increase]§! Fraktionsbeliebtheit.</t>
+    <t xml:space="preserve">§G§G +[?BUL.BUL_faction_high_increase] §!§!  Fraktionsbeliebtheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_low_loyalty_decrease_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R[?BUL.BUL_faction_low_decrease]§! Fraktionsloyalität.</t>
+    <t xml:space="preserve">§R§R [?BUL.BUL_faction_low_decrease] §!§!  Fraktionsloyalität.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_low_popularity_decrease_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R[?BUL.BUL_faction_low_decrease]§! Fraktionsbeliebtheit.</t>
+    <t xml:space="preserve">§R§R [?BUL.BUL_faction_low_decrease] §!§!  Fraktionsbeliebtheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_medium_loyalty_decrease_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R[?BUL.BUL_faction_medium_decrease]§! Fraktionsloyalität.</t>
+    <t xml:space="preserve">§R§R [?BUL.BUL_faction_medium_decrease] §!§!  Fraktionsloyalität.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_medium_popularity_decrease_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R[?BUL.BUL_faction_medium_decrease]§! Fraktionsbeliebtheit.</t>
+    <t xml:space="preserve">§R§R [?BUL.BUL_faction_medium_decrease] §!§!  Fraktionsbeliebtheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_high_loyalty_decrease_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R[?BUL.BUL_faction_high_decrease]§! Fraktionsloyalität.</t>
+    <t xml:space="preserve">§R§R [?BUL.BUL_faction_high_decrease] §!§!  Fraktionsloyalität.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_high_popularity_decrease_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R[?BUL.BUL_faction_high_decrease]§! Fraktionsbeliebtheit.</t>
+    <t xml:space="preserve">§R§R [?BUL.BUL_faction_high_decrease] §!§!  Fraktionsbeliebtheit.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_a_royal_visit:</t>
@@ -3865,151 +3865,151 @@
     <t xml:space="preserve"> BUL_cooperation_faction_joint_act_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität liegt über §Y20§!</t>
+    <t xml:space="preserve">Fraktionsloyalität liegt über §Y§Y 20 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperation_bolster_zveno_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität liegt über §Y35§!</t>
+    <t xml:space="preserve">Fraktionsloyalität liegt über §Y§Y 35 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperation_legalize_faction_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität liegt über §Y45§!</t>
+    <t xml:space="preserve">Fraktionsloyalität liegt über §Y§Y 45 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperation_fund_faction_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität liegt über §Y55§!</t>
+    <t xml:space="preserve">Fraktionsloyalität liegt über §Y§Y 55 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperation_appoint_faction_members_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität liegt über §Y70§!\nFraktionsbeliebtheit liegt über §Y55§!</t>
+    <t xml:space="preserve">Fraktionsloyalität liegt über §Y§Y 70 §!§! \nFraktionsbeliebtheit liegt über §Y§Y 55 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperation_integrate_faction_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsloyalität liegt bei §Y100§!\nFraktionsbeliebtheit liegt über §Y70§!</t>
+    <t xml:space="preserve">Fraktionsloyalität liegt bei §Y§Y 100 §!§! \nFraktionsbeliebtheit liegt über §Y§Y 70 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_opression_raid_faction_supporters_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsbeliebtheit liegt unter §Y30§!</t>
+    <t xml:space="preserve">Fraktionsbeliebtheit liegt unter §Y§Y 30 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_opression_destroy_faction_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsbeliebtheit liegt bei §Y0§!</t>
+    <t xml:space="preserve">Fraktionsbeliebtheit liegt bei §Y§Y 0 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_appointed_zveno_members_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat Minister von £faction_bul_zveno §YZveno§! ernannt</t>
+    <t xml:space="preserve">Hat Minister von £faction_bul_zveno §Y§Y Zveno §!§!  ernannt</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_appointed_bs_members_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat Minister von den £faction_bul_bs §YBreiten Sozialisten§! ernannt</t>
+    <t xml:space="preserve">Hat Minister von den £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  ernannt</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_appointed_bzns_members_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat Minister von der £faction_bul_bzns §YAgrarunion§! ernannt.</t>
+    <t xml:space="preserve">Hat Minister von der £faction_bul_bzns §Y§Y Agrarunion §!§!  ernannt.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_appointed_nsm_members_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat Minister von der £faction_bul_nsm §YNationalsozialistischen Bewegung§! ernannt</t>
+    <t xml:space="preserve">Hat Minister von der £faction_bul_nsm §Y§Y Nationalsozialistischen Bewegung §!§!  ernannt</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_zveno_bolstered_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat die Fraktion £faction_bul_zveno §YZveno§! gestärkt</t>
+    <t xml:space="preserve">Hat die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  gestärkt</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_zveno_destroyed_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fraktion £faction_bul_zveno §YZveno§! wurde zerstört</t>
+    <t xml:space="preserve">Die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  wurde zerstört</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_zveno_integrated_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fraktion £faction_bul_zveno §YZveno§! wurde in die Regierung integriert</t>
+    <t xml:space="preserve">Die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  wurde in die Regierung integriert</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bs_destroyed_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fraktion £faction_bul_bs §YBreite Sozialisten§! wurde zerstört</t>
+    <t xml:space="preserve">Die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  wurde zerstört</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bs_integrated_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fraktion £faction_bul_bs §YBreite Sozialisten§! wurde in die Regierung integriert</t>
+    <t xml:space="preserve">Die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  wurde in die Regierung integriert</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bzns_destroyed_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fraktion £faction_bul_bzns §YAgrarunion§! wurde zerstört</t>
+    <t xml:space="preserve">Die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  wurde zerstört</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bzns_integrated_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fraktion £faction_bul_bzns §YAgrarunion§! wurde in die Regierung integriert</t>
+    <t xml:space="preserve">Die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  wurde in die Regierung integriert</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_nsm_destroyed_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! wurde zerstört</t>
+    <t xml:space="preserve">Die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wurde zerstört</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_nsm_integrated_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! wurde in die Regierung integriert</t>
+    <t xml:space="preserve">Die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wurde in die Regierung integriert</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_zveno_legalized_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hat das von £faction_bul_zveno §YZveno§! vorgeschlagene Direktorat für Gesellschaftliche Erneuerung gegründet.</t>
+    <t xml:space="preserve"> Hat das von £faction_bul_zveno §Y§Y Zveno §!§!  vorgeschlagene Direktorat für Gesellschaftliche Erneuerung gegründet.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bs_legalized_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hat die Fraktion £faction_bul_bs §YBreite Sozialisten§! legalisiert.</t>
+    <t xml:space="preserve"> Hat die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  legalisiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bzns_legalized_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hat die Fraktion £faction_bul_bzns §YAgrarunion§! legalisiert.</t>
+    <t xml:space="preserve"> Hat die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  legalisiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_nsm_legalized_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hat die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! legalisiert.</t>
+    <t xml:space="preserve"> Hat die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  legalisiert.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_days_re_enable_tt:</t>
@@ -4021,49 +4021,49 @@
     <t xml:space="preserve"> BUL_cooperation_faction_speech_cd_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_low]§! Tagen.\n</t>
+    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_low] §!§!  Tagen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperation_faction_joint_act_cd_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_medium]§! Tagen.\n</t>
+    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_medium] §!§!  Tagen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_cooperation_fund_faction_cd_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_high]§! Tagen.\n</t>
+    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_high] §!§!  Tagen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_oppression_ban_faction_media_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsbeliebtheit liegt unter §Y55§!</t>
+    <t xml:space="preserve">Fraktionsbeliebtheit liegt unter §Y§Y 55 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_oppression_ban_faction_media_freedom_of_press_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y365§! sind seit der Einführung der Pressefreiheit durch die Regierung vergangen</t>
+    <t xml:space="preserve">§Y§Y 365 §!§!  sind seit der Einführung der Pressefreiheit durch die Regierung vergangen</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_has_banned_faction_media_trigger_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat in den letzten §Y365§! Tagen die Medien einer Fraktion verboten</t>
+    <t xml:space="preserve">Hat in den letzten §Y§Y 365 §!§!  Tagen die Medien einer Fraktion verboten</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_has_banned_faction_media_trigger_tt_NOT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicht: Hat in den letzten §Y365§! Tagen die Medien einer Fraktion verboten</t>
+    <t xml:space="preserve">Nicht: Hat in den letzten §Y§Y 365 §!§!  Tagen die Medien einer Fraktion verboten</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_oppression_imprison_faction_leaders_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraktionsbeliebtheit liegt unter §Y40§!</t>
+    <t xml:space="preserve">Fraktionsbeliebtheit liegt unter §Y§Y 40 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_opression_discredit_faction_leaders_cd_tt:</t>
@@ -4075,19 +4075,19 @@
     <t xml:space="preserve"> BUL_opression_raid_faction_supporters_cd_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_very_high]§! Tagen.\n</t>
+    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_very_high] §!§!  Tagen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_legalize_faction_prevents_oppression_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§RWenn wir diese Entscheidung abschließen, können wir diese Fraktion in Zukunft nicht mehr unterdrücken (außer, um Radikale zu unterdrücken, die aktiv das Wohlergehen der Nation gefährden).§!</t>
+    <t xml:space="preserve">\n§R§R Wenn wir diese Entscheidung abschließen, können wir diese Fraktion in Zukunft nicht mehr unterdrücken (außer, um Radikale zu unterdrücken, die aktiv das Wohlergehen der Nation gefährden). §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ban_media_prevents_cooperation_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§RWenn wir diese Entscheidung abschließen, können wir nicht länger mit dieser Fraktion kooperieren.§!</t>
+    <t xml:space="preserve">\n§R§R Wenn wir diese Entscheidung abschließen, können wir nicht länger mit dieser Fraktion kooperieren. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_unlock_further_decisions_in_the_chain_tt:</t>
@@ -4105,13 +4105,13 @@
     <t xml:space="preserve"> BUL_bzns_media_banned_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat die Verbreitung von Medien der £faction_bul_bzns §YAgrarunion§! verboten.</t>
+    <t xml:space="preserve">Hat die Verbreitung von Medien der £faction_bul_bzns §Y§Y Agrarunion §!§!  verboten.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_nsm_media_banned_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat die Verbreitung von Medien der £faction_bul_nsm §YNationalsozialistischen Bewegung§! verboten.</t>
+    <t xml:space="preserve">Hat die Verbreitung von Medien der £faction_bul_nsm §Y§Y Nationalsozialistischen Bewegung §!§!  verboten.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_impending_zveno_coup:</t>
@@ -4285,19 +4285,19 @@
     <t xml:space="preserve"> BUL_destroy_imro_divisions_macedonia_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat weniger als §Y2 Infanterie§!-Divisionen in §YSofia§! entlang der Grenze zum Staat §YMazedonien§!</t>
+    <t xml:space="preserve">Hat weniger als §Y§Y 2 Infanterie §!§! -Divisionen in §Y§Y Sofia §!§!  entlang der Grenze zum Staat §Y§Y Mazedonien §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_destroy_imro_divisions_central_macedonia_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat weniger als §Y4 Infanterie§!-Divisionen in §YPlowdiw§! entlang der Grenze zum Staat §YZentralmazedonien§!</t>
+    <t xml:space="preserve">Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Plowdiw §!§!  entlang der Grenze zum Staat §Y§Y Zentralmazedonien §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_destroy_imro_divisions_thrace_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat weniger als §Y4 Infanterie§!-Divisionen in §YPlowdiw§! entlang der Grenze zum Staat §YThrakien§!</t>
+    <t xml:space="preserve">Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Plowdiw §!§!  entlang der Grenze zum Staat §Y§Y Thrakien §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_macedonian_affairs_ongoing_flag:</t>
@@ -4336,7 +4336,7 @@
     <t xml:space="preserve"> BUL_support_imro_garrisons_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Erhält §Y[?BUL_imro_garrisons_mp_value] Mannstärke§! für jeden mazedonischen Staat, der voll unter [ROOT.GetAdjective]er Kontrolle ist.</t>
+    <t xml:space="preserve">Erhält §Y§Y [?BUL_imro_garrisons_mp_value] Mannstärke §!§!  für jeden mazedonischen Staat, der voll unter [ROOT.GetAdjective]er Kontrolle ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_support_imro_supply_activists_resistance_tt:</t>
@@ -4348,19 +4348,19 @@
     <t xml:space="preserve"> BUL_destroy_imro_divisions_macedonia_foreign_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat weniger als §Y9 Infanterie§!-Divisionen in §YMazedonien§!.</t>
+    <t xml:space="preserve">Hat weniger als §Y§Y 9 Infanterie §!§! -Divisionen in §Y§Y Mazedonien §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_destroy_imro_divisions_central_macedonia_foreign_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat weniger als §Y4 Infanterie§!-Divisionen in §YZentralmazedonien§!.</t>
+    <t xml:space="preserve">Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Zentralmazedonien §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_destroy_imro_divisions_thrace_foreign_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Hat weniger als §Y3 Infanterie§!-Divisionen in §YThrakien§!.</t>
+    <t xml:space="preserve">Hat weniger als §Y§Y 3 Infanterie §!§! -Divisionen in §Y§Y Thrakien §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_destroy_imro_foreign_tt:</t>
@@ -4378,19 +4378,19 @@
     <t xml:space="preserve"> BUL_destroy_imro_foreign_cancel_trigger_macedonia:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[106.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y9 Infanterie§!-Divisionen §Y[106.GetName]§!\n</t>
+    <t xml:space="preserve">§Y§Y [106.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 9 Infanterie §!§! -Divisionen §Y§Y [106.GetName] §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_destroy_imro_foreign_cancel_trigger_central_macedonia:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[731.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y4 Infanterie§!-Divisionen §Y[731.GetName]§!\n</t>
+    <t xml:space="preserve">§Y§Y [731.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen §Y§Y [731.GetName] §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_destroy_imro_foreign_cancel_trigger_thrace:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[184.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y3 Infanterie§!-Divisionen §Y[184.GetName]§!\n</t>
+    <t xml:space="preserve">§Y§Y [184.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 3 Infanterie §!§! -Divisionen §Y§Y [184.GetName] §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_destroy_imro_foreign_cancel_trigger_null:</t>
@@ -4417,13 +4417,13 @@
     <t xml:space="preserve"> BUL_the_fatherland_front_desc_planning:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Anführer der §YVaterlandsfront§! bereiten einen Putsch vor.\nIrgendwann werden sie Unterstützung suchen. [GetZvenoName], [GetBsName], [GetBznsName], die üblichen Verdächtigen.\nWir können verschiedene Maßnahmen ergreifen, um ihre Vorbereitungen zu behindern und ihren Versuch, die Regierung zu stürzen, zu schwächen:\n-Anführer und Sympathisanten der §YVaterlandsfront§! aufspüren und verhaften.\n-Die Gruppierungen, deren Unterstützung sie gewinnen wollen, zerstören oder integrieren.\n-Wenn die §YKommunistische Unterstützung§! bei unter 1 liegt, können wir der §YVaterlandsfront§! den Todesstoß versetzen.</t>
+    <t xml:space="preserve">Die Anführer der §Y§Y Vaterlandsfront §!§!  bereiten einen Putsch vor.\nIrgendwann werden sie Unterstützung suchen. [GetZvenoName], [GetBsName], [GetBznsName], die üblichen Verdächtigen.\nWir können verschiedene Maßnahmen ergreifen, um ihre Vorbereitungen zu behindern und ihren Versuch, die Regierung zu stürzen, zu schwächen:\n-Anführer und Sympathisanten der §Y§Y Vaterlandsfront §!§!  aufspüren und verhaften.\n-Die Gruppierungen, deren Unterstützung sie gewinnen wollen, zerstören oder integrieren.\n-Wenn die §Y§Y Kommunistische Unterstützung §!§!  bei unter 1 liegt, können wir der §Y§Y Vaterlandsfront §!§!  den Todesstoß versetzen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_the_fatherland_front_desc_coup:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Anführer der Vaterlandsfront haben den Putsch geplant und warten jetzt auf den richtigen Augenblick.\nWahrscheinlichkeit, dass der Putsch stattfindet:\nBasis §Y10%§! [GetAtWarFfPercentage] [GetAllyAtWarFfPercentage] [GetSovNeighborFfPercentage] [GetCommunistSovFfPercentage]</t>
+    <t xml:space="preserve">Die Anführer der Vaterlandsfront haben den Putsch geplant und warten jetzt auf den richtigen Augenblick.\nWahrscheinlichkeit, dass der Putsch stattfindet:\nBasis §Y§Y 10% §!§!  [GetAtWarFfPercentage] [GetAllyAtWarFfPercentage] [GetSovNeighborFfPercentage] [GetCommunistSovFfPercentage]</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_percentage_no_war:</t>
@@ -4432,19 +4432,19 @@
     <t xml:space="preserve"> BUL_ff_percentage_at_war:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nIm Krieg: §Y15%§!</t>
+    <t xml:space="preserve">\nIm Krieg: §Y§Y 15% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_percentage_at_war_with_sov:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y25%§!</t>
+    <t xml:space="preserve">\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y§Y 25% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_percentage_at_war_with_communist_sov:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y75%§!</t>
+    <t xml:space="preserve">\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y§Y 75% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_percentage_ally_no_war_with_sov:</t>
@@ -4453,13 +4453,13 @@
     <t xml:space="preserve"> BUL_ff_percentage_ally_at_war_with_sov:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y25%§!</t>
+    <t xml:space="preserve">\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y§Y 25% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_percentage_ally_at_war_with_communist_sov:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y100%§!</t>
+    <t xml:space="preserve">\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y§Y 100% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_percentage_sov_is_not_neighbor:</t>
@@ -4468,13 +4468,13 @@
     <t xml:space="preserve"> BUL_ff_percentage_sov_is_neighbor:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n[SOV.GetFlag][SOV.GetNameDef] kontrolliert einen benachbarten Staat: §Y15%§!</t>
+    <t xml:space="preserve">\n[SOV.GetFlag][SOV.GetNameDef] kontrolliert einen benachbarten Staat: §Y§Y 15% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_percentage_enemy_sov_is_neighbor:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n[SOV.GetFlag][SOV.GetNameDef] (kommunistisch) kontrolliert einen benachbarten Staat: §Y100%§!</t>
+    <t xml:space="preserve">\n[SOV.GetFlag][SOV.GetNameDef] (kommunistisch) kontrolliert einen benachbarten Staat: §Y§Y 100% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_percentage_sov_no_communist:</t>
@@ -4483,7 +4483,7 @@
     <t xml:space="preserve"> BUL_ff_percentage_sov_communist:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n[SOV.GetFlag][SOV.GetNameDef] ist kommunistisch: §Y15%§!</t>
+    <t xml:space="preserve">\n[SOV.GetFlag][SOV.GetNameDef] ist kommunistisch: §Y§Y 15% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_destroyed_flag:</t>
@@ -4507,49 +4507,49 @@
     <t xml:space="preserve"> BUL_ff_impending_coup_mission:</t>
   </si>
   <si>
-    <t xml:space="preserve">Putsch der §YVaterlandsfront§! steht unmittelbar bevor</t>
+    <t xml:space="preserve">Putsch der §Y§Y Vaterlandsfront §!§!  steht unmittelbar bevor</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_impending_coup_mission_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Anführer der §YVaterlandsfront§! treffen Vorbereitungen für einen Putsch.</t>
+    <t xml:space="preserve">Die Anführer der §Y§Y Vaterlandsfront §!§!  treffen Vorbereitungen für einen Putsch.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_approaching_zveno_mission:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YVaterlandsfront§! wendet sich an [GetZvenoName]</t>
+    <t xml:space="preserve">§Y§Y Vaterlandsfront §!§!  wendet sich an [GetZvenoName]</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_approaching_zveno_mission_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §YVaterlandsfront§! will [GetZvenoName] überzeugen, sich dem Putsch anzuschließen.</t>
+    <t xml:space="preserve">Die §Y§Y Vaterlandsfront §!§!  will [GetZvenoName] überzeugen, sich dem Putsch anzuschließen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_approaching_bs_mission:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YVaterlandsfront§! wendet sich an [GetBsName]</t>
+    <t xml:space="preserve">§Y§Y Vaterlandsfront §!§!  wendet sich an [GetBsName]</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_approaching_bs_mission_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §YVaterlandsfront§! will die Gruppe namens [GetBsName] überzeugen, sich dem Putsch anzuschließen.</t>
+    <t xml:space="preserve">Die §Y§Y Vaterlandsfront §!§!  will die Gruppe namens [GetBsName] überzeugen, sich dem Putsch anzuschließen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_approaching_bzns_mission:</t>
   </si>
   <si>
-    <t xml:space="preserve">§YVaterlandsfront§! wendet sich an [GetBznsName]</t>
+    <t xml:space="preserve">§Y§Y Vaterlandsfront §!§!  wendet sich an [GetBznsName]</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_approaching_bzns_mission_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die §YVaterlandsfront§! will die [GetBznsName] überzeugen, sich dem Putsch anzuschließen.</t>
+    <t xml:space="preserve">Die §Y§Y Vaterlandsfront §!§!  will die [GetBznsName] überzeugen, sich dem Putsch anzuschließen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_root_out_sympathizers:</t>
@@ -4591,7 +4591,7 @@
     <t xml:space="preserve"> BUL_ff_approaching_faction_timer_effects_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Gruppe schließt sich der Vaterlandsfront an. Basierend auf der §YFraktionsbeliebtheit§! werden Tage von der Mission §YPutsch der Vaterlandsfront steht unmittelbar bevor§! abgezogen. Die §YFraktionsloyalität§! gegenüber der Regierung schwächt den Effekt etwas ab.</t>
+    <t xml:space="preserve">Die Gruppe schließt sich der Vaterlandsfront an. Basierend auf der §Y§Y Fraktionsbeliebtheit §!§!  werden Tage von der Mission §Y§Y Putsch der Vaterlandsfront steht unmittelbar bevor §!§!  abgezogen. Die §Y§Y Fraktionsloyalität §!§!  gegenüber der Regierung schwächt den Effekt etwas ab.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_approaching_faction_cw_effects_tt:</t>
@@ -4603,7 +4603,7 @@
     <t xml:space="preserve"> BUL_ff_preventive_action_taken_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Verringert die Chance, dass die Vaterlandsfront einen Putsch unternimmt, um §G[?BUL.BUL_ff_preventive_actions_base_value]%§!.\nMaximaler Wert §Y[?BUL.BUL_ff_preventive_actions_cap_value]%§!.</t>
+    <t xml:space="preserve">Verringert die Chance, dass die Vaterlandsfront einen Putsch unternimmt, um §G§G [?BUL.BUL_ff_preventive_actions_base_value]% §!§! .\nMaximaler Wert §Y§Y [?BUL.BUL_ff_preventive_actions_cap_value]% §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_deal_the_final_blow_tt:</t>
@@ -4615,31 +4615,31 @@
     <t xml:space="preserve"> BUL_ff_root_out_sympathizers_cooldown_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y15 Tage§!.\n</t>
+    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y§Y 15 Tage §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_massive_arrests_cooldown_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y30 Tage§!.\n</t>
+    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y§Y 30 Tage §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_deal_the_final_blow_zveno_pop_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetZvenoName] - Beliebtheit steht bei §Y0§!.</t>
+    <t xml:space="preserve">[GetZvenoName] - Beliebtheit steht bei §Y§Y 0 §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_deal_the_final_blow_bs_pop_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetBsName] - Beliebtheit steht bei §Y0§!.</t>
+    <t xml:space="preserve">[GetBsName] - Beliebtheit steht bei §Y§Y 0 §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_deal_the_final_blow_bzns_pop_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetBznsName] - Beliebtheit steht bei §Y0§!.</t>
+    <t xml:space="preserve">[GetBznsName] - Beliebtheit steht bei §Y§Y 0 §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ff_deal_the_final_blow_zveno_destroyed_tt:</t>
@@ -4729,7 +4729,7 @@
     <t xml:space="preserve"> BUL_rearmament_main_factors_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nHauptfaktoren, die sich auf die [ENG.GetAdjective]e Entscheidung auswirken: \n§G- Scharfe öffentliche Kritik an IMRO  \n- Gute Beziehungen zu §Y[ENG.GetNameWithFlag]§! \n- Abschluss des Fokus§YVertrag der ewigen Freundschaft§! oder §YDer Vertrag von Thessaloniki§! \n- Tendenz Richtung Demokratie\n- Selbe Regierungsform wie §Y[ENG.GetNameWithFlag]§!§! \n§R- Schlechte Beziehungen zu §Y[ENG.GetNameWithFlag]§! \n- Unterstützung für IMRO \n- Ernennung von Bogdan Filow zum Berater oder Staatsoberhaupt§!</t>
+    <t xml:space="preserve">\nHauptfaktoren, die sich auf die [ENG.GetAdjective]e Entscheidung auswirken: \n§G§G - Scharfe öffentliche Kritik an IMRO  \n- Gute Beziehungen zu §Y§Y [ENG.GetNameWithFlag] §!§!  \n- Abschluss des Fokus§Y§Y Vertrag der ewigen Freundschaft §!§!  oder §Y§Y Der Vertrag von Thessaloniki §!§!  \n- Tendenz Richtung Demokratie\n- Selbe Regierungsform wie §Y§Y [ENG.GetNameWithFlag] §!§!  §!§!  \n§R§R - Schlechte Beziehungen zu §Y§Y [ENG.GetNameWithFlag] §!§!  \n- Unterstützung für IMRO \n- Ernennung von Bogdan Filow zum Berater oder Staatsoberhaupt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_equipment:</t>
@@ -4783,25 +4783,25 @@
     <t xml:space="preserve"> BUL_purchase_artillery_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nWir wählen, ob wir [?BUL_quantity_purchased_artillery] Stück §YArtillerie§![GetAvailableArtilleryToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n</t>
+    <t xml:space="preserve">\nWir wählen, ob wir [?BUL_quantity_purchased_artillery] Stück §Y§Y Artillerie §!§! [GetAvailableArtilleryToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_artillery_anti_air_available:</t>
   </si>
   <si>
-    <t xml:space="preserve"> oder §YFlak§!</t>
+    <t xml:space="preserve"> oder §Y§Y Flak §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_artillery_anti_tank_available:</t>
   </si>
   <si>
-    <t xml:space="preserve"> oder §YPanzerabwehr§!</t>
+    <t xml:space="preserve"> oder §Y§Y Panzerabwehr §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_artillery_everything_available:</t>
   </si>
   <si>
-    <t xml:space="preserve">, §YFlak§! oder §YPanzerabwehr§!</t>
+    <t xml:space="preserve">, §Y§Y Flak §!§!  oder §Y§Y Panzerabwehr §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_artillery_only_artillery_available:</t>
@@ -4810,25 +4810,25 @@
     <t xml:space="preserve"> BUL_purchase_vehicles_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nWir wählen, ob wir [?BUL_quantity_purchased_motorized] §Ymotorisierte§![GetAvailableVehiclesToPurchase] Fahrzeuge kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n</t>
+    <t xml:space="preserve">\nWir wählen, ob wir [?BUL_quantity_purchased_motorized] §Y§Y motorisierte §!§! [GetAvailableVehiclesToPurchase] Fahrzeuge kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_vehicles_mechanized_available:</t>
   </si>
   <si>
-    <t xml:space="preserve"> oder [?BUL_quantity_purchased_mechanized] §Ymechanisierte§!</t>
+    <t xml:space="preserve"> oder [?BUL_quantity_purchased_mechanized] §Y§Y mechanisierte §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_vehicles_armored_car_available:</t>
   </si>
   <si>
-    <t xml:space="preserve"> oder [?BUL_quantity_purchased_armored_car] §Ygepanzerte§!</t>
+    <t xml:space="preserve"> oder [?BUL_quantity_purchased_armored_car] §Y§Y gepanzerte §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_vehicles_everything_available:</t>
   </si>
   <si>
-    <t xml:space="preserve">, [?BUL_quantity_purchased_mechanized] §Ymechanisierte§! oder [?BUL_quantity_purchased_armored_car] §Ygepanzerte§!</t>
+    <t xml:space="preserve">, [?BUL_quantity_purchased_mechanized] §Y§Y mechanisierte §!§!  oder [?BUL_quantity_purchased_armored_car] §Y§Y gepanzerte §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_vehicles_only_motorized_available:</t>
@@ -4837,25 +4837,25 @@
     <t xml:space="preserve"> BUL_purchase_armor_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nWir wählen, ob wir [?BUL_quantity_purchased_light_armor] §Yleichte Panzer§![GetAvailableArmorToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n</t>
+    <t xml:space="preserve">\nWir wählen, ob wir [?BUL_quantity_purchased_light_armor] §Y§Y leichte Panzer §!§! [GetAvailableArmorToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_armor_medium_available:</t>
   </si>
   <si>
-    <t xml:space="preserve"> oder [?BUL_quantity_purchased_medium_armor] §Ymittlere Panzer§!</t>
+    <t xml:space="preserve"> oder [?BUL_quantity_purchased_medium_armor] §Y§Y mittlere Panzer §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_armor_heavy_available:</t>
   </si>
   <si>
-    <t xml:space="preserve"> oder [?BUL_quantity_purchased_heavy_armor] §Yschwere Panzer§!</t>
+    <t xml:space="preserve"> oder [?BUL_quantity_purchased_heavy_armor] §Y§Y schwere Panzer §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_armor_everything_available:</t>
   </si>
   <si>
-    <t xml:space="preserve">, [?BUL_quantity_purchased_medium_armor] §Ymittlere Panzer§! oder [?BUL_quantity_purchased_heavy_armor] §Yschwere Panzer§!</t>
+    <t xml:space="preserve">, [?BUL_quantity_purchased_medium_armor] §Y§Y mittlere Panzer §!§!  oder [?BUL_quantity_purchased_heavy_armor] §Y§Y schwere Panzer §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_armor_only_light_available:</t>
@@ -4864,25 +4864,25 @@
     <t xml:space="preserve"> BUL_purchase_aircraft_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nWir wählen, ob wir [?BUL_quantity_purchased_fighter] §YJagdflugzeuge§![GetAvailableAircraftToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n</t>
+    <t xml:space="preserve">\nWir wählen, ob wir [?BUL_quantity_purchased_fighter] §Y§Y Jagdflugzeuge §!§! [GetAvailableAircraftToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_aircraft_naval_bomber_available:</t>
   </si>
   <si>
-    <t xml:space="preserve"> oder [?BUL_quantity_purchased_naval_bomber] §YMarinebomber§!</t>
+    <t xml:space="preserve"> oder [?BUL_quantity_purchased_naval_bomber] §Y§Y Marinebomber §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_aircraft_tactical_bomber_available:</t>
   </si>
   <si>
-    <t xml:space="preserve"> oder [?BUL_quantity_purchased_tactical_bomber] §Ytaktische Bomber§!</t>
+    <t xml:space="preserve"> oder [?BUL_quantity_purchased_tactical_bomber] §Y§Y taktische Bomber §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_aircraft_everything_available:</t>
   </si>
   <si>
-    <t xml:space="preserve">, [?BUL_quantity_purchased_naval_bomber] §YMarinebomber§! oder [?BUL_quantity_purchased_tactical_bomber] §Ytaktische Bomber§!</t>
+    <t xml:space="preserve">, [?BUL_quantity_purchased_naval_bomber] §Y§Y Marinebomber §!§!  oder [?BUL_quantity_purchased_tactical_bomber] §Y§Y taktische Bomber §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_aircraft_only_fighter_available:</t>
@@ -4933,25 +4933,25 @@
     <t xml:space="preserve"> BUL_purchase_ships_submarines_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir erhalten §Y3 U-Boote§!.</t>
+    <t xml:space="preserve">Wir erhalten §Y§Y 3 U-Boote §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_ships_destroyers_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir erhalten §Y3 Zerstörer§!.</t>
+    <t xml:space="preserve">Wir erhalten §Y§Y 3 Zerstörer §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_ships_light_cruiser_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wir erhalten einen §Yleichten Kreuzer§!.</t>
+    <t xml:space="preserve">Wir erhalten einen §Y§Y leichten Kreuzer §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_purchase_ships_undetermined_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn unser Vorschlag angenommen wird, wählen wir, ob wir §Y3 U-Boote§!, §Y2 Zerstörer§! oder einen §Yleichten Kreuzer§! kaufen.</t>
+    <t xml:space="preserve">Wenn unser Vorschlag angenommen wird, wählen wir, ob wir §Y§Y 3 U-Boote §!§! , §Y§Y 2 Zerstörer §!§!  oder einen §Y§Y leichten Kreuzer §!§!  kaufen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_foreign_agreements:</t>
@@ -4975,19 +4975,19 @@
     <t xml:space="preserve"> BUL_german_industrial_agreements_category_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie §YAn Deutschland herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[GER.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie §Y§Y An Deutschland herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [GER.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_german_industrial_agreements_cap_basic_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YAn Deutschland herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y An Deutschland herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_german_industrial_agreements_cap_approach_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §YAn Deutschland herantreten§! abgeschlossen).\nTreten Sie §Y[GER.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §Y§Y An Deutschland herantreten §!§!  abgeschlossen).\nTreten Sie §Y§Y [GER.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_german_industrial_agreements_cap_faction_tt:</t>
@@ -5005,19 +5005,19 @@
     <t xml:space="preserve"> BUL_british_industrial_agreements_category_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §YAn Großbritannien herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[ENG.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [ENG.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_british_industrial_agreements_cap_basic_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YAn Großbritannien herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_british_industrial_agreements_cap_approach_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §YAn Großbritannien herantreten§! abgeschlossen).\nTreten Sie §Y[ENG.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  abgeschlossen).\nTreten Sie §Y§Y [ENG.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_british_industrial_agreements_cap_faction_tt:</t>
@@ -5035,19 +5035,19 @@
     <t xml:space="preserve"> BUL_soviet_industrial_agreements_category_desc:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[SOV.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [SOV.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_soviet_industrial_agreements_cap_basic_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_soviet_industrial_agreements_cap_approach_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! abgeschlossen).\nTreten Sie §Y[SOV.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
+    <t xml:space="preserve">Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  abgeschlossen).\nTreten Sie §Y§Y [SOV.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_soviet_industrial_agreements_cap_faction_tt:</t>
@@ -5077,7 +5077,7 @@
     <t xml:space="preserve"> BUL_increase_foreign_industry_ns_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Modifiziert §YAusländische Industrie§! um\nKonsumgüterfabriken: §R+0.5%§!</t>
+    <t xml:space="preserve">Modifiziert §Y§Y Ausländische Industrie §!§!  um\nKonsumgüterfabriken: §R§R +0.5% §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_military_agreements:</t>
@@ -5185,25 +5185,25 @@
     <t xml:space="preserve"> BUL_foreign_agreements_factions_ger_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist nicht mit §Y[GER.GetNameWithFlag]§! in einer Fraktion (oder §Y[GER.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)</t>
+    <t xml:space="preserve">Ist nicht mit §Y§Y [GER.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [GER.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_foreign_agreements_factions_eng_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist nicht mit §Y[ENG.GetNameWithFlag]§! in einer Fraktion (oder §Y[ENG.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)</t>
+    <t xml:space="preserve">Ist nicht mit §Y§Y [ENG.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [ENG.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_foreign_agreements_factions_sov_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist nicht mit §Y[SOV.GetNameWithFlag]§! in einer Fraktion (oder §Y[SOV.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)</t>
+    <t xml:space="preserve">Ist nicht mit §Y§Y [SOV.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [SOV.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_foreign_agreements_factions_ita_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist nicht mit §Y[ITA.GetNameWithFlag]§! in einer Fraktion (oder §Y[ITA.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)</t>
+    <t xml:space="preserve">Ist nicht mit §Y§Y [ITA.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [ITA.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_uranium_concession_agreement:</t>
@@ -5251,7 +5251,7 @@
     <t xml:space="preserve"> BUL_secure_occupation_in_balkan_state_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">(Länder mit wenig §YMannstärke§! und §YInfantry-Ausrüstung§! sind eher geneigt, einzuwilligen.)</t>
+    <t xml:space="preserve">(Länder mit wenig §Y§Y Mannstärke §!§!  und §Y§Y Infantry-Ausrüstung §!§!  sind eher geneigt, einzuwilligen.)</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_bulgarian_reintegration_campaign:</t>
@@ -5269,7 +5269,7 @@
     <t xml:space="preserve"> BUL_bulgarian_territorial_expansion_arranged_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Staaten mit §YVorab arrangierter bulgarischer Gebietsexpansion§! Modifikatoren werden auf Bulgarien übertragen, sobald ein Bündnismitglied den Staat kontrolliert und Bulgarien demselben Bündnis wie Deutschland beigetreten ist.</t>
+    <t xml:space="preserve">Staaten mit §Y§Y Vorab arrangierter bulgarischer Gebietsexpansion §!§!  Modifikatoren werden auf Bulgarien übertragen, sobald ein Bündnismitglied den Staat kontrolliert und Bulgarien demselben Bündnis wie Deutschland beigetreten ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_align_bulgaria:</t>
@@ -5389,7 +5389,7 @@
     <t xml:space="preserve"> BUL_fight_alongside_country_comrades_join_cw_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[ROOT.GetNameWithFlag]§! schließt sich §Y[FROM.GetNameWithFlag]§! im dortigen Bürgerkrieg an.</t>
+    <t xml:space="preserve">§Y§Y [ROOT.GetNameWithFlag] §!§!  schließt sich §Y§Y [FROM.GetNameWithFlag] §!§!  im dortigen Bürgerkrieg an.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_balkan_federation_industrial_aid:</t>
@@ -5611,7 +5611,7 @@
     <t xml:space="preserve"> BUL_fate_of_the_balkans_influence_government_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[FROM.GetFlag]§Y[FROM.GetNameDefCap]§! ist geeigneter, sich in Zukunft Bulgarien zu unterwerfen.</t>
+    <t xml:space="preserve">[FROM.GetFlag]§Y§Y [FROM.GetNameDefCap] §!§!  ist geeigneter, sich in Zukunft Bulgarien zu unterwerfen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_fate_of_the_balkans_influence_government_autonomy:</t>
@@ -5635,61 +5635,61 @@
     <t xml:space="preserve"> BUL_fate_of_the_balkans_ultimatum_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\nFaktoren, die sich auf die Bereitschaft von [FROM.GetFlag]§Y[FROM.GetNameDefCap]§! auswirken, einzuwilligen: [ROOT.GetUltimatumOpinion] [ROOT.GetUltimatumStrength] [ROOT.GetUltimatumIdeology] [ROOT.GetUltimatumFaction] [ROOT.GetUltimatumInfluence] [ROOT.GetUltimatumNeighbor] [ROOT.GetUltimatumMajor]</t>
+    <t xml:space="preserve">\nFaktoren, die sich auf die Bereitschaft von [FROM.GetFlag]§Y§Y [FROM.GetNameDefCap] §!§!  auswirken, einzuwilligen: [ROOT.GetUltimatumOpinion] [ROOT.GetUltimatumStrength] [ROOT.GetUltimatumIdeology] [ROOT.GetUltimatumFaction] [ROOT.GetUltimatumInfluence] [ROOT.GetUltimatumNeighbor] [ROOT.GetUltimatumMajor]</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_opinion_high:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §GHat eine hohe Meinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!</t>
+    <t xml:space="preserve">\n- §G§G Hat eine hohe Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_opinion_medium:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §YMeinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!</t>
+    <t xml:space="preserve">\n- §Y§Y Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_opinion_low:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §RHat eine niedrige Meinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!</t>
+    <t xml:space="preserve">\n- §R§R Hat eine niedrige Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_strength_high:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §GHohe§! [ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e §Gmilitärische Stärke§!</t>
+    <t xml:space="preserve">\n- §G§G Hohe §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e §G§G militärische Stärke §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_strength_medium:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- [ROOT.GetFlag]§Y[ROOT.GetAdjective]e militärische Stärke§!</t>
+    <t xml:space="preserve">\n- [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective]e militärische Stärke §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_strength_low:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §RNiedrige§! [ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e §Rmilitärische Stärke§!</t>
+    <t xml:space="preserve">\n- §R§R Niedrige §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e §R§R militärische Stärke §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_ideology_high:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §GSelbe Ideologie§!</t>
+    <t xml:space="preserve">\n- §G§G Selbe Ideologie §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_ideology_medium:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §YKompatible Ideologie§!</t>
+    <t xml:space="preserve">\n- §Y§Y Kompatible Ideologie §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_ideology_low:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §RIst [FROM.GetRulingIdeology]§!</t>
+    <t xml:space="preserve">\n- §R§R Ist [FROM.GetRulingIdeology] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_faction_good:</t>
@@ -5698,13 +5698,13 @@
     <t xml:space="preserve"> BUL_ultimatum_faction_bad:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §RIst [FROM.GetFactionName]-Mitglied§!</t>
+    <t xml:space="preserve">\n- §R§R Ist [FROM.GetFactionName]-Mitglied §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_influence_good:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §GWurde beeinflusst von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!</t>
+    <t xml:space="preserve">\n- §G§G Wurde beeinflusst von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_influence_bad:</t>
@@ -5713,13 +5713,13 @@
     <t xml:space="preserve"> BUL_ultimatum_neighbor_good:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §GGrenzt an§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!</t>
+    <t xml:space="preserve">\n- §G§G Grenzt an §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_neighbor_bad:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §RGrenzt nicht an§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!</t>
+    <t xml:space="preserve">\n- §R§R Grenzt nicht an §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_ultimatum_is_not_major:</t>
@@ -5728,7 +5728,7 @@
     <t xml:space="preserve"> BUL_ultimatum_is_major:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n- §RIst eine Großmacht§!</t>
+    <t xml:space="preserve">\n- §R§R Ist eine Großmacht §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_fate_of_the_balkans_bring_back_state:</t>
@@ -5878,13 +5878,13 @@
     <t xml:space="preserve"> BUL_balkan_confederation_ai_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y[FROM.GetNameWithFlag]§! wird eher bereit sein, unseren diplomatischen Vorschlägen zuzustimmen.</t>
+    <t xml:space="preserve">§Y§Y [FROM.GetNameWithFlag] §!§!  wird eher bereit sein, unseren diplomatischen Vorschlägen zuzustimmen.</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_balkan_confederation_balkan_summit_cooldown_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y365 Tage§!.\n</t>
+    <t xml:space="preserve">[GetDecisionCooldownTooltip] §Y§Y 365 Tage §!§! .\n</t>
   </si>
   <si>
     <t xml:space="preserve"> BUL_balkan_confederation_cooldown_tt:</t>
@@ -6111,8 +6111,8 @@
   </sheetPr>
   <dimension ref="A1:D1011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1011" activeCellId="0" sqref="D1:D1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6208,11 +6208,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> GRE_1936_election_tt: "Wenn König §YGeorg II.§! nicht verhaftet wird, mischt er sich in die Wahl im Januar ein und sorgt dafür, dass seine monarchistischen Unterstützer ihr Regierungsmandat beibehalten.\n"</v>
+        <v> GRE_1936_election_tt: "Wenn König §Y§Y Georg II. §!§!  nicht verhaftet wird, mischt er sich in die Wahl im Januar ein und sorgt dafür, dass seine monarchistischen Unterstützer ihr Regierungsmandat beibehalten.\n"</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> GRE_1936_election_tt: "Wenn König §YGeorg II.§! nicht verhaftet wird, mischt er sich in die Wahl im Januar ein und sorgt dafür, dass seine monarchistischen Unterstützer ihr Regierungsmandat beibehalten.\n"</v>
+        <v> GRE_1936_election_tt: "Wenn König §Y§Y Georg II. §!§!  nicht verhaftet wird, mischt er sich in die Wahl im Januar ein und sorgt dafür, dass seine monarchistischen Unterstützer ihr Regierungsmandat beibehalten.\n"</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,11 +6256,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> GRE_1936_arrest_the_king_tt: "Der König wird verhaftet und die  §YVenizelisten§! gewinnen die Wahl.\n"</v>
+        <v> GRE_1936_arrest_the_king_tt: "Der König wird verhaftet und die  §Y§Y Venizelisten §!§!  gewinnen die Wahl.\n"</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> GRE_1936_arrest_the_king_tt: "Der König wird verhaftet und die  §YVenizelisten§! gewinnen die Wahl.\n"</v>
+        <v> GRE_1936_arrest_the_king_tt: "Der König wird verhaftet und die  §Y§Y Venizelisten §!§!  gewinnen die Wahl.\n"</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6832,11 +6832,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> GRE_italian_influence_tt: "Wenn wir uns zu sehr auf §Y[FROM.GetAdjective]e§! Hilfe verlassen, könnte das unsere Souveränität gefährden.\n"</v>
+        <v> GRE_italian_influence_tt: "Wenn wir uns zu sehr auf §Y§Y [FROM.GetAdjective]e §!§!  Hilfe verlassen, könnte das unsere Souveränität gefährden.\n"</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> GRE_italian_influence_tt: "Wenn wir uns zu sehr auf §Y[FROM.GetAdjective]e§! Hilfe verlassen, könnte das unsere Souveränität gefährden.\n"</v>
+        <v> GRE_italian_influence_tt: "Wenn wir uns zu sehr auf §Y§Y [FROM.GetAdjective]e §!§!  Hilfe verlassen, könnte das unsere Souveränität gefährden.\n"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6880,11 +6880,11 @@
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> GRE_italian_influence_shunned_tt: "Wenn wir nach der §Y[FROM.GetAdjective]en§! Großzügigkeit sie jetzt verstoßen, könnte das zu einem §YKrieg§! führen!\n"</v>
+        <v> GRE_italian_influence_shunned_tt: "Wenn wir nach der §Y§Y [FROM.GetAdjective]en §!§!  Großzügigkeit sie jetzt verstoßen, könnte das zu einem §Y§Y Krieg §!§!  führen!\n"</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> GRE_italian_influence_shunned_tt: "Wenn wir nach der §Y[FROM.GetAdjective]en§! Großzügigkeit sie jetzt verstoßen, könnte das zu einem §YKrieg§! führen!\n"</v>
+        <v> GRE_italian_influence_shunned_tt: "Wenn wir nach der §Y§Y [FROM.GetAdjective]en §!§!  Großzügigkeit sie jetzt verstoßen, könnte das zu einem §Y§Y Krieg §!§!  führen!\n"</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6960,11 +6960,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> GRE_soviet_influence_tt: "Wenn wir uns zu sehr auf §Y[FROM.GetAdjective]e§! Hilfe verlassen, könnte das unsere Souveränität gefährden.\n"</v>
+        <v> GRE_soviet_influence_tt: "Wenn wir uns zu sehr auf §Y§Y [FROM.GetAdjective]e §!§!  Hilfe verlassen, könnte das unsere Souveränität gefährden.\n"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> GRE_soviet_influence_tt: "Wenn wir uns zu sehr auf §Y[FROM.GetAdjective]e§! Hilfe verlassen, könnte das unsere Souveränität gefährden.\n"</v>
+        <v> GRE_soviet_influence_tt: "Wenn wir uns zu sehr auf §Y§Y [FROM.GetAdjective]e §!§!  Hilfe verlassen, könnte das unsere Souveränität gefährden.\n"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,11 +7024,11 @@
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v> GRE_soviet_influence_shunned_tt: "Wenn wir nach der §Y[FROM.GetAdjective]en§! Großzügigkeit sie jetzt verstoßen, könnte das zu einem §YKrieg§! führen!"</v>
+        <v> GRE_soviet_influence_shunned_tt: "Wenn wir nach der §Y§Y [FROM.GetAdjective]en §!§!  Großzügigkeit sie jetzt verstoßen, könnte das zu einem §Y§Y Krieg §!§!  führen!"</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
-        <v> GRE_soviet_influence_shunned_tt: "Wenn wir nach der §Y[FROM.GetAdjective]en§! Großzügigkeit sie jetzt verstoßen, könnte das zu einem §YKrieg§! führen!"</v>
+        <v> GRE_soviet_influence_shunned_tt: "Wenn wir nach der §Y§Y [FROM.GetAdjective]en §!§!  Großzügigkeit sie jetzt verstoßen, könnte das zu einem §Y§Y Krieg §!§!  führen!"</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7056,11 +7056,11 @@
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> GRE_pay_back_debt_to_the_ifc_category_desc: "Seit unserem Unabhängigkeitskrieg 1829 wird Griechenland von finanziellen Schulden geplagt, und der Erste Weltkrieg hat die Situation nicht gerade verbessert. Wenn wir unsere Schulden zurückzahlen können, ist das ein entscheidender Schritt, um zumindest eine gewisse wirtschaftliche Stabilität in Griechenland zurückzuerlangen. Alternativ gibt es auch gewisse radikale Bewegungen, die dafür bekannt sind, sich nicht um politische und wirtschaftliche Konventionen zu scheren. Wenn wir uns einer dieser Bewegungen anschließen oder aber einfach zusehen, wie die Welt mit der Zeit immer stärker zerfällt, könnten sich auch drastischere Wege auftun, die wir beschreiten können ...\n\n§YSchulden§! bei den §YBriten§!: [ROOT.GetDebtPercentageBritain]\n\n§YSchulden§! bei den §YFranzosen§!: [ROOT.GetDebtPercentageFrance] \n\n§YSchulden§! bei den §YItalienern§!: [ROOT.GetDebtPercentageItaly] \n\n§YSchulden§! insgesamt Bezahlt: [ROOT.GetDebtPercentagePaidTotal]"</v>
+        <v> GRE_pay_back_debt_to_the_ifc_category_desc: "Seit unserem Unabhängigkeitskrieg 1829 wird Griechenland von finanziellen Schulden geplagt, und der Erste Weltkrieg hat die Situation nicht gerade verbessert. Wenn wir unsere Schulden zurückzahlen können, ist das ein entscheidender Schritt, um zumindest eine gewisse wirtschaftliche Stabilität in Griechenland zurückzuerlangen. Alternativ gibt es auch gewisse radikale Bewegungen, die dafür bekannt sind, sich nicht um politische und wirtschaftliche Konventionen zu scheren. Wenn wir uns einer dieser Bewegungen anschließen oder aber einfach zusehen, wie die Welt mit der Zeit immer stärker zerfällt, könnten sich auch drastischere Wege auftun, die wir beschreiten können ...\n\n§Y§Y Schulden §!§!  bei den §Y§Y Briten §!§! : [ROOT.GetDebtPercentageBritain]\n\n§Y§Y Schulden §!§!  bei den §Y§Y Franzosen §!§! : [ROOT.GetDebtPercentageFrance] \n\n§Y§Y Schulden §!§!  bei den §Y§Y Italienern §!§! : [ROOT.GetDebtPercentageItaly] \n\n§Y§Y Schulden §!§!  insgesamt Bezahlt: [ROOT.GetDebtPercentagePaidTotal]"</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v> GRE_pay_back_debt_to_the_ifc_category_desc: "Seit unserem Unabhängigkeitskrieg 1829 wird Griechenland von finanziellen Schulden geplagt, und der Erste Weltkrieg hat die Situation nicht gerade verbessert. Wenn wir unsere Schulden zurückzahlen können, ist das ein entscheidender Schritt, um zumindest eine gewisse wirtschaftliche Stabilität in Griechenland zurückzuerlangen. Alternativ gibt es auch gewisse radikale Bewegungen, die dafür bekannt sind, sich nicht um politische und wirtschaftliche Konventionen zu scheren. Wenn wir uns einer dieser Bewegungen anschließen oder aber einfach zusehen, wie die Welt mit der Zeit immer stärker zerfällt, könnten sich auch drastischere Wege auftun, die wir beschreiten können ...\n\n§YSchulden§! bei den §YBriten§!: [ROOT.GetDebtPercentageBritain]\n\n§YSchulden§! bei den §YFranzosen§!: [ROOT.GetDebtPercentageFrance] \n\n§YSchulden§! bei den §YItalienern§!: [ROOT.GetDebtPercentageItaly] \n\n§YSchulden§! insgesamt Bezahlt: [ROOT.GetDebtPercentagePaidTotal]"</v>
+        <v> GRE_pay_back_debt_to_the_ifc_category_desc: "Seit unserem Unabhängigkeitskrieg 1829 wird Griechenland von finanziellen Schulden geplagt, und der Erste Weltkrieg hat die Situation nicht gerade verbessert. Wenn wir unsere Schulden zurückzahlen können, ist das ein entscheidender Schritt, um zumindest eine gewisse wirtschaftliche Stabilität in Griechenland zurückzuerlangen. Alternativ gibt es auch gewisse radikale Bewegungen, die dafür bekannt sind, sich nicht um politische und wirtschaftliche Konventionen zu scheren. Wenn wir uns einer dieser Bewegungen anschließen oder aber einfach zusehen, wie die Welt mit der Zeit immer stärker zerfällt, könnten sich auch drastischere Wege auftun, die wir beschreiten können ...\n\n§Y§Y Schulden §!§!  bei den §Y§Y Briten §!§! : [ROOT.GetDebtPercentageBritain]\n\n§Y§Y Schulden §!§!  bei den §Y§Y Franzosen §!§! : [ROOT.GetDebtPercentageFrance] \n\n§Y§Y Schulden §!§!  bei den §Y§Y Italienern §!§! : [ROOT.GetDebtPercentageItaly] \n\n§Y§Y Schulden §!§!  insgesamt Bezahlt: [ROOT.GetDebtPercentagePaidTotal]"</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7072,11 +7072,11 @@
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> GRE_debt_100: "§Y100%§!"</v>
+        <v> GRE_debt_100: "§Y§Y 100% §!§! "</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> GRE_debt_100: "§Y100%§!"</v>
+        <v> GRE_debt_100: "§Y§Y 100% §!§! "</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,11 +7088,11 @@
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> GRE_debt_paid_100: "§G100%§!"</v>
+        <v> GRE_debt_paid_100: "§G§G 100% §!§! "</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v> GRE_debt_paid_100: "§G100%§!"</v>
+        <v> GRE_debt_paid_100: "§G§G 100% §!§! "</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,11 +7104,11 @@
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> GRE_debt_paid_9107: "§G91,7%§!"</v>
+        <v> GRE_debt_paid_9107: "§G§G 91,7% §!§! "</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> GRE_debt_paid_9107: "§G91,7%§!"</v>
+        <v> GRE_debt_paid_9107: "§G§G 91,7% §!§! "</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,11 +7120,11 @@
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> GRE_debt_paid_8304: "§G83,4%§!"</v>
+        <v> GRE_debt_paid_8304: "§G§G 83,4% §!§! "</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> GRE_debt_paid_8304: "§G83,4%§!"</v>
+        <v> GRE_debt_paid_8304: "§G§G 83,4% §!§! "</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,11 +7136,11 @@
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> GRE_debt_75: "§Y75%§!"</v>
+        <v> GRE_debt_75: "§Y§Y 75% §!§! "</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> GRE_debt_75: "§Y75%§!"</v>
+        <v> GRE_debt_75: "§Y§Y 75% §!§! "</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7152,11 +7152,11 @@
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> GRE_debt_paid_75: "§G75%§!"</v>
+        <v> GRE_debt_paid_75: "§G§G 75% §!§! "</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> GRE_debt_paid_75: "§G75%§!"</v>
+        <v> GRE_debt_paid_75: "§G§G 75% §!§! "</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,11 +7168,11 @@
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> GRE_debt_paid_6607: "§G66,7%§!"</v>
+        <v> GRE_debt_paid_6607: "§G§G 66,7% §!§! "</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> GRE_debt_paid_6607: "§G66,7%§!"</v>
+        <v> GRE_debt_paid_6607: "§G§G 66,7% §!§! "</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,11 +7184,11 @@
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> GRE_debt_paid_5804: "§G58,4%§!"</v>
+        <v> GRE_debt_paid_5804: "§G§G 58,4% §!§! "</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v> GRE_debt_paid_5804: "§G58,4%§!"</v>
+        <v> GRE_debt_paid_5804: "§G§G 58,4% §!§! "</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,11 +7200,11 @@
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> GRE_debt_50: "§Y50%§!"</v>
+        <v> GRE_debt_50: "§Y§Y 50% §!§! "</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> GRE_debt_50: "§Y50%§!"</v>
+        <v> GRE_debt_50: "§Y§Y 50% §!§! "</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,11 +7216,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> GRE_debt_paid_50: "§G50%§!"</v>
+        <v> GRE_debt_paid_50: "§G§G 50% §!§! "</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> GRE_debt_paid_50: "§G50%§!"</v>
+        <v> GRE_debt_paid_50: "§G§G 50% §!§! "</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,11 +7232,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> GRE_debt_paid_4107: "§G41,7%§!"</v>
+        <v> GRE_debt_paid_4107: "§G§G 41,7% §!§! "</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> GRE_debt_paid_4107: "§G41,7%§!"</v>
+        <v> GRE_debt_paid_4107: "§G§G 41,7% §!§! "</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,11 +7248,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> GRE_debt_paid_3304: "§G33,4%§!"</v>
+        <v> GRE_debt_paid_3304: "§G§G 33,4% §!§! "</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> GRE_debt_paid_3304: "§G33,4%§!"</v>
+        <v> GRE_debt_paid_3304: "§G§G 33,4% §!§! "</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7264,11 +7264,11 @@
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> GRE_debt_25: "§Y25%§!"</v>
+        <v> GRE_debt_25: "§Y§Y 25% §!§! "</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> GRE_debt_25: "§Y25%§!"</v>
+        <v> GRE_debt_25: "§Y§Y 25% §!§! "</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,11 +7280,11 @@
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> GRE_debt_paid_25: "§G25%§!"</v>
+        <v> GRE_debt_paid_25: "§G§G 25% §!§! "</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v> GRE_debt_paid_25: "§G25%§!"</v>
+        <v> GRE_debt_paid_25: "§G§G 25% §!§! "</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,11 +7296,11 @@
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> GRE_debt_paid_1607: "§G16,7%§!"</v>
+        <v> GRE_debt_paid_1607: "§G§G 16,7% §!§! "</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> GRE_debt_paid_1607: "§G16,7%§!"</v>
+        <v> GRE_debt_paid_1607: "§G§G 16,7% §!§! "</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7312,11 +7312,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> GRE_debt_paid_804: "§G8,4%§!"</v>
+        <v> GRE_debt_paid_804: "§G§G 8,4% §!§! "</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> GRE_debt_paid_804: "§G8,4%§!"</v>
+        <v> GRE_debt_paid_804: "§G§G 8,4% §!§! "</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,11 +7328,11 @@
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> GRE_debt_0: "§Y0%§!"</v>
+        <v> GRE_debt_0: "§Y§Y 0% §!§! "</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> GRE_debt_0: "§Y0%§!"</v>
+        <v> GRE_debt_0: "§Y§Y 0% §!§! "</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,11 +7344,11 @@
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> GRE_no_debt_paid: "§YEs wurden keine Schulden bezahlt§!."</v>
+        <v> GRE_no_debt_paid: "§Y§Y Es wurden keine Schulden bezahlt §!§! ."</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
-        <v> GRE_no_debt_paid: "§YEs wurden keine Schulden bezahlt§!."</v>
+        <v> GRE_no_debt_paid: "§Y§Y Es wurden keine Schulden bezahlt §!§! ."</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,11 +7408,11 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> GRE_small_payment_to_british_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[ENG.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_small_payment_to_british_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ENG.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> GRE_small_payment_to_british_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[ENG.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_small_payment_to_british_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ENG.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,11 +7424,11 @@
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> GRE_small_payment_to_french_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[FRA.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_small_payment_to_french_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [FRA.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v> GRE_small_payment_to_french_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[FRA.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_small_payment_to_french_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [FRA.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,11 +7440,11 @@
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> GRE_small_payment_to_italians_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[ITA.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_small_payment_to_italians_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ITA.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v> GRE_small_payment_to_italians_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §YSchulden§! gegenüber §Y[ITA.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_small_payment_to_italians_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird ein Viertel unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ITA.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7456,11 +7456,11 @@
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v> GRE_force_debt_clearance_tt: "Wenn wir unsere finanzielle Beziehung zu §Y[FROM.GetNameDef]§! beenden, lassen wir auch unsere §YSchulden§! bei ihnen einfach hinter uns.\n"</v>
+        <v> GRE_force_debt_clearance_tt: "Wenn wir unsere finanzielle Beziehung zu §Y§Y [FROM.GetNameDef] §!§!  beenden, lassen wir auch unsere §Y§Y Schulden §!§!  bei ihnen einfach hinter uns.\n"</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
-        <v> GRE_force_debt_clearance_tt: "Wenn wir unsere finanzielle Beziehung zu §Y[FROM.GetNameDef]§! beenden, lassen wir auch unsere §YSchulden§! bei ihnen einfach hinter uns.\n"</v>
+        <v> GRE_force_debt_clearance_tt: "Wenn wir unsere finanzielle Beziehung zu §Y§Y [FROM.GetNameDef] §!§!  beenden, lassen wir auch unsere §Y§Y Schulden §!§!  bei ihnen einfach hinter uns.\n"</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7536,11 +7536,11 @@
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v> GRE_large_payment_to_british_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[ENG.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_large_payment_to_british_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ENG.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
-        <v> GRE_large_payment_to_british_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[ENG.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_large_payment_to_british_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ENG.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7552,11 +7552,11 @@
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v> GRE_large_payment_to_french_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[FRA.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_large_payment_to_french_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [FRA.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
-        <v> GRE_large_payment_to_french_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[FRA.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_large_payment_to_french_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [FRA.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7568,11 +7568,11 @@
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v> GRE_large_payment_to_italians_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[ITA.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_large_payment_to_italians_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ITA.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
-        <v> GRE_large_payment_to_italians_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §YSchulden§! gegenüber §Y[ITA.GetNameDef]§! zurückgezahlt.\n"</v>
+        <v> GRE_large_payment_to_italians_debt_effect_tt: "Jedes Mal, wenn diese Entscheidung abgeschlossene wird, wird die Hälfte unserer aktuellen §Y§Y Schulden §!§!  gegenüber §Y§Y [ITA.GetNameDef] §!§!  zurückgezahlt.\n"</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7600,11 +7600,11 @@
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v> GRE_restructure_debt_tt: "Alle aktuellen §YSchulden§! gegenüber der §YInternationalen Finanzkommission§! werden halbiert."</v>
+        <v> GRE_restructure_debt_tt: "Alle aktuellen §Y§Y Schulden §!§!  gegenüber der §Y§Y Internationalen Finanzkommission §!§!  werden halbiert."</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
-        <v> GRE_restructure_debt_tt: "Alle aktuellen §YSchulden§! gegenüber der §YInternationalen Finanzkommission§! werden halbiert."</v>
+        <v> GRE_restructure_debt_tt: "Alle aktuellen §Y§Y Schulden §!§!  gegenüber der §Y§Y Internationalen Finanzkommission §!§!  werden halbiert."</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,11 +7632,11 @@
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v> GRE_default_on_debt_effect_tt: "Ein solch drastischer Schritt könnte §Yunerwünschte Konsequenzen§! haben, die über die Beendigung unserer finanziellen Beziehung zu unseren Gläubigern hinausgehen.\n"</v>
+        <v> GRE_default_on_debt_effect_tt: "Ein solch drastischer Schritt könnte §Y§Y unerwünschte Konsequenzen §!§!  haben, die über die Beendigung unserer finanziellen Beziehung zu unseren Gläubigern hinausgehen.\n"</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
-        <v> GRE_default_on_debt_effect_tt: "Ein solch drastischer Schritt könnte §Yunerwünschte Konsequenzen§! haben, die über die Beendigung unserer finanziellen Beziehung zu unseren Gläubigern hinausgehen.\n"</v>
+        <v> GRE_default_on_debt_effect_tt: "Ein solch drastischer Schritt könnte §Y§Y unerwünschte Konsequenzen §!§!  haben, die über die Beendigung unserer finanziellen Beziehung zu unseren Gläubigern hinausgehen.\n"</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7648,11 +7648,11 @@
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v> GRE_completely_debt_free: "Wir sind vollkommen §Yschuldenfrei§!."</v>
+        <v> GRE_completely_debt_free: "Wir sind vollkommen §Y§Y schuldenfrei §!§! ."</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
-        <v> GRE_completely_debt_free: "Wir sind vollkommen §Yschuldenfrei§!."</v>
+        <v> GRE_completely_debt_free: "Wir sind vollkommen §Y§Y schuldenfrei §!§! ."</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7664,11 +7664,11 @@
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> GRE_defaulted_on_debt_flag: "Wir sind unseren finanziellen Verpflichtungen §Ynicht nachgekommen§!."</v>
+        <v> GRE_defaulted_on_debt_flag: "Wir sind unseren finanziellen Verpflichtungen §Y§Y nicht nachgekommen §!§! ."</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v> GRE_defaulted_on_debt_flag: "Wir sind unseren finanziellen Verpflichtungen §Ynicht nachgekommen§!."</v>
+        <v> GRE_defaulted_on_debt_flag: "Wir sind unseren finanziellen Verpflichtungen §Y§Y nicht nachgekommen §!§! ."</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7936,11 +7936,11 @@
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v> GRE_faction_loyal: "§GLoyal§!"</v>
+        <v> GRE_faction_loyal: "§G§G Loyal §!§! "</v>
       </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
-        <v> GRE_faction_loyal: "§GLoyal§!"</v>
+        <v> GRE_faction_loyal: "§G§G Loyal §!§! "</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7952,11 +7952,11 @@
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> GRE_faction_friendly: "§GFreundlich§!"</v>
+        <v> GRE_faction_friendly: "§G§G Freundlich §!§! "</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v> GRE_faction_friendly: "§GFreundlich§!"</v>
+        <v> GRE_faction_friendly: "§G§G Freundlich §!§! "</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7984,11 +7984,11 @@
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v> GRE_faction_hostile: "§RFeindlich§!"</v>
+        <v> GRE_faction_hostile: "§R§R Feindlich §!§! "</v>
       </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
-        <v> GRE_faction_hostile: "§RFeindlich§!"</v>
+        <v> GRE_faction_hostile: "§R§R Feindlich §!§! "</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8000,11 +8000,11 @@
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> GRE_faction_inconsequential: "§gBelanglos§!"</v>
+        <v> GRE_faction_inconsequential: "§g§g Belanglos §!§! "</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v> GRE_faction_inconsequential: "§gBelanglos§!"</v>
+        <v> GRE_faction_inconsequential: "§g§g Belanglos §!§! "</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8016,11 +8016,11 @@
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v> GRE_faction_friendly_effects: "\n§YEffekte:§! §GStabilität: +5% \nRekrutierbare-Bevölkerung-Faktor: +15%§!"</v>
+        <v> GRE_faction_friendly_effects: "\n§Y§Y Effekte: §!§!  §G§G Stabilität: +5% \nRekrutierbare-Bevölkerung-Faktor: +15% §!§! "</v>
       </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
-        <v> GRE_faction_friendly_effects: "\n§YEffekte:§! §GStabilität: +5% \nRekrutierbare-Bevölkerung-Faktor: +15%§!"</v>
+        <v> GRE_faction_friendly_effects: "\n§Y§Y Effekte: §!§!  §G§G Stabilität: +5% \nRekrutierbare-Bevölkerung-Faktor: +15% §!§! "</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8032,11 +8032,11 @@
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> GRE_faction_indifferent_effects: "\n§YEffekte:§! §WKein Effekt.§!"</v>
+        <v> GRE_faction_indifferent_effects: "\n§Y§Y Effekte: §!§!  §W§W Kein Effekt. §!§! "</v>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v> GRE_faction_indifferent_effects: "\n§YEffekte:§! §WKein Effekt.§!"</v>
+        <v> GRE_faction_indifferent_effects: "\n§Y§Y Effekte: §!§!  §W§W Kein Effekt. §!§! "</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8048,11 +8048,11 @@
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> GRE_faction_hostile_effects: "\n§YEffekte:§! §RStabilität: -15%§!"</v>
+        <v> GRE_faction_hostile_effects: "\n§Y§Y Effekte: §!§!  §R§R Stabilität: -15% §!§! "</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v> GRE_faction_hostile_effects: "\n§YEffekte:§! §RStabilität: -15%§!"</v>
+        <v> GRE_faction_hostile_effects: "\n§Y§Y Effekte: §!§!  §R§R Stabilität: -15% §!§! "</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8064,11 +8064,11 @@
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> GRE_faction_loyal_effects: "\n§YEffekte:§! §GStabilität: +10% \nRekrutierbare-Bevölkerung-Faktor: +20%§!"</v>
+        <v> GRE_faction_loyal_effects: "\n§Y§Y Effekte: §!§!  §G§G Stabilität: +10% \nRekrutierbare-Bevölkerung-Faktor: +20% §!§! "</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v> GRE_faction_loyal_effects: "\n§YEffekte:§! §GStabilität: +10% \nRekrutierbare-Bevölkerung-Faktor: +20%§!"</v>
+        <v> GRE_faction_loyal_effects: "\n§Y§Y Effekte: §!§!  §G§G Stabilität: +10% \nRekrutierbare-Bevölkerung-Faktor: +20% §!§! "</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8352,11 +8352,11 @@
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> GRE_ATTITUDE_TOOLTIP: "§YEinstellung§! steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \n§GFreundliche§! und §Gloyale§! Gruppierungen verleihen Boni auf Stabilität und Mannstärke. \n§RFeindliche§! Gruppierungen reduzieren die Stabilität.\nGleichgültige und §gbelanglose§! Gruppierungen verleihen weder einen Bonus, noch einen Malus."</v>
+        <v> GRE_ATTITUDE_TOOLTIP: "§Y§Y Einstellung §!§!  steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \n§G§G Freundliche §!§!  und §G§G loyale §!§!  Gruppierungen verleihen Boni auf Stabilität und Mannstärke. \n§R§R Feindliche §!§!  Gruppierungen reduzieren die Stabilität.\nGleichgültige und §g§g belanglose §!§!  Gruppierungen verleihen weder einen Bonus, noch einen Malus."</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v> GRE_ATTITUDE_TOOLTIP: "§YEinstellung§! steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \n§GFreundliche§! und §Gloyale§! Gruppierungen verleihen Boni auf Stabilität und Mannstärke. \n§RFeindliche§! Gruppierungen reduzieren die Stabilität.\nGleichgültige und §gbelanglose§! Gruppierungen verleihen weder einen Bonus, noch einen Malus."</v>
+        <v> GRE_ATTITUDE_TOOLTIP: "§Y§Y Einstellung §!§!  steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \n§G§G Freundliche §!§!  und §G§G loyale §!§!  Gruppierungen verleihen Boni auf Stabilität und Mannstärke. \n§R§R Feindliche §!§!  Gruppierungen reduzieren die Stabilität.\nGleichgültige und §g§g belanglose §!§!  Gruppierungen verleihen weder einen Bonus, noch einen Malus."</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,11 +8400,11 @@
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v> GRE_faction_loyal_stability: "§G+10%§!"</v>
+        <v> GRE_faction_loyal_stability: "§G§G +10% §!§! "</v>
       </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
-        <v> GRE_faction_loyal_stability: "§G+10%§!"</v>
+        <v> GRE_faction_loyal_stability: "§G§G +10% §!§! "</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8416,11 +8416,11 @@
       </c>
       <c r="C144" s="1" t="str">
         <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v> GRE_faction_friendly_stability: "§G+5%§!"</v>
+        <v> GRE_faction_friendly_stability: "§G§G +5% §!§! "</v>
       </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
-        <v> GRE_faction_friendly_stability: "§G+5%§!"</v>
+        <v> GRE_faction_friendly_stability: "§G§G +5% §!§! "</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8448,11 +8448,11 @@
       </c>
       <c r="C146" s="1" t="str">
         <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v> GRE_faction_hostile_stability: "§R-15%§!"</v>
+        <v> GRE_faction_hostile_stability: "§R§R -15% §!§! "</v>
       </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
-        <v> GRE_faction_hostile_stability: "§R-15%§!"</v>
+        <v> GRE_faction_hostile_stability: "§R§R -15% §!§! "</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8464,11 +8464,11 @@
       </c>
       <c r="C147" s="1" t="str">
         <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v> GRE_faction_loyal_manpower: "§G+20%§!"</v>
+        <v> GRE_faction_loyal_manpower: "§G§G +20% §!§! "</v>
       </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
-        <v> GRE_faction_loyal_manpower: "§G+20%§!"</v>
+        <v> GRE_faction_loyal_manpower: "§G§G +20% §!§! "</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,11 +8480,11 @@
       </c>
       <c r="C148" s="1" t="str">
         <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v> GRE_faction_friendly_manpower: "§G+15%§!"</v>
+        <v> GRE_faction_friendly_manpower: "§G§G +15% §!§! "</v>
       </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
-        <v> GRE_faction_friendly_manpower: "§G+15%§!"</v>
+        <v> GRE_faction_friendly_manpower: "§G§G +15% §!§! "</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8736,11 +8736,11 @@
       </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> GRE_germany_rebuffed: "§YDeutsche§! Investitionspläne abgelehnt"</v>
+        <v> GRE_germany_rebuffed: "§Y§Y Deutsche §!§!  Investitionspläne abgelehnt"</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v> GRE_germany_rebuffed: "§YDeutsche§! Investitionspläne abgelehnt"</v>
+        <v> GRE_germany_rebuffed: "§Y§Y Deutsche §!§!  Investitionspläne abgelehnt"</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,11 +8752,11 @@
       </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> GRE_britain_rebuffed: "§YBritische§! Investitionspläne abgelehnt"</v>
+        <v> GRE_britain_rebuffed: "§Y§Y Britische §!§!  Investitionspläne abgelehnt"</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v> GRE_britain_rebuffed: "§YBritische§! Investitionspläne abgelehnt"</v>
+        <v> GRE_britain_rebuffed: "§Y§Y Britische §!§!  Investitionspläne abgelehnt"</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8768,11 +8768,11 @@
       </c>
       <c r="C166" s="1" t="str">
         <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v> GRE_france_rebuffed: "§YFranzösische§! Investitionspläne abgelehnt"</v>
+        <v> GRE_france_rebuffed: "§Y§Y Französische §!§!  Investitionspläne abgelehnt"</v>
       </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
-        <v> GRE_france_rebuffed: "§YFranzösische§! Investitionspläne abgelehnt"</v>
+        <v> GRE_france_rebuffed: "§Y§Y Französische §!§!  Investitionspläne abgelehnt"</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8784,11 +8784,11 @@
       </c>
       <c r="C167" s="1" t="str">
         <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v> GRE_italy_rebuffed: "§YItalienische§! Investitionspläne abgelehnt"</v>
+        <v> GRE_italy_rebuffed: "§Y§Y Italienische §!§!  Investitionspläne abgelehnt"</v>
       </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
-        <v> GRE_italy_rebuffed: "§YItalienische§! Investitionspläne abgelehnt"</v>
+        <v> GRE_italy_rebuffed: "§Y§Y Italienische §!§!  Investitionspläne abgelehnt"</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8800,11 +8800,11 @@
       </c>
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> GRE_soviets_rebuffed: "§YSowjetische§! Investitionspläne abgelehnt"</v>
+        <v> GRE_soviets_rebuffed: "§Y§Y Sowjetische §!§!  Investitionspläne abgelehnt"</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
-        <v> GRE_soviets_rebuffed: "§YSowjetische§! Investitionspläne abgelehnt"</v>
+        <v> GRE_soviets_rebuffed: "§Y§Y Sowjetische §!§!  Investitionspläne abgelehnt"</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8832,11 +8832,11 @@
       </c>
       <c r="C170" s="1" t="str">
         <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v> GRE_monarchist_economy_change_radical_tt: "Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §YMonarchistischen Fraktion§! um §R15§!.\n"</v>
+        <v> GRE_monarchist_economy_change_radical_tt: "Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §Y§Y Monarchistischen Fraktion §!§!  um §R§R 15 §!§! .\n"</v>
       </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
-        <v> GRE_monarchist_economy_change_radical_tt: "Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §YMonarchistischen Fraktion§! um §R15§!.\n"</v>
+        <v> GRE_monarchist_economy_change_radical_tt: "Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §Y§Y Monarchistischen Fraktion §!§!  um §R§R 15 §!§! .\n"</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8848,11 +8848,11 @@
       </c>
       <c r="C171" s="1" t="str">
         <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v> GRE_republican_economy_change_radical_tt: "Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §YVenizelistischen Fraktion§! um §R10§!.\n"</v>
+        <v> GRE_republican_economy_change_radical_tt: "Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §Y§Y Venizelistischen Fraktion §!§!  um §R§R 10 §!§! .\n"</v>
       </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
-        <v> GRE_republican_economy_change_radical_tt: "Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §YVenizelistischen Fraktion§! um §R10§!.\n"</v>
+        <v> GRE_republican_economy_change_radical_tt: "Der radikale Wandel in der Wirtschaftspolitik verringert die Loyalität der §Y§Y Venizelistischen Fraktion §!§!  um §R§R 10 §!§! .\n"</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8864,11 +8864,11 @@
       </c>
       <c r="C172" s="1" t="str">
         <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v> GRE_monarchist_economy_change_positive_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §YMonarchistischen Fraktion§! um §G10§!.\n"</v>
+        <v> GRE_monarchist_economy_change_positive_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §Y§Y Monarchistischen Fraktion §!§!  um §G§G 10 §!§! .\n"</v>
       </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
-        <v> GRE_monarchist_economy_change_positive_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §YMonarchistischen Fraktion§! um §G10§!.\n"</v>
+        <v> GRE_monarchist_economy_change_positive_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §Y§Y Monarchistischen Fraktion §!§!  um §G§G 10 §!§! .\n"</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8880,11 +8880,11 @@
       </c>
       <c r="C173" s="1" t="str">
         <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v> GRE_republican_economy_change_positive_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §YRepublikanischen Fraktion§! um §G5§!.\n"</v>
+        <v> GRE_republican_economy_change_positive_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §Y§Y Republikanischen Fraktion §!§!  um §G§G 5 §!§! .\n"</v>
       </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
-        <v> GRE_republican_economy_change_positive_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §YRepublikanischen Fraktion§! um §G5§!.\n"</v>
+        <v> GRE_republican_economy_change_positive_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik erhöht die Loyalität der §Y§Y Republikanischen Fraktion §!§!  um §G§G 5 §!§! .\n"</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8896,11 +8896,11 @@
       </c>
       <c r="C174" s="1" t="str">
         <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v> GRE_communist_economy_change_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik verringert die Loyalität der §YKommunistischen Fraktion§! um §R5§!.\n"</v>
+        <v> GRE_communist_economy_change_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik verringert die Loyalität der §Y§Y Kommunistischen Fraktion §!§!  um §R§R 5 §!§! .\n"</v>
       </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
-        <v> GRE_communist_economy_change_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik verringert die Loyalität der §YKommunistischen Fraktion§! um §R5§!.\n"</v>
+        <v> GRE_communist_economy_change_tt: "Die Konstanz der seit langem verfolgten Wirtschaftspolitik verringert die Loyalität der §Y§Y Kommunistischen Fraktion §!§!  um §R§R 5 §!§! .\n"</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8976,11 +8976,11 @@
       </c>
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> form_country_dyrrachium_required_states_tt: "Um das §YThema Dyrrachium§! wiederherzustellen, ist die Kontrolle über §YAlbanien§! und §YMontenegro§! erforderlich."</v>
+        <v> form_country_dyrrachium_required_states_tt: "Um das §Y§Y Thema Dyrrachium §!§!  wiederherzustellen, ist die Kontrolle über §Y§Y Albanien §!§!  und §Y§Y Montenegro §!§!  erforderlich."</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
-        <v> form_country_dyrrachium_required_states_tt: "Um das §YThema Dyrrachium§! wiederherzustellen, ist die Kontrolle über §YAlbanien§! und §YMontenegro§! erforderlich."</v>
+        <v> form_country_dyrrachium_required_states_tt: "Um das §Y§Y Thema Dyrrachium §!§!  wiederherzustellen, ist die Kontrolle über §Y§Y Albanien §!§!  und §Y§Y Montenegro §!§!  erforderlich."</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8992,11 +8992,11 @@
       </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v> form_country_paristrion_required_states_tt: "Um das §YThema Paristrion§! wiederherzustellen, ist die Kontrolle über die südlichen Staaten und Küstenstaaten §YRumäniens§! erforderlich."</v>
+        <v> form_country_paristrion_required_states_tt: "Um das §Y§Y Thema Paristrion §!§!  wiederherzustellen, ist die Kontrolle über die südlichen Staaten und Küstenstaaten §Y§Y Rumäniens §!§!  erforderlich."</v>
       </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
-        <v> form_country_paristrion_required_states_tt: "Um das §YThema Paristrion§! wiederherzustellen, ist die Kontrolle über die südlichen Staaten und Küstenstaaten §YRumäniens§! erforderlich."</v>
+        <v> form_country_paristrion_required_states_tt: "Um das §Y§Y Thema Paristrion §!§!  wiederherzustellen, ist die Kontrolle über die südlichen Staaten und Küstenstaaten §Y§Y Rumäniens §!§!  erforderlich."</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9008,11 +9008,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> form_country_boulgarias_required_states_tt: "Um das §YThema Bulgarien§! wiederherzustellen, ist die Kontrolle über alle Staaten §YBulgariens§! und §YMazedoniens§! erforderlich."</v>
+        <v> form_country_boulgarias_required_states_tt: "Um das §Y§Y Thema Bulgarien §!§!  wiederherzustellen, ist die Kontrolle über alle Staaten §Y§Y Bulgariens §!§!  und §Y§Y Mazedoniens §!§!  erforderlich."</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> form_country_boulgarias_required_states_tt: "Um das §YThema Bulgarien§! wiederherzustellen, ist die Kontrolle über alle Staaten §YBulgariens§! und §YMazedoniens§! erforderlich."</v>
+        <v> form_country_boulgarias_required_states_tt: "Um das §Y§Y Thema Bulgarien §!§!  wiederherzustellen, ist die Kontrolle über alle Staaten §Y§Y Bulgariens §!§!  und §Y§Y Mazedoniens §!§!  erforderlich."</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,11 +9024,11 @@
       </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> form_country_sirmium_required_states_tt: "Um das §YThema Sirmium§! wiederherzustellen, ist die Kontrolle über die südlichen Staaten, zentralen Staaten und Küstenstaaten §YJugoslawiens§! erforderlich."</v>
+        <v> form_country_sirmium_required_states_tt: "Um das §Y§Y Thema Sirmium §!§!  wiederherzustellen, ist die Kontrolle über die südlichen Staaten, zentralen Staaten und Küstenstaaten §Y§Y Jugoslawiens §!§!  erforderlich."</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v> form_country_sirmium_required_states_tt: "Um das §YThema Sirmium§! wiederherzustellen, ist die Kontrolle über die südlichen Staaten, zentralen Staaten und Küstenstaaten §YJugoslawiens§! erforderlich."</v>
+        <v> form_country_sirmium_required_states_tt: "Um das §Y§Y Thema Sirmium §!§!  wiederherzustellen, ist die Kontrolle über die südlichen Staaten, zentralen Staaten und Küstenstaaten §Y§Y Jugoslawiens §!§!  erforderlich."</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,11 +9040,11 @@
       </c>
       <c r="C183" s="1" t="str">
         <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v> form_country_dyrrachium_coring_states_tt: "Erlangen Sie Kerngebiete in §YAlbanien§! und §YMontenegro§! und benennen Sie sie um.\n"</v>
+        <v> form_country_dyrrachium_coring_states_tt: "Erlangen Sie Kerngebiete in §Y§Y Albanien §!§!  und §Y§Y Montenegro §!§!  und benennen Sie sie um.\n"</v>
       </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
-        <v> form_country_dyrrachium_coring_states_tt: "Erlangen Sie Kerngebiete in §YAlbanien§! und §YMontenegro§! und benennen Sie sie um.\n"</v>
+        <v> form_country_dyrrachium_coring_states_tt: "Erlangen Sie Kerngebiete in §Y§Y Albanien §!§!  und §Y§Y Montenegro §!§!  und benennen Sie sie um.\n"</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9056,11 +9056,11 @@
       </c>
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> form_country_paristrion_coring_states_tt: "Erlangen Sie Kerngebiete in den betreffenden §Yrumänischen§! Staaten und benennen Sie sie um.\n"</v>
+        <v> form_country_paristrion_coring_states_tt: "Erlangen Sie Kerngebiete in den betreffenden §Y§Y rumänischen §!§!  Staaten und benennen Sie sie um.\n"</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
-        <v> form_country_paristrion_coring_states_tt: "Erlangen Sie Kerngebiete in den betreffenden §Yrumänischen§! Staaten und benennen Sie sie um.\n"</v>
+        <v> form_country_paristrion_coring_states_tt: "Erlangen Sie Kerngebiete in den betreffenden §Y§Y rumänischen §!§!  Staaten und benennen Sie sie um.\n"</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,11 +9072,11 @@
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> form_country_boulgarias_coring_states_tt: "Erlangen Sie Kerngebiete in allen §Ybulgarischen§! Staaten und in §YMazedonien§! und benennen Sie sie um.\n"</v>
+        <v> form_country_boulgarias_coring_states_tt: "Erlangen Sie Kerngebiete in allen §Y§Y bulgarischen §!§!  Staaten und in §Y§Y Mazedonien §!§!  und benennen Sie sie um.\n"</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> form_country_boulgarias_coring_states_tt: "Erlangen Sie Kerngebiete in allen §Ybulgarischen§! Staaten und in §YMazedonien§! und benennen Sie sie um.\n"</v>
+        <v> form_country_boulgarias_coring_states_tt: "Erlangen Sie Kerngebiete in allen §Y§Y bulgarischen §!§!  Staaten und in §Y§Y Mazedonien §!§!  und benennen Sie sie um.\n"</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,11 +9088,11 @@
       </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> form_country_sirmium_coring_states_tt: "Erlangen Sie Kerngebiete in den betreffenden §Yjugoslawischen§! Staaten und benennen Sie sie um.\n"</v>
+        <v> form_country_sirmium_coring_states_tt: "Erlangen Sie Kerngebiete in den betreffenden §Y§Y jugoslawischen §!§!  Staaten und benennen Sie sie um.\n"</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v> form_country_sirmium_coring_states_tt: "Erlangen Sie Kerngebiete in den betreffenden §Yjugoslawischen§! Staaten und benennen Sie sie um.\n"</v>
+        <v> form_country_sirmium_coring_states_tt: "Erlangen Sie Kerngebiete in den betreffenden §Y§Y jugoslawischen §!§!  Staaten und benennen Sie sie um.\n"</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9168,11 +9168,11 @@
       </c>
       <c r="C191" s="1" t="str">
         <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v> form_country_turkish_coastal_required_states_tt: "Kontrolliert alle westlichen §Ytürkischen§! Küstenstaaten."</v>
+        <v> form_country_turkish_coastal_required_states_tt: "Kontrolliert alle westlichen §Y§Y türkischen §!§!  Küstenstaaten."</v>
       </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
-        <v> form_country_turkish_coastal_required_states_tt: "Kontrolliert alle westlichen §Ytürkischen§! Küstenstaaten."</v>
+        <v> form_country_turkish_coastal_required_states_tt: "Kontrolliert alle westlichen §Y§Y türkischen §!§!  Küstenstaaten."</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9184,11 +9184,11 @@
       </c>
       <c r="C192" s="1" t="str">
         <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v> form_country_dodecanese_required_state_tt: "Kontrolliert den §YDodekanes§!."</v>
+        <v> form_country_dodecanese_required_state_tt: "Kontrolliert den §Y§Y Dodekanes §!§! ."</v>
       </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
-        <v> form_country_dodecanese_required_state_tt: "Kontrolliert den §YDodekanes§!."</v>
+        <v> form_country_dodecanese_required_state_tt: "Kontrolliert den §Y§Y Dodekanes §!§! ."</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,11 +9200,11 @@
       </c>
       <c r="C193" s="1" t="str">
         <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v> form_country_cyprus_required_state_tt: "Kontrolliert §YZypern§!."</v>
+        <v> form_country_cyprus_required_state_tt: "Kontrolliert §Y§Y Zypern §!§! ."</v>
       </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
-        <v> form_country_cyprus_required_state_tt: "Kontrolliert §YZypern§!."</v>
+        <v> form_country_cyprus_required_state_tt: "Kontrolliert §Y§Y Zypern §!§! ."</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9216,11 +9216,11 @@
       </c>
       <c r="C194" s="1" t="str">
         <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v> form_country_turkish_coast_coring_states_tt: "Erlangen Sie Kerngebiete in allen westlichen §Ytürkischen§! Küstenstaaten."</v>
+        <v> form_country_turkish_coast_coring_states_tt: "Erlangen Sie Kerngebiete in allen westlichen §Y§Y türkischen §!§!  Küstenstaaten."</v>
       </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
-        <v> form_country_turkish_coast_coring_states_tt: "Erlangen Sie Kerngebiete in allen westlichen §Ytürkischen§! Küstenstaaten."</v>
+        <v> form_country_turkish_coast_coring_states_tt: "Erlangen Sie Kerngebiete in allen westlichen §Y§Y türkischen §!§!  Küstenstaaten."</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9232,11 +9232,11 @@
       </c>
       <c r="C195" s="1" t="str">
         <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v> form_country_cyprus_coring_state_tt: "Erlangen Sie Kerngebiete auf §YZypern§!."</v>
+        <v> form_country_cyprus_coring_state_tt: "Erlangen Sie Kerngebiete auf §Y§Y Zypern §!§! ."</v>
       </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
-        <v> form_country_cyprus_coring_state_tt: "Erlangen Sie Kerngebiete auf §YZypern§!."</v>
+        <v> form_country_cyprus_coring_state_tt: "Erlangen Sie Kerngebiete auf §Y§Y Zypern §!§! ."</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9440,11 +9440,11 @@
       </c>
       <c r="C208" s="1" t="str">
         <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v> form_country_southern_yugoslavia_required_states_tt: "Kontrolliert alle §Ybulgarischen§! und §Yalbanischen§! Staaten sowie alle §Yjugoslawischen§! Staaten südlich von §YSerbien§!."</v>
+        <v> form_country_southern_yugoslavia_required_states_tt: "Kontrolliert alle §Y§Y bulgarischen §!§!  und §Y§Y albanischen §!§!  Staaten sowie alle §Y§Y jugoslawischen §!§!  Staaten südlich von §Y§Y Serbien §!§! ."</v>
       </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
-        <v> form_country_southern_yugoslavia_required_states_tt: "Kontrolliert alle §Ybulgarischen§! und §Yalbanischen§! Staaten sowie alle §Yjugoslawischen§! Staaten südlich von §YSerbien§!."</v>
+        <v> form_country_southern_yugoslavia_required_states_tt: "Kontrolliert alle §Y§Y bulgarischen §!§!  und §Y§Y albanischen §!§!  Staaten sowie alle §Y§Y jugoslawischen §!§!  Staaten südlich von §Y§Y Serbien §!§! ."</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9456,11 +9456,11 @@
       </c>
       <c r="C209" s="1" t="str">
         <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v> form_country_southern_central_asia_required_states_tt: "Kontrolliert §Y[742.GetName]§!, §Y[732.GetName]§! und §Y[405.GetName]§!."</v>
+        <v> form_country_southern_central_asia_required_states_tt: "Kontrolliert §Y§Y [742.GetName] §!§! , §Y§Y [732.GetName] §!§!  und §Y§Y [405.GetName] §!§! ."</v>
       </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
-        <v> form_country_southern_central_asia_required_states_tt: "Kontrolliert §Y[742.GetName]§!, §Y[732.GetName]§! und §Y[405.GetName]§!."</v>
+        <v> form_country_southern_central_asia_required_states_tt: "Kontrolliert §Y§Y [742.GetName] §!§! , §Y§Y [732.GetName] §!§!  und §Y§Y [405.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9472,11 +9472,11 @@
       </c>
       <c r="C210" s="1" t="str">
         <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v> form_country_british_levant_required_states_tt: "Kontrolliert §Y[454.GetName]§!, §Y[455.GetName]§! und §Y[656.GetName]§!"</v>
+        <v> form_country_british_levant_required_states_tt: "Kontrolliert §Y§Y [454.GetName] §!§! , §Y§Y [455.GetName] §!§!  und §Y§Y [656.GetName] §!§! "</v>
       </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
-        <v> form_country_british_levant_required_states_tt: "Kontrolliert §Y[454.GetName]§!, §Y[455.GetName]§! und §Y[656.GetName]§!"</v>
+        <v> form_country_british_levant_required_states_tt: "Kontrolliert §Y§Y [454.GetName] §!§! , §Y§Y [455.GetName] §!§!  und §Y§Y [656.GetName] §!§! "</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9488,11 +9488,11 @@
       </c>
       <c r="C211" s="1" t="str">
         <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v> form_country_punjab_required_states_tt: "Kontrolliert alle §Ypakistanischen§! Staaten."</v>
+        <v> form_country_punjab_required_states_tt: "Kontrolliert alle §Y§Y pakistanischen §!§!  Staaten."</v>
       </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
-        <v> form_country_punjab_required_states_tt: "Kontrolliert alle §Ypakistanischen§! Staaten."</v>
+        <v> form_country_punjab_required_states_tt: "Kontrolliert alle §Y§Y pakistanischen §!§!  Staaten."</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9760,11 +9760,11 @@
       </c>
       <c r="C228" s="1" t="str">
         <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v> TUR_no_longer_has_etatism_tt: "Unterstützt den §YEtatismus§! nicht länger"</v>
+        <v> TUR_no_longer_has_etatism_tt: "Unterstützt den §Y§Y Etatismus §!§!  nicht länger"</v>
       </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
-        <v> TUR_no_longer_has_etatism_tt: "Unterstützt den §YEtatismus§! nicht länger"</v>
+        <v> TUR_no_longer_has_etatism_tt: "Unterstützt den §Y§Y Etatismus §!§!  nicht länger"</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10448,11 +10448,11 @@
       </c>
       <c r="C271" s="1" t="str">
         <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v> TUR_sponsored_killigil_armaments_flag: "§YWaffenfabrik Killigil§! durch die Entscheidung §YSanayiciler-Industrieprojekte§! gefördert."</v>
+        <v> TUR_sponsored_killigil_armaments_flag: "§Y§Y Waffenfabrik Killigil §!§!  durch die Entscheidung §Y§Y Sanayiciler-Industrieprojekte §!§!  gefördert."</v>
       </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
-        <v> TUR_sponsored_killigil_armaments_flag: "§YWaffenfabrik Killigil§! durch die Entscheidung §YSanayiciler-Industrieprojekte§! gefördert."</v>
+        <v> TUR_sponsored_killigil_armaments_flag: "§Y§Y Waffenfabrik Killigil §!§!  durch die Entscheidung §Y§Y Sanayiciler-Industrieprojekte §!§!  gefördert."</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10592,11 +10592,11 @@
       </c>
       <c r="C280" s="1" t="str">
         <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v> TUR_karabuk_iron_steel_factory_modernised_flag: "Die §YEisen- und Stahlfabrik Karabuk§! wurde durch die §YSanayiciler§! modernisiert."</v>
+        <v> TUR_karabuk_iron_steel_factory_modernised_flag: "Die §Y§Y Eisen- und Stahlfabrik Karabuk §!§!  wurde durch die §Y§Y Sanayiciler §!§!  modernisiert."</v>
       </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
-        <v> TUR_karabuk_iron_steel_factory_modernised_flag: "Die §YEisen- und Stahlfabrik Karabuk§! wurde durch die §YSanayiciler§! modernisiert."</v>
+        <v> TUR_karabuk_iron_steel_factory_modernised_flag: "Die §Y§Y Eisen- und Stahlfabrik Karabuk §!§!  wurde durch die §Y§Y Sanayiciler §!§!  modernisiert."</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10864,11 +10864,11 @@
       </c>
       <c r="C297" s="1" t="str">
         <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v> TUR_investment_opinion_tt: "Je besser die Meinung, die §Y[FROM.GetNameDef]§! von uns hat, desto mehr Investitionsgelegenheiten gibt es.\n"</v>
+        <v> TUR_investment_opinion_tt: "Je besser die Meinung, die §Y§Y [FROM.GetNameDef] §!§!  von uns hat, desto mehr Investitionsgelegenheiten gibt es.\n"</v>
       </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
-        <v> TUR_investment_opinion_tt: "Je besser die Meinung, die §Y[FROM.GetNameDef]§! von uns hat, desto mehr Investitionsgelegenheiten gibt es.\n"</v>
+        <v> TUR_investment_opinion_tt: "Je besser die Meinung, die §Y§Y [FROM.GetNameDef] §!§!  von uns hat, desto mehr Investitionsgelegenheiten gibt es.\n"</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10992,11 +10992,11 @@
       </c>
       <c r="C305" s="1" t="str">
         <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v> ROOT_turkish_investment_ai_tt: "Je besser unsere §YInvestitionen§! in §Y[TUR.GetNameDef]§!, desto enger können wir sie an unsere eigenen Interessen binden und gleichzeitig Distanz zwischen sie und unsere Feinde bringen.\n"</v>
+        <v> ROOT_turkish_investment_ai_tt: "Je besser unsere §Y§Y Investitionen §!§!  in §Y§Y [TUR.GetNameDef] §!§! , desto enger können wir sie an unsere eigenen Interessen binden und gleichzeitig Distanz zwischen sie und unsere Feinde bringen.\n"</v>
       </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
-        <v> ROOT_turkish_investment_ai_tt: "Je besser unsere §YInvestitionen§! in §Y[TUR.GetNameDef]§!, desto enger können wir sie an unsere eigenen Interessen binden und gleichzeitig Distanz zwischen sie und unsere Feinde bringen.\n"</v>
+        <v> ROOT_turkish_investment_ai_tt: "Je besser unsere §Y§Y Investitionen §!§!  in §Y§Y [TUR.GetNameDef] §!§! , desto enger können wir sie an unsere eigenen Interessen binden und gleichzeitig Distanz zwischen sie und unsere Feinde bringen.\n"</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11056,11 +11056,11 @@
       </c>
       <c r="C309" s="1" t="str">
         <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v> TUR_agitate_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Ykurdischen Rebellen§! erhöhen die Intensität ihres Widerstands gegen die Regierung in §Y[TUR_kurdish_state_event_target.GetName]§!."</v>
+        <v> TUR_agitate_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  erhöhen die Intensität ihres Widerstands gegen die Regierung in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§! ."</v>
       </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
-        <v> TUR_agitate_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Ykurdischen Rebellen§! erhöhen die Intensität ihres Widerstands gegen die Regierung in §Y[TUR_kurdish_state_event_target.GetName]§!."</v>
+        <v> TUR_agitate_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  erhöhen die Intensität ihres Widerstands gegen die Regierung in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11072,11 +11072,11 @@
       </c>
       <c r="C310" s="1" t="str">
         <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v> TUR_pacify_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Ykurdischen Rebellen§! in §Y[TUR_kurdish_state_event_target.GetName]§! werden befriedet."</v>
+        <v> TUR_pacify_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§!  werden befriedet."</v>
       </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
-        <v> TUR_pacify_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Ykurdischen Rebellen§! in §Y[TUR_kurdish_state_event_target.GetName]§! werden befriedet."</v>
+        <v> TUR_pacify_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§!  werden befriedet."</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11088,11 +11088,11 @@
       </c>
       <c r="C311" s="1" t="str">
         <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v> TUR_placate_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Ykurdischen Rebellen§! in §Y[TUR_kurdish_state_event_target.GetName]§! werden besänftigt."</v>
+        <v> TUR_placate_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§!  werden besänftigt."</v>
       </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
-        <v> TUR_placate_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Ykurdischen Rebellen§! in §Y[TUR_kurdish_state_event_target.GetName]§! werden besänftigt."</v>
+        <v> TUR_placate_kurdish_state_effect_tt: "Die £faction_tur_kurdish §Y§Y kurdischen Rebellen §!§!  in §Y§Y [TUR_kurdish_state_event_target.GetName] §!§!  werden besänftigt."</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11104,11 +11104,11 @@
       </c>
       <c r="C312" s="1" t="str">
         <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v> TUR_kurdish_modifiers_trigger_tt: "Alle £faction_tur_kurdish §Ykurdischen§! Staaten sind entweder §YKerngebiete§! oder haben den Modifikator §YSeparatistische Erschöpfung§!."</v>
+        <v> TUR_kurdish_modifiers_trigger_tt: "Alle £faction_tur_kurdish §Y§Y kurdischen §!§!  Staaten sind entweder §Y§Y Kerngebiete §!§!  oder haben den Modifikator §Y§Y Separatistische Erschöpfung §!§! ."</v>
       </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
-        <v> TUR_kurdish_modifiers_trigger_tt: "Alle £faction_tur_kurdish §Ykurdischen§! Staaten sind entweder §YKerngebiete§! oder haben den Modifikator §YSeparatistische Erschöpfung§!."</v>
+        <v> TUR_kurdish_modifiers_trigger_tt: "Alle £faction_tur_kurdish §Y§Y kurdischen §!§!  Staaten sind entweder §Y§Y Kerngebiete §!§!  oder haben den Modifikator §Y§Y Separatistische Erschöpfung §!§! ."</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11120,11 +11120,11 @@
       </c>
       <c r="C313" s="1" t="str">
         <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v> TUR_no_current_integration_targets_available_tt: "Bevor der a£faction_tur_kurdish §Ykurdische§! Staat zum Kerngebiet werden kann, muss der §YGehorsam§! auf mindestens §Y70%§! erhöht werden und der §YWiderstand§! muss auf mindestens §Y30%§! verringert werden."</v>
+        <v> TUR_no_current_integration_targets_available_tt: "Bevor der a£faction_tur_kurdish §Y§Y kurdische §!§!  Staat zum Kerngebiet werden kann, muss der §Y§Y Gehorsam §!§!  auf mindestens §Y§Y 70% §!§!  erhöht werden und der §Y§Y Widerstand §!§!  muss auf mindestens §Y§Y 30% §!§!  verringert werden."</v>
       </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
-        <v> TUR_no_current_integration_targets_available_tt: "Bevor der a£faction_tur_kurdish §Ykurdische§! Staat zum Kerngebiet werden kann, muss der §YGehorsam§! auf mindestens §Y70%§! erhöht werden und der §YWiderstand§! muss auf mindestens §Y30%§! verringert werden."</v>
+        <v> TUR_no_current_integration_targets_available_tt: "Bevor der a£faction_tur_kurdish §Y§Y kurdische §!§!  Staat zum Kerngebiet werden kann, muss der §Y§Y Gehorsam §!§!  auf mindestens §Y§Y 70% §!§!  erhöht werden und der §Y§Y Widerstand §!§!  muss auf mindestens §Y§Y 30% §!§!  verringert werden."</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11136,11 +11136,11 @@
       </c>
       <c r="C314" s="1" t="str">
         <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v> TUR_integrate_kurdish_state_effect_tt: "Der £faction_tur_kurdish §Ykurdische§! Staat verliert seine Staatsmodifikatoren und wird zu einem Kerngebiet von §Y[TUR.GetNameDef]§!."</v>
+        <v> TUR_integrate_kurdish_state_effect_tt: "Der £faction_tur_kurdish §Y§Y kurdische §!§!  Staat verliert seine Staatsmodifikatoren und wird zu einem Kerngebiet von §Y§Y [TUR.GetNameDef] §!§! ."</v>
       </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
-        <v> TUR_integrate_kurdish_state_effect_tt: "Der £faction_tur_kurdish §Ykurdische§! Staat verliert seine Staatsmodifikatoren und wird zu einem Kerngebiet von §Y[TUR.GetNameDef]§!."</v>
+        <v> TUR_integrate_kurdish_state_effect_tt: "Der £faction_tur_kurdish §Y§Y kurdische §!§!  Staat verliert seine Staatsmodifikatoren und wird zu einem Kerngebiet von §Y§Y [TUR.GetNameDef] §!§! ."</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11280,11 +11280,11 @@
       </c>
       <c r="C323" s="1" t="str">
         <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v> TUR_decision_cost_kurd_rebels: "£command_power  §Y15§!"</v>
+        <v> TUR_decision_cost_kurd_rebels: "£command_power  §Y§Y 15 §!§! "</v>
       </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
-        <v> TUR_decision_cost_kurd_rebels: "£command_power  §Y15§!"</v>
+        <v> TUR_decision_cost_kurd_rebels: "£command_power  §Y§Y 15 §!§! "</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11296,11 +11296,11 @@
       </c>
       <c r="C324" s="1" t="str">
         <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v> TUR_decision_cost_kurd_rebels_blocked: "£command_power  §R15§!"</v>
+        <v> TUR_decision_cost_kurd_rebels_blocked: "£command_power  §R§R 15 §!§! "</v>
       </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
-        <v> TUR_decision_cost_kurd_rebels_blocked: "£command_power  §R15§!"</v>
+        <v> TUR_decision_cost_kurd_rebels_blocked: "£command_power  §R§R 15 §!§! "</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11376,11 +11376,11 @@
       </c>
       <c r="C329" s="1" t="str">
         <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v> TUR_unlock_kurdish_integration_decisions_tt: "Schaltet Entscheidungen frei:§Y$TUR_integrate_kurdish_state$§!."</v>
+        <v> TUR_unlock_kurdish_integration_decisions_tt: "Schaltet Entscheidungen frei:§Y§Y $TUR_integrate_kurdish_state$ §!§! ."</v>
       </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
-        <v> TUR_unlock_kurdish_integration_decisions_tt: "Schaltet Entscheidungen frei:§Y$TUR_integrate_kurdish_state$§!."</v>
+        <v> TUR_unlock_kurdish_integration_decisions_tt: "Schaltet Entscheidungen frei:§Y§Y $TUR_integrate_kurdish_state$ §!§! ."</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11808,11 +11808,11 @@
       </c>
       <c r="C356" s="1" t="str">
         <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v> TUR_kemalist_loyalty_and_power_update_effect_tt: "Die §Ykemalistischen Offiziere§! passen ihren Status als Reaktion auf die Handlungen der Regierung an."</v>
+        <v> TUR_kemalist_loyalty_and_power_update_effect_tt: "Die §Y§Y kemalistischen Offiziere §!§!  passen ihren Status als Reaktion auf die Handlungen der Regierung an."</v>
       </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
-        <v> TUR_kemalist_loyalty_and_power_update_effect_tt: "Die §Ykemalistischen Offiziere§! passen ihren Status als Reaktion auf die Handlungen der Regierung an."</v>
+        <v> TUR_kemalist_loyalty_and_power_update_effect_tt: "Die §Y§Y kemalistischen Offiziere §!§!  passen ihren Status als Reaktion auf die Handlungen der Regierung an."</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11824,11 +11824,11 @@
       </c>
       <c r="C357" s="1" t="str">
         <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v> TUR_kemalist_influenced_state_effect_tt: "Die £faction_tur_kemalist §YKemalisten§! übernehmen als unangefochtene Verwalter des Staats."</v>
+        <v> TUR_kemalist_influenced_state_effect_tt: "Die £faction_tur_kemalist §Y§Y Kemalisten §!§!  übernehmen als unangefochtene Verwalter des Staats."</v>
       </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
-        <v> TUR_kemalist_influenced_state_effect_tt: "Die £faction_tur_kemalist §YKemalisten§! übernehmen als unangefochtene Verwalter des Staats."</v>
+        <v> TUR_kemalist_influenced_state_effect_tt: "Die £faction_tur_kemalist §Y§Y Kemalisten §!§!  übernehmen als unangefochtene Verwalter des Staats."</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11840,11 +11840,11 @@
       </c>
       <c r="C358" s="1" t="str">
         <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v> TUR_kemalist_turn_hostile_effect_tt: "Die £faction_tur_kemalist §YKemalisten§! werden der Regierung gegenüber §Rfeindselig§! ."</v>
+        <v> TUR_kemalist_turn_hostile_effect_tt: "Die £faction_tur_kemalist §Y§Y Kemalisten §!§!  werden der Regierung gegenüber §R§R feindselig §!§!  ."</v>
       </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
-        <v> TUR_kemalist_turn_hostile_effect_tt: "Die £faction_tur_kemalist §YKemalisten§! werden der Regierung gegenüber §Rfeindselig§! ."</v>
+        <v> TUR_kemalist_turn_hostile_effect_tt: "Die £faction_tur_kemalist §Y§Y Kemalisten §!§!  werden der Regierung gegenüber §R§R feindselig §!§!  ."</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11952,11 +11952,11 @@
       </c>
       <c r="C365" s="1" t="str">
         <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v> TUR_ideological_battleground_state: "Ist kein £faction_tur_unaligned §Yneutraler Staat§!"</v>
+        <v> TUR_ideological_battleground_state: "Ist kein £faction_tur_unaligned §Y§Y neutraler Staat §!§! "</v>
       </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
-        <v> TUR_ideological_battleground_state: "Ist kein £faction_tur_unaligned §Yneutraler Staat§!"</v>
+        <v> TUR_ideological_battleground_state: "Ist kein £faction_tur_unaligned §Y§Y neutraler Staat §!§! "</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11968,11 +11968,11 @@
       </c>
       <c r="C366" s="1" t="str">
         <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v> TUR_is_fundamentalist_state_tt: "Gilt als £faction_tur_traditionalist §Ytraditionalistischer Staat§!"</v>
+        <v> TUR_is_fundamentalist_state_tt: "Gilt als £faction_tur_traditionalist §Y§Y traditionalistischer Staat §!§! "</v>
       </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
-        <v> TUR_is_fundamentalist_state_tt: "Gilt als £faction_tur_traditionalist §Ytraditionalistischer Staat§!"</v>
+        <v> TUR_is_fundamentalist_state_tt: "Gilt als £faction_tur_traditionalist §Y§Y traditionalistischer Staat §!§! "</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11984,11 +11984,11 @@
       </c>
       <c r="C367" s="1" t="str">
         <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v> TUR_is_kemalist_state_tt: "Gilt als £faction_tur_kemalist §Ykemalistischer Staat§!"</v>
+        <v> TUR_is_kemalist_state_tt: "Gilt als £faction_tur_kemalist §Y§Y kemalistischer Staat §!§! "</v>
       </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
-        <v> TUR_is_kemalist_state_tt: "Gilt als £faction_tur_kemalist §Ykemalistischer Staat§!"</v>
+        <v> TUR_is_kemalist_state_tt: "Gilt als £faction_tur_kemalist §Y§Y kemalistischer Staat §!§! "</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12160,11 +12160,11 @@
       </c>
       <c r="C378" s="1" t="str">
         <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v> TUR_hostile_kemalists_influenced_state_effect_tt: "Die £faction_tur_kemalist §Ykemalistischen Verräter§! verschanzen sich in §Y[TUR_kemalist_state_event_target.GetName]§!."</v>
+        <v> TUR_hostile_kemalists_influenced_state_effect_tt: "Die £faction_tur_kemalist §Y§Y kemalistischen Verräter §!§!  verschanzen sich in §Y§Y [TUR_kemalist_state_event_target.GetName] §!§! ."</v>
       </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
-        <v> TUR_hostile_kemalists_influenced_state_effect_tt: "Die £faction_tur_kemalist §Ykemalistischen Verräter§! verschanzen sich in §Y[TUR_kemalist_state_event_target.GetName]§!."</v>
+        <v> TUR_hostile_kemalists_influenced_state_effect_tt: "Die £faction_tur_kemalist §Y§Y kemalistischen Verräter §!§!  verschanzen sich in §Y§Y [TUR_kemalist_state_event_target.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12848,11 +12848,11 @@
       </c>
       <c r="C421" s="1" t="str">
         <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v> form_rumelia_greece_required_states_tt: "Kontrolliert alle §Ygriechischen§! Festlandstaaten."</v>
+        <v> form_rumelia_greece_required_states_tt: "Kontrolliert alle §Y§Y griechischen §!§!  Festlandstaaten."</v>
       </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
-        <v> form_rumelia_greece_required_states_tt: "Kontrolliert alle §Ygriechischen§! Festlandstaaten."</v>
+        <v> form_rumelia_greece_required_states_tt: "Kontrolliert alle §Y§Y griechischen §!§!  Festlandstaaten."</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12864,11 +12864,11 @@
       </c>
       <c r="C422" s="1" t="str">
         <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v> form_rumelia_bulgaria_required_states_tt: "Kontrolliert alle §Ybulgarischen§! Staaten."</v>
+        <v> form_rumelia_bulgaria_required_states_tt: "Kontrolliert alle §Y§Y bulgarischen §!§!  Staaten."</v>
       </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
-        <v> form_rumelia_bulgaria_required_states_tt: "Kontrolliert alle §Ybulgarischen§! Staaten."</v>
+        <v> form_rumelia_bulgaria_required_states_tt: "Kontrolliert alle §Y§Y bulgarischen §!§!  Staaten."</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12880,11 +12880,11 @@
       </c>
       <c r="C423" s="1" t="str">
         <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v> form_rumelia_yugoslavia_required_states_tt: "Kontrolliert alle §Yserbischen§!, §Ymazedonischen§! und §Ymontenegrinischen§! Staaten."</v>
+        <v> form_rumelia_yugoslavia_required_states_tt: "Kontrolliert alle §Y§Y serbischen §!§! , §Y§Y mazedonischen §!§!  und §Y§Y montenegrinischen §!§!  Staaten."</v>
       </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
-        <v> form_rumelia_yugoslavia_required_states_tt: "Kontrolliert alle §Yserbischen§!, §Ymazedonischen§! und §Ymontenegrinischen§! Staaten."</v>
+        <v> form_rumelia_yugoslavia_required_states_tt: "Kontrolliert alle §Y§Y serbischen §!§! , §Y§Y mazedonischen §!§!  und §Y§Y montenegrinischen §!§!  Staaten."</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12896,11 +12896,11 @@
       </c>
       <c r="C424" s="1" t="str">
         <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v> form_rumelia_albania_required_states_tt: "Kontrolliert alle §Yalbanischen§! Staaten."</v>
+        <v> form_rumelia_albania_required_states_tt: "Kontrolliert alle §Y§Y albanischen §!§!  Staaten."</v>
       </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
-        <v> form_rumelia_albania_required_states_tt: "Kontrolliert alle §Yalbanischen§! Staaten."</v>
+        <v> form_rumelia_albania_required_states_tt: "Kontrolliert alle §Y§Y albanischen §!§!  Staaten."</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12912,11 +12912,11 @@
       </c>
       <c r="C425" s="1" t="str">
         <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v> form_rumelia_greece_coring_states_tt: "Macht alle §Ygriechischen§! Festlandstaaten zu Kerngebieten."</v>
+        <v> form_rumelia_greece_coring_states_tt: "Macht alle §Y§Y griechischen §!§!  Festlandstaaten zu Kerngebieten."</v>
       </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
-        <v> form_rumelia_greece_coring_states_tt: "Macht alle §Ygriechischen§! Festlandstaaten zu Kerngebieten."</v>
+        <v> form_rumelia_greece_coring_states_tt: "Macht alle §Y§Y griechischen §!§!  Festlandstaaten zu Kerngebieten."</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12928,11 +12928,11 @@
       </c>
       <c r="C426" s="1" t="str">
         <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v> form_rumelia_bulgaria_coring_states_tt: "Macht alle §Ybulgarischen§! Staaten zu Kerngebieten."</v>
+        <v> form_rumelia_bulgaria_coring_states_tt: "Macht alle §Y§Y bulgarischen §!§!  Staaten zu Kerngebieten."</v>
       </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
-        <v> form_rumelia_bulgaria_coring_states_tt: "Macht alle §Ybulgarischen§! Staaten zu Kerngebieten."</v>
+        <v> form_rumelia_bulgaria_coring_states_tt: "Macht alle §Y§Y bulgarischen §!§!  Staaten zu Kerngebieten."</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12944,11 +12944,11 @@
       </c>
       <c r="C427" s="1" t="str">
         <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v> form_rumelia_yugoslavia_coring_states_tt: "Macht alle §Yserbischen§!, §Ymazedonischen§! und §Ymontenegrinischen§! Staaten zu Kerngebieten."</v>
+        <v> form_rumelia_yugoslavia_coring_states_tt: "Macht alle §Y§Y serbischen §!§! , §Y§Y mazedonischen §!§!  und §Y§Y montenegrinischen §!§!  Staaten zu Kerngebieten."</v>
       </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
-        <v> form_rumelia_yugoslavia_coring_states_tt: "Macht alle §Yserbischen§!, §Ymazedonischen§! und §Ymontenegrinischen§! Staaten zu Kerngebieten."</v>
+        <v> form_rumelia_yugoslavia_coring_states_tt: "Macht alle §Y§Y serbischen §!§! , §Y§Y mazedonischen §!§!  und §Y§Y montenegrinischen §!§!  Staaten zu Kerngebieten."</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12960,11 +12960,11 @@
       </c>
       <c r="C428" s="1" t="str">
         <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v> form_rumelia_albania_coring_states_tt: "Macht alle §Yalbanischen§! Staaten zu Kernen."</v>
+        <v> form_rumelia_albania_coring_states_tt: "Macht alle §Y§Y albanischen §!§!  Staaten zu Kernen."</v>
       </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
-        <v> form_rumelia_albania_coring_states_tt: "Macht alle §Yalbanischen§! Staaten zu Kernen."</v>
+        <v> form_rumelia_albania_coring_states_tt: "Macht alle §Y§Y albanischen §!§!  Staaten zu Kernen."</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,11 +13072,11 @@
       </c>
       <c r="C435" s="1" t="str">
         <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v> TUR_worsen_ataturks_health_effect_tt: "§YMustafa Kemal Atatürk§! ist wegen seines §Rschlechten Gesundheitszustands§! als Staatsoberhaupt weniger effektiv."</v>
+        <v> TUR_worsen_ataturks_health_effect_tt: "§Y§Y Mustafa Kemal Atatürk §!§!  ist wegen seines §R§R schlechten Gesundheitszustands §!§!  als Staatsoberhaupt weniger effektiv."</v>
       </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
-        <v> TUR_worsen_ataturks_health_effect_tt: "§YMustafa Kemal Atatürk§! ist wegen seines §Rschlechten Gesundheitszustands§! als Staatsoberhaupt weniger effektiv."</v>
+        <v> TUR_worsen_ataturks_health_effect_tt: "§Y§Y Mustafa Kemal Atatürk §!§!  ist wegen seines §R§R schlechten Gesundheitszustands §!§!  als Staatsoberhaupt weniger effektiv."</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13120,11 +13120,11 @@
       </c>
       <c r="C438" s="1" t="str">
         <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v> TUR_ataturk_health_poor_tt: "§YMustafa Kemal Atatürk§! Gesundheitszustand gilt als §Yschlecht§!."</v>
+        <v> TUR_ataturk_health_poor_tt: "§Y§Y Mustafa Kemal Atatürk §!§!  Gesundheitszustand gilt als §Y§Y schlecht §!§! ."</v>
       </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
-        <v> TUR_ataturk_health_poor_tt: "§YMustafa Kemal Atatürk§! Gesundheitszustand gilt als §Yschlecht§!."</v>
+        <v> TUR_ataturk_health_poor_tt: "§Y§Y Mustafa Kemal Atatürk §!§!  Gesundheitszustand gilt als §Y§Y schlecht §!§! ."</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13136,11 +13136,11 @@
       </c>
       <c r="C439" s="1" t="str">
         <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v> TUR_ataturk_health_terminal_tt: "§YMustafa Kemal Atatürk§! wird wegen seines §Yunheilbaren§! Zustands palliativ gepflegt."</v>
+        <v> TUR_ataturk_health_terminal_tt: "§Y§Y Mustafa Kemal Atatürk §!§!  wird wegen seines §Y§Y unheilbaren §!§!  Zustands palliativ gepflegt."</v>
       </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
-        <v> TUR_ataturk_health_terminal_tt: "§YMustafa Kemal Atatürk§! wird wegen seines §Yunheilbaren§! Zustands palliativ gepflegt."</v>
+        <v> TUR_ataturk_health_terminal_tt: "§Y§Y Mustafa Kemal Atatürk §!§!  wird wegen seines §Y§Y unheilbaren §!§!  Zustands palliativ gepflegt."</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13152,11 +13152,11 @@
       </c>
       <c r="C440" s="1" t="str">
         <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v> TUR_ataturk_health_stable: "§YStabil§!"</v>
+        <v> TUR_ataturk_health_stable: "§Y§Y Stabil §!§! "</v>
       </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
-        <v> TUR_ataturk_health_stable: "§YStabil§!"</v>
+        <v> TUR_ataturk_health_stable: "§Y§Y Stabil §!§! "</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13168,11 +13168,11 @@
       </c>
       <c r="C441" s="1" t="str">
         <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v> TUR_ataturk_health_poor: "§YSchlecht§!"</v>
+        <v> TUR_ataturk_health_poor: "§Y§Y Schlecht §!§! "</v>
       </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
-        <v> TUR_ataturk_health_poor: "§YSchlecht§!"</v>
+        <v> TUR_ataturk_health_poor: "§Y§Y Schlecht §!§! "</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13184,11 +13184,11 @@
       </c>
       <c r="C442" s="1" t="str">
         <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v> TUR_ataturk_health_terminal: "§RUnheilbar§!"</v>
+        <v> TUR_ataturk_health_terminal: "§R§R Unheilbar §!§! "</v>
       </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
-        <v> TUR_ataturk_health_terminal: "§RUnheilbar§!"</v>
+        <v> TUR_ataturk_health_terminal: "§R§R Unheilbar §!§! "</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13200,11 +13200,11 @@
       </c>
       <c r="C443" s="1" t="str">
         <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v> TUR_acquiesce_to_fundamentalists_tt: "Dieser Staat und bis zu §Y2§! weitere £faction_tur_traditionalist §Ytraditionalistische Staaten§! werden anfangen, mit der Regierung zu kooperieren."</v>
+        <v> TUR_acquiesce_to_fundamentalists_tt: "Dieser Staat und bis zu §Y§Y 2 §!§!  weitere £faction_tur_traditionalist §Y§Y traditionalistische Staaten §!§!  werden anfangen, mit der Regierung zu kooperieren."</v>
       </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
-        <v> TUR_acquiesce_to_fundamentalists_tt: "Dieser Staat und bis zu §Y2§! weitere £faction_tur_traditionalist §Ytraditionalistische Staaten§! werden anfangen, mit der Regierung zu kooperieren."</v>
+        <v> TUR_acquiesce_to_fundamentalists_tt: "Dieser Staat und bis zu §Y§Y 2 §!§!  weitere £faction_tur_traditionalist §Y§Y traditionalistische Staaten §!§!  werden anfangen, mit der Regierung zu kooperieren."</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13456,11 +13456,11 @@
       </c>
       <c r="C459" s="1" t="str">
         <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v> form_country_turan_syria_required_states_tt: "Kontrolliert §Y[799.GetName]§! und §Y[680.GetName]§!."</v>
+        <v> form_country_turan_syria_required_states_tt: "Kontrolliert §Y§Y [799.GetName] §!§!  und §Y§Y [680.GetName] §!§! ."</v>
       </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
-        <v> form_country_turan_syria_required_states_tt: "Kontrolliert §Y[799.GetName]§! und §Y[680.GetName]§!."</v>
+        <v> form_country_turan_syria_required_states_tt: "Kontrolliert §Y§Y [799.GetName] §!§!  und §Y§Y [680.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13472,11 +13472,11 @@
       </c>
       <c r="C460" s="1" t="str">
         <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v> form_country_turan_iraq_required_states_tt: "Kontrolliert §Y[676.GetName]§!."</v>
+        <v> form_country_turan_iraq_required_states_tt: "Kontrolliert §Y§Y [676.GetName] §!§! ."</v>
       </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
-        <v> form_country_turan_iraq_required_states_tt: "Kontrolliert §Y[676.GetName]§!."</v>
+        <v> form_country_turan_iraq_required_states_tt: "Kontrolliert §Y§Y [676.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13488,11 +13488,11 @@
       </c>
       <c r="C461" s="1" t="str">
         <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v> form_country_turan_iran_required_states_tt: "Kontrolliert §Y[421.GetName]§!, §Y[419.GetName]§!, §Y[420.GetName]§!, §Y[417.GetName]§!, §Y[413.GetName]§!, §Y[266.GetName]§! und §Y[416.GetName]§!."</v>
+        <v> form_country_turan_iran_required_states_tt: "Kontrolliert §Y§Y [421.GetName] §!§! , §Y§Y [419.GetName] §!§! , §Y§Y [420.GetName] §!§! , §Y§Y [417.GetName] §!§! , §Y§Y [413.GetName] §!§! , §Y§Y [266.GetName] §!§!  und §Y§Y [416.GetName] §!§! ."</v>
       </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
-        <v> form_country_turan_iran_required_states_tt: "Kontrolliert §Y[421.GetName]§!, §Y[419.GetName]§!, §Y[420.GetName]§!, §Y[417.GetName]§!, §Y[413.GetName]§!, §Y[266.GetName]§! und §Y[416.GetName]§!."</v>
+        <v> form_country_turan_iran_required_states_tt: "Kontrolliert §Y§Y [421.GetName] §!§! , §Y§Y [419.GetName] §!§! , §Y§Y [420.GetName] §!§! , §Y§Y [417.GetName] §!§! , §Y§Y [413.GetName] §!§! , §Y§Y [266.GetName] §!§!  und §Y§Y [416.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13504,11 +13504,11 @@
       </c>
       <c r="C462" s="1" t="str">
         <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v> form_country_turan_azerbaijan_required_states_tt: "Kontrolliert §Y[229.GetName]§!."</v>
+        <v> form_country_turan_azerbaijan_required_states_tt: "Kontrolliert §Y§Y [229.GetName] §!§! ."</v>
       </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
-        <v> form_country_turan_azerbaijan_required_states_tt: "Kontrolliert §Y[229.GetName]§!."</v>
+        <v> form_country_turan_azerbaijan_required_states_tt: "Kontrolliert §Y§Y [229.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13520,11 +13520,11 @@
       </c>
       <c r="C463" s="1" t="str">
         <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v> form_country_turan_kuban_crimea_required_states_tt: "Kontrolliert §Y[233.GetName]§!, §Y[232.GetName]§!, §Y[235.GetName]§!, §Y[234.GetName]§!, §Y[237.GetName]§!, §Y[238.GetName]§!, §Y[236.GetName]§!, §Y[407.GetName]§!, §Y[406.GetName]§!, §Y[218.GetName]§!, §Y[227.GetName]§!, §Y[228.GetName]§!, §Y[200.GetName]§!, §Y[196.GetName]§! und §Y[137.GetName]§!."</v>
+        <v> form_country_turan_kuban_crimea_required_states_tt: "Kontrolliert §Y§Y [233.GetName] §!§! , §Y§Y [232.GetName] §!§! , §Y§Y [235.GetName] §!§! , §Y§Y [234.GetName] §!§! , §Y§Y [237.GetName] §!§! , §Y§Y [238.GetName] §!§! , §Y§Y [236.GetName] §!§! , §Y§Y [407.GetName] §!§! , §Y§Y [406.GetName] §!§! , §Y§Y [218.GetName] §!§! , §Y§Y [227.GetName] §!§! , §Y§Y [228.GetName] §!§! , §Y§Y [200.GetName] §!§! , §Y§Y [196.GetName] §!§!  und §Y§Y [137.GetName] §!§! ."</v>
       </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
-        <v> form_country_turan_kuban_crimea_required_states_tt: "Kontrolliert §Y[233.GetName]§!, §Y[232.GetName]§!, §Y[235.GetName]§!, §Y[234.GetName]§!, §Y[237.GetName]§!, §Y[238.GetName]§!, §Y[236.GetName]§!, §Y[407.GetName]§!, §Y[406.GetName]§!, §Y[218.GetName]§!, §Y[227.GetName]§!, §Y[228.GetName]§!, §Y[200.GetName]§!, §Y[196.GetName]§! und §Y[137.GetName]§!."</v>
+        <v> form_country_turan_kuban_crimea_required_states_tt: "Kontrolliert §Y§Y [233.GetName] §!§! , §Y§Y [232.GetName] §!§! , §Y§Y [235.GetName] §!§! , §Y§Y [234.GetName] §!§! , §Y§Y [237.GetName] §!§! , §Y§Y [238.GetName] §!§! , §Y§Y [236.GetName] §!§! , §Y§Y [407.GetName] §!§! , §Y§Y [406.GetName] §!§! , §Y§Y [218.GetName] §!§! , §Y§Y [227.GetName] §!§! , §Y§Y [228.GetName] §!§! , §Y§Y [200.GetName] §!§! , §Y§Y [196.GetName] §!§!  und §Y§Y [137.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13536,11 +13536,11 @@
       </c>
       <c r="C464" s="1" t="str">
         <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v> form_country_turan_urals_central_asia_required_states_tt: "Kontrolliert §Y[582.GetName]§!, §Y[402.GetName]§!, §Y[583.GetName]§!, §Y[587.GetName]§!, §Y[585.GetName]§!, §Y[584.GetName]§!, §Y[405.GetName]§!, §Y[404.GetName]§!, §Y[586.GetName]§!, §Y[732.GetName]§!, §Y[742.GetName]§!, §Y[589.GetName]§!, §Y[588.GetName]§!, §Y[590.GetName]§!, §Y[570.GetName]§! und §Y[571.GetName]§!."</v>
+        <v> form_country_turan_urals_central_asia_required_states_tt: "Kontrolliert §Y§Y [582.GetName] §!§! , §Y§Y [402.GetName] §!§! , §Y§Y [583.GetName] §!§! , §Y§Y [587.GetName] §!§! , §Y§Y [585.GetName] §!§! , §Y§Y [584.GetName] §!§! , §Y§Y [405.GetName] §!§! , §Y§Y [404.GetName] §!§! , §Y§Y [586.GetName] §!§! , §Y§Y [732.GetName] §!§! , §Y§Y [742.GetName] §!§! , §Y§Y [589.GetName] §!§! , §Y§Y [588.GetName] §!§! , §Y§Y [590.GetName] §!§! , §Y§Y [570.GetName] §!§!  und §Y§Y [571.GetName] §!§! ."</v>
       </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
-        <v> form_country_turan_urals_central_asia_required_states_tt: "Kontrolliert §Y[582.GetName]§!, §Y[402.GetName]§!, §Y[583.GetName]§!, §Y[587.GetName]§!, §Y[585.GetName]§!, §Y[584.GetName]§!, §Y[405.GetName]§!, §Y[404.GetName]§!, §Y[586.GetName]§!, §Y[732.GetName]§!, §Y[742.GetName]§!, §Y[589.GetName]§!, §Y[588.GetName]§!, §Y[590.GetName]§!, §Y[570.GetName]§! und §Y[571.GetName]§!."</v>
+        <v> form_country_turan_urals_central_asia_required_states_tt: "Kontrolliert §Y§Y [582.GetName] §!§! , §Y§Y [402.GetName] §!§! , §Y§Y [583.GetName] §!§! , §Y§Y [587.GetName] §!§! , §Y§Y [585.GetName] §!§! , §Y§Y [584.GetName] §!§! , §Y§Y [405.GetName] §!§! , §Y§Y [404.GetName] §!§! , §Y§Y [586.GetName] §!§! , §Y§Y [732.GetName] §!§! , §Y§Y [742.GetName] §!§! , §Y§Y [589.GetName] §!§! , §Y§Y [588.GetName] §!§! , §Y§Y [590.GetName] §!§! , §Y§Y [570.GetName] §!§!  und §Y§Y [571.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13552,11 +13552,11 @@
       </c>
       <c r="C465" s="1" t="str">
         <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v> form_country_turan_siberia_required_states_tt: "Kontrolliert §Y[654.GetName]§!, §Y[40.GetName]§!, §Y[569.GetName]§!, §Y[568.GetName]§!, §Y[329.GetName]§!, §Y[567.GetName]§!, §Y[566.GetName]§!, §Y[564.GetName]§!, §Y[563.GetName]§!, §Y[565.GetName]§!, §Y[561.GetName]§!, §Y[574.GetName]§!, §Y[562.GetName]§!, §Y[644.GetName]§! und §Y[637.GetName]§!."</v>
+        <v> form_country_turan_siberia_required_states_tt: "Kontrolliert §Y§Y [654.GetName] §!§! , §Y§Y [40.GetName] §!§! , §Y§Y [569.GetName] §!§! , §Y§Y [568.GetName] §!§! , §Y§Y [329.GetName] §!§! , §Y§Y [567.GetName] §!§! , §Y§Y [566.GetName] §!§! , §Y§Y [564.GetName] §!§! , §Y§Y [563.GetName] §!§! , §Y§Y [565.GetName] §!§! , §Y§Y [561.GetName] §!§! , §Y§Y [574.GetName] §!§! , §Y§Y [562.GetName] §!§! , §Y§Y [644.GetName] §!§!  und §Y§Y [637.GetName] §!§! ."</v>
       </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
-        <v> form_country_turan_siberia_required_states_tt: "Kontrolliert §Y[654.GetName]§!, §Y[40.GetName]§!, §Y[569.GetName]§!, §Y[568.GetName]§!, §Y[329.GetName]§!, §Y[567.GetName]§!, §Y[566.GetName]§!, §Y[564.GetName]§!, §Y[563.GetName]§!, §Y[565.GetName]§!, §Y[561.GetName]§!, §Y[574.GetName]§!, §Y[562.GetName]§!, §Y[644.GetName]§! und §Y[637.GetName]§!."</v>
+        <v> form_country_turan_siberia_required_states_tt: "Kontrolliert §Y§Y [654.GetName] §!§! , §Y§Y [40.GetName] §!§! , §Y§Y [569.GetName] §!§! , §Y§Y [568.GetName] §!§! , §Y§Y [329.GetName] §!§! , §Y§Y [567.GetName] §!§! , §Y§Y [566.GetName] §!§! , §Y§Y [564.GetName] §!§! , §Y§Y [563.GetName] §!§! , §Y§Y [565.GetName] §!§! , §Y§Y [561.GetName] §!§! , §Y§Y [574.GetName] §!§! , §Y§Y [562.GetName] §!§! , §Y§Y [644.GetName] §!§!  und §Y§Y [637.GetName] §!§! ."</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14128,11 +14128,11 @@
       </c>
       <c r="C501" s="1" t="str">
         <f aca="false">A501 &amp;" " &amp;"""" &amp;B501 &amp;""""</f>
-        <v> BUL_loyalty_status_crushed: "§gZerschlagen§!"</v>
+        <v> BUL_loyalty_status_crushed: "§g§g Zerschlagen §!§! "</v>
       </c>
       <c r="D501" s="1" t="str">
         <f aca="false">IF(ISBLANK(A501),"",C501)</f>
-        <v> BUL_loyalty_status_crushed: "§gZerschlagen§!"</v>
+        <v> BUL_loyalty_status_crushed: "§g§g Zerschlagen §!§! "</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14144,11 +14144,11 @@
       </c>
       <c r="C502" s="1" t="str">
         <f aca="false">A502 &amp;" " &amp;"""" &amp;B502 &amp;""""</f>
-        <v> BUL_loyalty_status_integrated: "§gIntegriert§!"</v>
+        <v> BUL_loyalty_status_integrated: "§g§g Integriert §!§! "</v>
       </c>
       <c r="D502" s="1" t="str">
         <f aca="false">IF(ISBLANK(A502),"",C502)</f>
-        <v> BUL_loyalty_status_integrated: "§gIntegriert§!"</v>
+        <v> BUL_loyalty_status_integrated: "§g§g Integriert §!§! "</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14256,11 +14256,11 @@
       </c>
       <c r="C509" s="1" t="str">
         <f aca="false">A509 &amp;" " &amp;"""" &amp;B509 &amp;""""</f>
-        <v> BUL_ZVENO_TOOLTIP: "£faction_bul_zveno §YZveno§! ist eine nationalistische Organisation, die den Armeeoffizieren gegründet wurde und momentan von Kimon Georgiew geleitet wird. \n£faction_bul_zveno §YZveno§! wird Armeeoffiziere auffordern, der Organisation beizutreten. Mit der Zeit könnte die Gruppe sogar versuchen, einen Staatsstreich durchzuführen und eine Militärdiktatur zu installieren."</v>
+        <v> BUL_ZVENO_TOOLTIP: "£faction_bul_zveno §Y§Y Zveno §!§!  ist eine nationalistische Organisation, die den Armeeoffizieren gegründet wurde und momentan von Kimon Georgiew geleitet wird. \n£faction_bul_zveno §Y§Y Zveno §!§!  wird Armeeoffiziere auffordern, der Organisation beizutreten. Mit der Zeit könnte die Gruppe sogar versuchen, einen Staatsstreich durchzuführen und eine Militärdiktatur zu installieren."</v>
       </c>
       <c r="D509" s="1" t="str">
         <f aca="false">IF(ISBLANK(A509),"",C509)</f>
-        <v> BUL_ZVENO_TOOLTIP: "£faction_bul_zveno §YZveno§! ist eine nationalistische Organisation, die den Armeeoffizieren gegründet wurde und momentan von Kimon Georgiew geleitet wird. \n£faction_bul_zveno §YZveno§! wird Armeeoffiziere auffordern, der Organisation beizutreten. Mit der Zeit könnte die Gruppe sogar versuchen, einen Staatsstreich durchzuführen und eine Militärdiktatur zu installieren."</v>
+        <v> BUL_ZVENO_TOOLTIP: "£faction_bul_zveno §Y§Y Zveno §!§!  ist eine nationalistische Organisation, die den Armeeoffizieren gegründet wurde und momentan von Kimon Georgiew geleitet wird. \n£faction_bul_zveno §Y§Y Zveno §!§!  wird Armeeoffiziere auffordern, der Organisation beizutreten. Mit der Zeit könnte die Gruppe sogar versuchen, einen Staatsstreich durchzuführen und eine Militärdiktatur zu installieren."</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14272,11 +14272,11 @@
       </c>
       <c r="C510" s="1" t="str">
         <f aca="false">A510 &amp;" " &amp;"""" &amp;B510 &amp;""""</f>
-        <v> BUL_BS_TOOLTIP: "Die £faction_bul_bs §YBreiten Sozialisten§! sind Sozialdemokraten, die breite Klassenbündnisse unterstützen. \nDie £faction_bul_bs §YBreiten Sozialisten§! genießen großen Einfluss bei Industriearbeitern und Gewerkschaften und werden zu Generalstreiks aufrufen, wenn sie der Regierung gegenüber nicht loyal ergeben sind."</v>
+        <v> BUL_BS_TOOLTIP: "Die £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  sind Sozialdemokraten, die breite Klassenbündnisse unterstützen. \nDie £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  genießen großen Einfluss bei Industriearbeitern und Gewerkschaften und werden zu Generalstreiks aufrufen, wenn sie der Regierung gegenüber nicht loyal ergeben sind."</v>
       </c>
       <c r="D510" s="1" t="str">
         <f aca="false">IF(ISBLANK(A510),"",C510)</f>
-        <v> BUL_BS_TOOLTIP: "Die £faction_bul_bs §YBreiten Sozialisten§! sind Sozialdemokraten, die breite Klassenbündnisse unterstützen. \nDie £faction_bul_bs §YBreiten Sozialisten§! genießen großen Einfluss bei Industriearbeitern und Gewerkschaften und werden zu Generalstreiks aufrufen, wenn sie der Regierung gegenüber nicht loyal ergeben sind."</v>
+        <v> BUL_BS_TOOLTIP: "Die £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  sind Sozialdemokraten, die breite Klassenbündnisse unterstützen. \nDie £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  genießen großen Einfluss bei Industriearbeitern und Gewerkschaften und werden zu Generalstreiks aufrufen, wenn sie der Regierung gegenüber nicht loyal ergeben sind."</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14288,11 +14288,11 @@
       </c>
       <c r="C511" s="1" t="str">
         <f aca="false">A511 &amp;" " &amp;"""" &amp;B511 &amp;""""</f>
-        <v> BUL_BZNS_TOOLTIP: "Die £faction_bul_bzns §YAgrarunion§! ist eine 1934 verbotene politische Organisation, die sich primär mit Fragen rund um die Agrarwirtschaft beschäftigt. \nDie £faction_bul_bzns §YAgrarunion§! genießt in den ländlichen Regionen des Landes großen Einfluss und wird versuchen, die Bauern auf ihre Seite zu ziehen."</v>
+        <v> BUL_BZNS_TOOLTIP: "Die £faction_bul_bzns §Y§Y Agrarunion §!§!  ist eine 1934 verbotene politische Organisation, die sich primär mit Fragen rund um die Agrarwirtschaft beschäftigt. \nDie £faction_bul_bzns §Y§Y Agrarunion §!§!  genießt in den ländlichen Regionen des Landes großen Einfluss und wird versuchen, die Bauern auf ihre Seite zu ziehen."</v>
       </c>
       <c r="D511" s="1" t="str">
         <f aca="false">IF(ISBLANK(A511),"",C511)</f>
-        <v> BUL_BZNS_TOOLTIP: "Die £faction_bul_bzns §YAgrarunion§! ist eine 1934 verbotene politische Organisation, die sich primär mit Fragen rund um die Agrarwirtschaft beschäftigt. \nDie £faction_bul_bzns §YAgrarunion§! genießt in den ländlichen Regionen des Landes großen Einfluss und wird versuchen, die Bauern auf ihre Seite zu ziehen."</v>
+        <v> BUL_BZNS_TOOLTIP: "Die £faction_bul_bzns §Y§Y Agrarunion §!§!  ist eine 1934 verbotene politische Organisation, die sich primär mit Fragen rund um die Agrarwirtschaft beschäftigt. \nDie £faction_bul_bzns §Y§Y Agrarunion §!§!  genießt in den ländlichen Regionen des Landes großen Einfluss und wird versuchen, die Bauern auf ihre Seite zu ziehen."</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14304,11 +14304,11 @@
       </c>
       <c r="C512" s="1" t="str">
         <f aca="false">A512 &amp;" " &amp;"""" &amp;B512 &amp;""""</f>
-        <v> BUL_NSM_TOOLTIP: "Die £faction_bul_nsm §YNationalsozialistische Bewegung§! ist eine extrem rechte Organisation unter der Führung des ehemaligen Zveno-Mitglieds Aleksandar Zwankow. \nDie £faction_bul_nsm §YNationalsozialistische Bewegung§! wird versuchen, die Massen auf ihre Seite zu ziehen, indem sie im ganzen Land Demonstrationen und Proteste organisiert."</v>
+        <v> BUL_NSM_TOOLTIP: "Die £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  ist eine extrem rechte Organisation unter der Führung des ehemaligen Zveno-Mitglieds Aleksandar Zwankow. \nDie £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wird versuchen, die Massen auf ihre Seite zu ziehen, indem sie im ganzen Land Demonstrationen und Proteste organisiert."</v>
       </c>
       <c r="D512" s="1" t="str">
         <f aca="false">IF(ISBLANK(A512),"",C512)</f>
-        <v> BUL_NSM_TOOLTIP: "Die £faction_bul_nsm §YNationalsozialistische Bewegung§! ist eine extrem rechte Organisation unter der Führung des ehemaligen Zveno-Mitglieds Aleksandar Zwankow. \nDie £faction_bul_nsm §YNationalsozialistische Bewegung§! wird versuchen, die Massen auf ihre Seite zu ziehen, indem sie im ganzen Land Demonstrationen und Proteste organisiert."</v>
+        <v> BUL_NSM_TOOLTIP: "Die £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  ist eine extrem rechte Organisation unter der Führung des ehemaligen Zveno-Mitglieds Aleksandar Zwankow. \nDie £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wird versuchen, die Massen auf ihre Seite zu ziehen, indem sie im ganzen Land Demonstrationen und Proteste organisiert."</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14320,11 +14320,11 @@
       </c>
       <c r="C513" s="1" t="str">
         <f aca="false">A513 &amp;" " &amp;"""" &amp;B513 &amp;""""</f>
-        <v> BUL_LOYALTY_TOOLTIP: "§YLoyalität§! steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \nJe höher die §YLoyalität§!, desto unwahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung in die Regierung integriert werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um die Mitglieder der Regierung auf Linie mit der Regierung zu bringen und ihre §YLoyalität§! auf 100 zu erhöhen."</v>
+        <v> BUL_LOYALTY_TOOLTIP: "§Y§Y Loyalität §!§!  steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \nJe höher die §Y§Y Loyalität §!§! , desto unwahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung in die Regierung integriert werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um die Mitglieder der Regierung auf Linie mit der Regierung zu bringen und ihre §Y§Y Loyalität §!§!  auf 100 zu erhöhen."</v>
       </c>
       <c r="D513" s="1" t="str">
         <f aca="false">IF(ISBLANK(A513),"",C513)</f>
-        <v> BUL_LOYALTY_TOOLTIP: "§YLoyalität§! steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \nJe höher die §YLoyalität§!, desto unwahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung in die Regierung integriert werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um die Mitglieder der Regierung auf Linie mit der Regierung zu bringen und ihre §YLoyalität§! auf 100 zu erhöhen."</v>
+        <v> BUL_LOYALTY_TOOLTIP: "§Y§Y Loyalität §!§!  steht für die Bereitschaft der Gruppierung, mit der Regierung zu kooperieren. \nJe höher die §Y§Y Loyalität §!§! , desto unwahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung in die Regierung integriert werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um die Mitglieder der Regierung auf Linie mit der Regierung zu bringen und ihre §Y§Y Loyalität §!§!  auf 100 zu erhöhen."</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14336,11 +14336,11 @@
       </c>
       <c r="C514" s="1" t="str">
         <f aca="false">A514 &amp;" " &amp;"""" &amp;B514 &amp;""""</f>
-        <v> BUL_POPULARITY_TOOLTIP: "§YBeliebtheit§! steht für die Unterstützung, die eine Gruppierung aus bestimmten Teilen der Bevölkerung erhält (beispielsweise Militärangehörige, Proletarier, Bauern oder Rechtsradikale). \nJe höher die §YBeliebtheit§!, desto wahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung zerschlagen werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um sie zu schwächen und ihre §YBeliebtheit§! auf 0 zu senken."</v>
+        <v> BUL_POPULARITY_TOOLTIP: "§Y§Y Beliebtheit §!§!  steht für die Unterstützung, die eine Gruppierung aus bestimmten Teilen der Bevölkerung erhält (beispielsweise Militärangehörige, Proletarier, Bauern oder Rechtsradikale). \nJe höher die §Y§Y Beliebtheit §!§! , desto wahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung zerschlagen werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um sie zu schwächen und ihre §Y§Y Beliebtheit §!§!  auf 0 zu senken."</v>
       </c>
       <c r="D514" s="1" t="str">
         <f aca="false">IF(ISBLANK(A514),"",C514)</f>
-        <v> BUL_POPULARITY_TOOLTIP: "§YBeliebtheit§! steht für die Unterstützung, die eine Gruppierung aus bestimmten Teilen der Bevölkerung erhält (beispielsweise Militärangehörige, Proletarier, Bauern oder Rechtsradikale). \nJe höher die §YBeliebtheit§!, desto wahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung zerschlagen werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um sie zu schwächen und ihre §YBeliebtheit§! auf 0 zu senken."</v>
+        <v> BUL_POPULARITY_TOOLTIP: "§Y§Y Beliebtheit §!§!  steht für die Unterstützung, die eine Gruppierung aus bestimmten Teilen der Bevölkerung erhält (beispielsweise Militärangehörige, Proletarier, Bauern oder Rechtsradikale). \nJe höher die §Y§Y Beliebtheit §!§! , desto wahrscheinlicher ist es, dass eine Gruppierung eine Konfrontation mit der Regierung sucht. \nBevor eine Gruppierung zerschlagen werden kann, müssen bestimmte Entscheidungen abgeschlossen werden, um sie zu schwächen und ihre §Y§Y Beliebtheit §!§!  auf 0 zu senken."</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14352,11 +14352,11 @@
       </c>
       <c r="C515" s="1" t="str">
         <f aca="false">A515 &amp;" " &amp;"""" &amp;B515 &amp;""""</f>
-        <v> BUL_reduced_faction_interaction_cost_tt: "Die Entscheidungskosten für die Aktivierung aller §YFraktionsverwaltung§!-Entscheidungen werden halbiert."</v>
+        <v> BUL_reduced_faction_interaction_cost_tt: "Die Entscheidungskosten für die Aktivierung aller §Y§Y Fraktionsverwaltung §!§! -Entscheidungen werden halbiert."</v>
       </c>
       <c r="D515" s="1" t="str">
         <f aca="false">IF(ISBLANK(A515),"",C515)</f>
-        <v> BUL_reduced_faction_interaction_cost_tt: "Die Entscheidungskosten für die Aktivierung aller §YFraktionsverwaltung§!-Entscheidungen werden halbiert."</v>
+        <v> BUL_reduced_faction_interaction_cost_tt: "Die Entscheidungskosten für die Aktivierung aller §Y§Y Fraktionsverwaltung §!§! -Entscheidungen werden halbiert."</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14368,11 +14368,11 @@
       </c>
       <c r="C516" s="1" t="str">
         <f aca="false">A516 &amp;" " &amp;"""" &amp;B516 &amp;""""</f>
-        <v> BUL_reduced_communist_oppression_cost_tt: "Die Entscheidungskosten für die Unterdrückung der §YBreiten Sozialisten§! werden halbiert."</v>
+        <v> BUL_reduced_communist_oppression_cost_tt: "Die Entscheidungskosten für die Unterdrückung der §Y§Y Breiten Sozialisten §!§!  werden halbiert."</v>
       </c>
       <c r="D516" s="1" t="str">
         <f aca="false">IF(ISBLANK(A516),"",C516)</f>
-        <v> BUL_reduced_communist_oppression_cost_tt: "Die Entscheidungskosten für die Unterdrückung der §YBreiten Sozialisten§! werden halbiert."</v>
+        <v> BUL_reduced_communist_oppression_cost_tt: "Die Entscheidungskosten für die Unterdrückung der §Y§Y Breiten Sozialisten §!§!  werden halbiert."</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14384,11 +14384,11 @@
       </c>
       <c r="C517" s="1" t="str">
         <f aca="false">A517 &amp;" " &amp;"""" &amp;B517 &amp;""""</f>
-        <v> BUL_improved_faction_effects_tt: "Verstärkte Effekte auf Fraktionen durch alle §YFraktionsverwaltung§!-Entscheidungen."</v>
+        <v> BUL_improved_faction_effects_tt: "Verstärkte Effekte auf Fraktionen durch alle §Y§Y Fraktionsverwaltung §!§! -Entscheidungen."</v>
       </c>
       <c r="D517" s="1" t="str">
         <f aca="false">IF(ISBLANK(A517),"",C517)</f>
-        <v> BUL_improved_faction_effects_tt: "Verstärkte Effekte auf Fraktionen durch alle §YFraktionsverwaltung§!-Entscheidungen."</v>
+        <v> BUL_improved_faction_effects_tt: "Verstärkte Effekte auf Fraktionen durch alle §Y§Y Fraktionsverwaltung §!§! -Entscheidungen."</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14400,11 +14400,11 @@
       </c>
       <c r="C518" s="1" t="str">
         <f aca="false">A518 &amp;" " &amp;"""" &amp;B518 &amp;""""</f>
-        <v> BUL_reduced_faction_interaction_cooldown_tt: "§YFraktionsverwaltung§!-Entscheidungen werden schneller abgeschlossen und stehen nach Aktivierung schneller zur Verfügung."</v>
+        <v> BUL_reduced_faction_interaction_cooldown_tt: "§Y§Y Fraktionsverwaltung §!§! -Entscheidungen werden schneller abgeschlossen und stehen nach Aktivierung schneller zur Verfügung."</v>
       </c>
       <c r="D518" s="1" t="str">
         <f aca="false">IF(ISBLANK(A518),"",C518)</f>
-        <v> BUL_reduced_faction_interaction_cooldown_tt: "§YFraktionsverwaltung§!-Entscheidungen werden schneller abgeschlossen und stehen nach Aktivierung schneller zur Verfügung."</v>
+        <v> BUL_reduced_faction_interaction_cooldown_tt: "§Y§Y Fraktionsverwaltung §!§! -Entscheidungen werden schneller abgeschlossen und stehen nach Aktivierung schneller zur Verfügung."</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14480,11 +14480,11 @@
       </c>
       <c r="C523" s="1" t="str">
         <f aca="false">A523 &amp;" " &amp;"""" &amp;B523 &amp;""""</f>
-        <v> BUL_zveno_name_and_icon: "£faction_bul_zveno §YSweno§!"</v>
+        <v> BUL_zveno_name_and_icon: "£faction_bul_zveno §Y§Y Sweno §!§! "</v>
       </c>
       <c r="D523" s="1" t="str">
         <f aca="false">IF(ISBLANK(A523),"",C523)</f>
-        <v> BUL_zveno_name_and_icon: "£faction_bul_zveno §YSweno§!"</v>
+        <v> BUL_zveno_name_and_icon: "£faction_bul_zveno §Y§Y Sweno §!§! "</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14496,11 +14496,11 @@
       </c>
       <c r="C524" s="1" t="str">
         <f aca="false">A524 &amp;" " &amp;"""" &amp;B524 &amp;""""</f>
-        <v> BUL_bs_name_and_icon: "£faction_bul_bs §YBreite Sozialisten§!"</v>
+        <v> BUL_bs_name_and_icon: "£faction_bul_bs §Y§Y Breite Sozialisten §!§! "</v>
       </c>
       <c r="D524" s="1" t="str">
         <f aca="false">IF(ISBLANK(A524),"",C524)</f>
-        <v> BUL_bs_name_and_icon: "£faction_bul_bs §YBreite Sozialisten§!"</v>
+        <v> BUL_bs_name_and_icon: "£faction_bul_bs §Y§Y Breite Sozialisten §!§! "</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14512,11 +14512,11 @@
       </c>
       <c r="C525" s="1" t="str">
         <f aca="false">A525 &amp;" " &amp;"""" &amp;B525 &amp;""""</f>
-        <v> BUL_bzns_name_and_icon: "£faction_bul_bzns §YAgrarunion§!"</v>
+        <v> BUL_bzns_name_and_icon: "£faction_bul_bzns §Y§Y Agrarunion §!§! "</v>
       </c>
       <c r="D525" s="1" t="str">
         <f aca="false">IF(ISBLANK(A525),"",C525)</f>
-        <v> BUL_bzns_name_and_icon: "£faction_bul_bzns §YAgrarunion§!"</v>
+        <v> BUL_bzns_name_and_icon: "£faction_bul_bzns §Y§Y Agrarunion §!§! "</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14528,11 +14528,11 @@
       </c>
       <c r="C526" s="1" t="str">
         <f aca="false">A526 &amp;" " &amp;"""" &amp;B526 &amp;""""</f>
-        <v> BUL_nsm_name_and_icon: "£faction_bul_nsm §YNationalsozialistische Bewegung§!"</v>
+        <v> BUL_nsm_name_and_icon: "£faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§! "</v>
       </c>
       <c r="D526" s="1" t="str">
         <f aca="false">IF(ISBLANK(A526),"",C526)</f>
-        <v> BUL_nsm_name_and_icon: "£faction_bul_nsm §YNationalsozialistische Bewegung§!"</v>
+        <v> BUL_nsm_name_and_icon: "£faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§! "</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14544,11 +14544,11 @@
       </c>
       <c r="C527" s="1" t="str">
         <f aca="false">A527 &amp;" " &amp;"""" &amp;B527 &amp;""""</f>
-        <v> BUL_low_loyalty_increase_tt: "§G+[?BUL.BUL_faction_low_increase]§! Fraktionsloyalität."</v>
+        <v> BUL_low_loyalty_increase_tt: "§G§G +[?BUL.BUL_faction_low_increase] §!§!  Fraktionsloyalität."</v>
       </c>
       <c r="D527" s="1" t="str">
         <f aca="false">IF(ISBLANK(A527),"",C527)</f>
-        <v> BUL_low_loyalty_increase_tt: "§G+[?BUL.BUL_faction_low_increase]§! Fraktionsloyalität."</v>
+        <v> BUL_low_loyalty_increase_tt: "§G§G +[?BUL.BUL_faction_low_increase] §!§!  Fraktionsloyalität."</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14560,11 +14560,11 @@
       </c>
       <c r="C528" s="1" t="str">
         <f aca="false">A528 &amp;" " &amp;"""" &amp;B528 &amp;""""</f>
-        <v> BUL_low_popularity_increase_tt: "§G+[?BUL.BUL_faction_low_increase]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_low_popularity_increase_tt: "§G§G +[?BUL.BUL_faction_low_increase] §!§!  Fraktionsbeliebtheit."</v>
       </c>
       <c r="D528" s="1" t="str">
         <f aca="false">IF(ISBLANK(A528),"",C528)</f>
-        <v> BUL_low_popularity_increase_tt: "§G+[?BUL.BUL_faction_low_increase]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_low_popularity_increase_tt: "§G§G +[?BUL.BUL_faction_low_increase] §!§!  Fraktionsbeliebtheit."</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14576,11 +14576,11 @@
       </c>
       <c r="C529" s="1" t="str">
         <f aca="false">A529 &amp;" " &amp;"""" &amp;B529 &amp;""""</f>
-        <v> BUL_medium_loyalty_increase_tt: "§G+[?BUL.BUL_faction_medium_increase]§! Fraktionsloyalität."</v>
+        <v> BUL_medium_loyalty_increase_tt: "§G§G +[?BUL.BUL_faction_medium_increase] §!§!  Fraktionsloyalität."</v>
       </c>
       <c r="D529" s="1" t="str">
         <f aca="false">IF(ISBLANK(A529),"",C529)</f>
-        <v> BUL_medium_loyalty_increase_tt: "§G+[?BUL.BUL_faction_medium_increase]§! Fraktionsloyalität."</v>
+        <v> BUL_medium_loyalty_increase_tt: "§G§G +[?BUL.BUL_faction_medium_increase] §!§!  Fraktionsloyalität."</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14592,11 +14592,11 @@
       </c>
       <c r="C530" s="1" t="str">
         <f aca="false">A530 &amp;" " &amp;"""" &amp;B530 &amp;""""</f>
-        <v> BUL_medium_popularity_increase_tt: "§G+[?BUL.BUL_faction_medium_increase]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_medium_popularity_increase_tt: "§G§G +[?BUL.BUL_faction_medium_increase] §!§!  Fraktionsbeliebtheit."</v>
       </c>
       <c r="D530" s="1" t="str">
         <f aca="false">IF(ISBLANK(A530),"",C530)</f>
-        <v> BUL_medium_popularity_increase_tt: "§G+[?BUL.BUL_faction_medium_increase]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_medium_popularity_increase_tt: "§G§G +[?BUL.BUL_faction_medium_increase] §!§!  Fraktionsbeliebtheit."</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14608,11 +14608,11 @@
       </c>
       <c r="C531" s="1" t="str">
         <f aca="false">A531 &amp;" " &amp;"""" &amp;B531 &amp;""""</f>
-        <v> BUL_high_loyalty_increase_tt: "§G+[?BUL.BUL_faction_high_increase]§! Fraktionsloyalität."</v>
+        <v> BUL_high_loyalty_increase_tt: "§G§G +[?BUL.BUL_faction_high_increase] §!§!  Fraktionsloyalität."</v>
       </c>
       <c r="D531" s="1" t="str">
         <f aca="false">IF(ISBLANK(A531),"",C531)</f>
-        <v> BUL_high_loyalty_increase_tt: "§G+[?BUL.BUL_faction_high_increase]§! Fraktionsloyalität."</v>
+        <v> BUL_high_loyalty_increase_tt: "§G§G +[?BUL.BUL_faction_high_increase] §!§!  Fraktionsloyalität."</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14624,11 +14624,11 @@
       </c>
       <c r="C532" s="1" t="str">
         <f aca="false">A532 &amp;" " &amp;"""" &amp;B532 &amp;""""</f>
-        <v> BUL_high_popularity_increase_tt: "§G+[?BUL.BUL_faction_high_increase]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_high_popularity_increase_tt: "§G§G +[?BUL.BUL_faction_high_increase] §!§!  Fraktionsbeliebtheit."</v>
       </c>
       <c r="D532" s="1" t="str">
         <f aca="false">IF(ISBLANK(A532),"",C532)</f>
-        <v> BUL_high_popularity_increase_tt: "§G+[?BUL.BUL_faction_high_increase]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_high_popularity_increase_tt: "§G§G +[?BUL.BUL_faction_high_increase] §!§!  Fraktionsbeliebtheit."</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14640,11 +14640,11 @@
       </c>
       <c r="C533" s="1" t="str">
         <f aca="false">A533 &amp;" " &amp;"""" &amp;B533 &amp;""""</f>
-        <v> BUL_low_loyalty_decrease_tt: "§R[?BUL.BUL_faction_low_decrease]§! Fraktionsloyalität."</v>
+        <v> BUL_low_loyalty_decrease_tt: "§R§R [?BUL.BUL_faction_low_decrease] §!§!  Fraktionsloyalität."</v>
       </c>
       <c r="D533" s="1" t="str">
         <f aca="false">IF(ISBLANK(A533),"",C533)</f>
-        <v> BUL_low_loyalty_decrease_tt: "§R[?BUL.BUL_faction_low_decrease]§! Fraktionsloyalität."</v>
+        <v> BUL_low_loyalty_decrease_tt: "§R§R [?BUL.BUL_faction_low_decrease] §!§!  Fraktionsloyalität."</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14656,11 +14656,11 @@
       </c>
       <c r="C534" s="1" t="str">
         <f aca="false">A534 &amp;" " &amp;"""" &amp;B534 &amp;""""</f>
-        <v> BUL_low_popularity_decrease_tt: "§R[?BUL.BUL_faction_low_decrease]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_low_popularity_decrease_tt: "§R§R [?BUL.BUL_faction_low_decrease] §!§!  Fraktionsbeliebtheit."</v>
       </c>
       <c r="D534" s="1" t="str">
         <f aca="false">IF(ISBLANK(A534),"",C534)</f>
-        <v> BUL_low_popularity_decrease_tt: "§R[?BUL.BUL_faction_low_decrease]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_low_popularity_decrease_tt: "§R§R [?BUL.BUL_faction_low_decrease] §!§!  Fraktionsbeliebtheit."</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14672,11 +14672,11 @@
       </c>
       <c r="C535" s="1" t="str">
         <f aca="false">A535 &amp;" " &amp;"""" &amp;B535 &amp;""""</f>
-        <v> BUL_medium_loyalty_decrease_tt: "§R[?BUL.BUL_faction_medium_decrease]§! Fraktionsloyalität."</v>
+        <v> BUL_medium_loyalty_decrease_tt: "§R§R [?BUL.BUL_faction_medium_decrease] §!§!  Fraktionsloyalität."</v>
       </c>
       <c r="D535" s="1" t="str">
         <f aca="false">IF(ISBLANK(A535),"",C535)</f>
-        <v> BUL_medium_loyalty_decrease_tt: "§R[?BUL.BUL_faction_medium_decrease]§! Fraktionsloyalität."</v>
+        <v> BUL_medium_loyalty_decrease_tt: "§R§R [?BUL.BUL_faction_medium_decrease] §!§!  Fraktionsloyalität."</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14688,11 +14688,11 @@
       </c>
       <c r="C536" s="1" t="str">
         <f aca="false">A536 &amp;" " &amp;"""" &amp;B536 &amp;""""</f>
-        <v> BUL_medium_popularity_decrease_tt: "§R[?BUL.BUL_faction_medium_decrease]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_medium_popularity_decrease_tt: "§R§R [?BUL.BUL_faction_medium_decrease] §!§!  Fraktionsbeliebtheit."</v>
       </c>
       <c r="D536" s="1" t="str">
         <f aca="false">IF(ISBLANK(A536),"",C536)</f>
-        <v> BUL_medium_popularity_decrease_tt: "§R[?BUL.BUL_faction_medium_decrease]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_medium_popularity_decrease_tt: "§R§R [?BUL.BUL_faction_medium_decrease] §!§!  Fraktionsbeliebtheit."</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14704,11 +14704,11 @@
       </c>
       <c r="C537" s="1" t="str">
         <f aca="false">A537 &amp;" " &amp;"""" &amp;B537 &amp;""""</f>
-        <v> BUL_high_loyalty_decrease_tt: "§R[?BUL.BUL_faction_high_decrease]§! Fraktionsloyalität."</v>
+        <v> BUL_high_loyalty_decrease_tt: "§R§R [?BUL.BUL_faction_high_decrease] §!§!  Fraktionsloyalität."</v>
       </c>
       <c r="D537" s="1" t="str">
         <f aca="false">IF(ISBLANK(A537),"",C537)</f>
-        <v> BUL_high_loyalty_decrease_tt: "§R[?BUL.BUL_faction_high_decrease]§! Fraktionsloyalität."</v>
+        <v> BUL_high_loyalty_decrease_tt: "§R§R [?BUL.BUL_faction_high_decrease] §!§!  Fraktionsloyalität."</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14720,11 +14720,11 @@
       </c>
       <c r="C538" s="1" t="str">
         <f aca="false">A538 &amp;" " &amp;"""" &amp;B538 &amp;""""</f>
-        <v> BUL_high_popularity_decrease_tt: "§R[?BUL.BUL_faction_high_decrease]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_high_popularity_decrease_tt: "§R§R [?BUL.BUL_faction_high_decrease] §!§!  Fraktionsbeliebtheit."</v>
       </c>
       <c r="D538" s="1" t="str">
         <f aca="false">IF(ISBLANK(A538),"",C538)</f>
-        <v> BUL_high_popularity_decrease_tt: "§R[?BUL.BUL_faction_high_decrease]§! Fraktionsbeliebtheit."</v>
+        <v> BUL_high_popularity_decrease_tt: "§R§R [?BUL.BUL_faction_high_decrease] §!§!  Fraktionsbeliebtheit."</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16752,11 +16752,11 @@
       </c>
       <c r="C665" s="1" t="str">
         <f aca="false">A665 &amp;" " &amp;"""" &amp;B665 &amp;""""</f>
-        <v> BUL_cooperation_faction_joint_act_tt: "Fraktionsloyalität liegt über §Y20§!"</v>
+        <v> BUL_cooperation_faction_joint_act_tt: "Fraktionsloyalität liegt über §Y§Y 20 §!§! "</v>
       </c>
       <c r="D665" s="1" t="str">
         <f aca="false">IF(ISBLANK(A665),"",C665)</f>
-        <v> BUL_cooperation_faction_joint_act_tt: "Fraktionsloyalität liegt über §Y20§!"</v>
+        <v> BUL_cooperation_faction_joint_act_tt: "Fraktionsloyalität liegt über §Y§Y 20 §!§! "</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16768,11 +16768,11 @@
       </c>
       <c r="C666" s="1" t="str">
         <f aca="false">A666 &amp;" " &amp;"""" &amp;B666 &amp;""""</f>
-        <v> BUL_cooperation_bolster_zveno_tt: "Fraktionsloyalität liegt über §Y35§!"</v>
+        <v> BUL_cooperation_bolster_zveno_tt: "Fraktionsloyalität liegt über §Y§Y 35 §!§! "</v>
       </c>
       <c r="D666" s="1" t="str">
         <f aca="false">IF(ISBLANK(A666),"",C666)</f>
-        <v> BUL_cooperation_bolster_zveno_tt: "Fraktionsloyalität liegt über §Y35§!"</v>
+        <v> BUL_cooperation_bolster_zveno_tt: "Fraktionsloyalität liegt über §Y§Y 35 §!§! "</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16784,11 +16784,11 @@
       </c>
       <c r="C667" s="1" t="str">
         <f aca="false">A667 &amp;" " &amp;"""" &amp;B667 &amp;""""</f>
-        <v> BUL_cooperation_legalize_faction_tt: "Fraktionsloyalität liegt über §Y45§!"</v>
+        <v> BUL_cooperation_legalize_faction_tt: "Fraktionsloyalität liegt über §Y§Y 45 §!§! "</v>
       </c>
       <c r="D667" s="1" t="str">
         <f aca="false">IF(ISBLANK(A667),"",C667)</f>
-        <v> BUL_cooperation_legalize_faction_tt: "Fraktionsloyalität liegt über §Y45§!"</v>
+        <v> BUL_cooperation_legalize_faction_tt: "Fraktionsloyalität liegt über §Y§Y 45 §!§! "</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16800,11 +16800,11 @@
       </c>
       <c r="C668" s="1" t="str">
         <f aca="false">A668 &amp;" " &amp;"""" &amp;B668 &amp;""""</f>
-        <v> BUL_cooperation_fund_faction_tt: "Fraktionsloyalität liegt über §Y55§!"</v>
+        <v> BUL_cooperation_fund_faction_tt: "Fraktionsloyalität liegt über §Y§Y 55 §!§! "</v>
       </c>
       <c r="D668" s="1" t="str">
         <f aca="false">IF(ISBLANK(A668),"",C668)</f>
-        <v> BUL_cooperation_fund_faction_tt: "Fraktionsloyalität liegt über §Y55§!"</v>
+        <v> BUL_cooperation_fund_faction_tt: "Fraktionsloyalität liegt über §Y§Y 55 §!§! "</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16816,11 +16816,11 @@
       </c>
       <c r="C669" s="1" t="str">
         <f aca="false">A669 &amp;" " &amp;"""" &amp;B669 &amp;""""</f>
-        <v> BUL_cooperation_appoint_faction_members_tt: "Fraktionsloyalität liegt über §Y70§!\nFraktionsbeliebtheit liegt über §Y55§!"</v>
+        <v> BUL_cooperation_appoint_faction_members_tt: "Fraktionsloyalität liegt über §Y§Y 70 §!§! \nFraktionsbeliebtheit liegt über §Y§Y 55 §!§! "</v>
       </c>
       <c r="D669" s="1" t="str">
         <f aca="false">IF(ISBLANK(A669),"",C669)</f>
-        <v> BUL_cooperation_appoint_faction_members_tt: "Fraktionsloyalität liegt über §Y70§!\nFraktionsbeliebtheit liegt über §Y55§!"</v>
+        <v> BUL_cooperation_appoint_faction_members_tt: "Fraktionsloyalität liegt über §Y§Y 70 §!§! \nFraktionsbeliebtheit liegt über §Y§Y 55 §!§! "</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16832,11 +16832,11 @@
       </c>
       <c r="C670" s="1" t="str">
         <f aca="false">A670 &amp;" " &amp;"""" &amp;B670 &amp;""""</f>
-        <v> BUL_cooperation_integrate_faction_tt: "Fraktionsloyalität liegt bei §Y100§!\nFraktionsbeliebtheit liegt über §Y70§!"</v>
+        <v> BUL_cooperation_integrate_faction_tt: "Fraktionsloyalität liegt bei §Y§Y 100 §!§! \nFraktionsbeliebtheit liegt über §Y§Y 70 §!§! "</v>
       </c>
       <c r="D670" s="1" t="str">
         <f aca="false">IF(ISBLANK(A670),"",C670)</f>
-        <v> BUL_cooperation_integrate_faction_tt: "Fraktionsloyalität liegt bei §Y100§!\nFraktionsbeliebtheit liegt über §Y70§!"</v>
+        <v> BUL_cooperation_integrate_faction_tt: "Fraktionsloyalität liegt bei §Y§Y 100 §!§! \nFraktionsbeliebtheit liegt über §Y§Y 70 §!§! "</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16848,11 +16848,11 @@
       </c>
       <c r="C671" s="1" t="str">
         <f aca="false">A671 &amp;" " &amp;"""" &amp;B671 &amp;""""</f>
-        <v> BUL_opression_raid_faction_supporters_tt: "Fraktionsbeliebtheit liegt unter §Y30§!"</v>
+        <v> BUL_opression_raid_faction_supporters_tt: "Fraktionsbeliebtheit liegt unter §Y§Y 30 §!§! "</v>
       </c>
       <c r="D671" s="1" t="str">
         <f aca="false">IF(ISBLANK(A671),"",C671)</f>
-        <v> BUL_opression_raid_faction_supporters_tt: "Fraktionsbeliebtheit liegt unter §Y30§!"</v>
+        <v> BUL_opression_raid_faction_supporters_tt: "Fraktionsbeliebtheit liegt unter §Y§Y 30 §!§! "</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16864,11 +16864,11 @@
       </c>
       <c r="C672" s="1" t="str">
         <f aca="false">A672 &amp;" " &amp;"""" &amp;B672 &amp;""""</f>
-        <v> BUL_opression_destroy_faction_tt: "Fraktionsbeliebtheit liegt bei §Y0§!"</v>
+        <v> BUL_opression_destroy_faction_tt: "Fraktionsbeliebtheit liegt bei §Y§Y 0 §!§! "</v>
       </c>
       <c r="D672" s="1" t="str">
         <f aca="false">IF(ISBLANK(A672),"",C672)</f>
-        <v> BUL_opression_destroy_faction_tt: "Fraktionsbeliebtheit liegt bei §Y0§!"</v>
+        <v> BUL_opression_destroy_faction_tt: "Fraktionsbeliebtheit liegt bei §Y§Y 0 §!§! "</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16880,11 +16880,11 @@
       </c>
       <c r="C673" s="1" t="str">
         <f aca="false">A673 &amp;" " &amp;"""" &amp;B673 &amp;""""</f>
-        <v> BUL_appointed_zveno_members_flag: "Hat Minister von £faction_bul_zveno §YZveno§! ernannt"</v>
+        <v> BUL_appointed_zveno_members_flag: "Hat Minister von £faction_bul_zveno §Y§Y Zveno §!§!  ernannt"</v>
       </c>
       <c r="D673" s="1" t="str">
         <f aca="false">IF(ISBLANK(A673),"",C673)</f>
-        <v> BUL_appointed_zveno_members_flag: "Hat Minister von £faction_bul_zveno §YZveno§! ernannt"</v>
+        <v> BUL_appointed_zveno_members_flag: "Hat Minister von £faction_bul_zveno §Y§Y Zveno §!§!  ernannt"</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16896,11 +16896,11 @@
       </c>
       <c r="C674" s="1" t="str">
         <f aca="false">A674 &amp;" " &amp;"""" &amp;B674 &amp;""""</f>
-        <v> BUL_appointed_bs_members_flag: "Hat Minister von den £faction_bul_bs §YBreiten Sozialisten§! ernannt"</v>
+        <v> BUL_appointed_bs_members_flag: "Hat Minister von den £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  ernannt"</v>
       </c>
       <c r="D674" s="1" t="str">
         <f aca="false">IF(ISBLANK(A674),"",C674)</f>
-        <v> BUL_appointed_bs_members_flag: "Hat Minister von den £faction_bul_bs §YBreiten Sozialisten§! ernannt"</v>
+        <v> BUL_appointed_bs_members_flag: "Hat Minister von den £faction_bul_bs §Y§Y Breiten Sozialisten §!§!  ernannt"</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16912,11 +16912,11 @@
       </c>
       <c r="C675" s="1" t="str">
         <f aca="false">A675 &amp;" " &amp;"""" &amp;B675 &amp;""""</f>
-        <v> BUL_appointed_bzns_members_flag: "Hat Minister von der £faction_bul_bzns §YAgrarunion§! ernannt."</v>
+        <v> BUL_appointed_bzns_members_flag: "Hat Minister von der £faction_bul_bzns §Y§Y Agrarunion §!§!  ernannt."</v>
       </c>
       <c r="D675" s="1" t="str">
         <f aca="false">IF(ISBLANK(A675),"",C675)</f>
-        <v> BUL_appointed_bzns_members_flag: "Hat Minister von der £faction_bul_bzns §YAgrarunion§! ernannt."</v>
+        <v> BUL_appointed_bzns_members_flag: "Hat Minister von der £faction_bul_bzns §Y§Y Agrarunion §!§!  ernannt."</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16928,11 +16928,11 @@
       </c>
       <c r="C676" s="1" t="str">
         <f aca="false">A676 &amp;" " &amp;"""" &amp;B676 &amp;""""</f>
-        <v> BUL_appointed_nsm_members_flag: "Hat Minister von der £faction_bul_nsm §YNationalsozialistischen Bewegung§! ernannt"</v>
+        <v> BUL_appointed_nsm_members_flag: "Hat Minister von der £faction_bul_nsm §Y§Y Nationalsozialistischen Bewegung §!§!  ernannt"</v>
       </c>
       <c r="D676" s="1" t="str">
         <f aca="false">IF(ISBLANK(A676),"",C676)</f>
-        <v> BUL_appointed_nsm_members_flag: "Hat Minister von der £faction_bul_nsm §YNationalsozialistischen Bewegung§! ernannt"</v>
+        <v> BUL_appointed_nsm_members_flag: "Hat Minister von der £faction_bul_nsm §Y§Y Nationalsozialistischen Bewegung §!§!  ernannt"</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16944,11 +16944,11 @@
       </c>
       <c r="C677" s="1" t="str">
         <f aca="false">A677 &amp;" " &amp;"""" &amp;B677 &amp;""""</f>
-        <v> BUL_zveno_bolstered_flag: "Hat die Fraktion £faction_bul_zveno §YZveno§! gestärkt"</v>
+        <v> BUL_zveno_bolstered_flag: "Hat die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  gestärkt"</v>
       </c>
       <c r="D677" s="1" t="str">
         <f aca="false">IF(ISBLANK(A677),"",C677)</f>
-        <v> BUL_zveno_bolstered_flag: "Hat die Fraktion £faction_bul_zveno §YZveno§! gestärkt"</v>
+        <v> BUL_zveno_bolstered_flag: "Hat die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  gestärkt"</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16960,11 +16960,11 @@
       </c>
       <c r="C678" s="1" t="str">
         <f aca="false">A678 &amp;" " &amp;"""" &amp;B678 &amp;""""</f>
-        <v> BUL_zveno_destroyed_flag: "Die Fraktion £faction_bul_zveno §YZveno§! wurde zerstört"</v>
+        <v> BUL_zveno_destroyed_flag: "Die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  wurde zerstört"</v>
       </c>
       <c r="D678" s="1" t="str">
         <f aca="false">IF(ISBLANK(A678),"",C678)</f>
-        <v> BUL_zveno_destroyed_flag: "Die Fraktion £faction_bul_zveno §YZveno§! wurde zerstört"</v>
+        <v> BUL_zveno_destroyed_flag: "Die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  wurde zerstört"</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16976,11 +16976,11 @@
       </c>
       <c r="C679" s="1" t="str">
         <f aca="false">A679 &amp;" " &amp;"""" &amp;B679 &amp;""""</f>
-        <v> BUL_zveno_integrated_flag: "Die Fraktion £faction_bul_zveno §YZveno§! wurde in die Regierung integriert"</v>
+        <v> BUL_zveno_integrated_flag: "Die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  wurde in die Regierung integriert"</v>
       </c>
       <c r="D679" s="1" t="str">
         <f aca="false">IF(ISBLANK(A679),"",C679)</f>
-        <v> BUL_zveno_integrated_flag: "Die Fraktion £faction_bul_zveno §YZveno§! wurde in die Regierung integriert"</v>
+        <v> BUL_zveno_integrated_flag: "Die Fraktion £faction_bul_zveno §Y§Y Zveno §!§!  wurde in die Regierung integriert"</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16992,11 +16992,11 @@
       </c>
       <c r="C680" s="1" t="str">
         <f aca="false">A680 &amp;" " &amp;"""" &amp;B680 &amp;""""</f>
-        <v> BUL_bs_destroyed_flag: "Die Fraktion £faction_bul_bs §YBreite Sozialisten§! wurde zerstört"</v>
+        <v> BUL_bs_destroyed_flag: "Die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  wurde zerstört"</v>
       </c>
       <c r="D680" s="1" t="str">
         <f aca="false">IF(ISBLANK(A680),"",C680)</f>
-        <v> BUL_bs_destroyed_flag: "Die Fraktion £faction_bul_bs §YBreite Sozialisten§! wurde zerstört"</v>
+        <v> BUL_bs_destroyed_flag: "Die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  wurde zerstört"</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17008,11 +17008,11 @@
       </c>
       <c r="C681" s="1" t="str">
         <f aca="false">A681 &amp;" " &amp;"""" &amp;B681 &amp;""""</f>
-        <v> BUL_bs_integrated_flag: "Die Fraktion £faction_bul_bs §YBreite Sozialisten§! wurde in die Regierung integriert"</v>
+        <v> BUL_bs_integrated_flag: "Die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  wurde in die Regierung integriert"</v>
       </c>
       <c r="D681" s="1" t="str">
         <f aca="false">IF(ISBLANK(A681),"",C681)</f>
-        <v> BUL_bs_integrated_flag: "Die Fraktion £faction_bul_bs §YBreite Sozialisten§! wurde in die Regierung integriert"</v>
+        <v> BUL_bs_integrated_flag: "Die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  wurde in die Regierung integriert"</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17024,11 +17024,11 @@
       </c>
       <c r="C682" s="1" t="str">
         <f aca="false">A682 &amp;" " &amp;"""" &amp;B682 &amp;""""</f>
-        <v> BUL_bzns_destroyed_flag: "Die Fraktion £faction_bul_bzns §YAgrarunion§! wurde zerstört"</v>
+        <v> BUL_bzns_destroyed_flag: "Die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  wurde zerstört"</v>
       </c>
       <c r="D682" s="1" t="str">
         <f aca="false">IF(ISBLANK(A682),"",C682)</f>
-        <v> BUL_bzns_destroyed_flag: "Die Fraktion £faction_bul_bzns §YAgrarunion§! wurde zerstört"</v>
+        <v> BUL_bzns_destroyed_flag: "Die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  wurde zerstört"</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17040,11 +17040,11 @@
       </c>
       <c r="C683" s="1" t="str">
         <f aca="false">A683 &amp;" " &amp;"""" &amp;B683 &amp;""""</f>
-        <v> BUL_bzns_integrated_flag: "Die Fraktion £faction_bul_bzns §YAgrarunion§! wurde in die Regierung integriert"</v>
+        <v> BUL_bzns_integrated_flag: "Die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  wurde in die Regierung integriert"</v>
       </c>
       <c r="D683" s="1" t="str">
         <f aca="false">IF(ISBLANK(A683),"",C683)</f>
-        <v> BUL_bzns_integrated_flag: "Die Fraktion £faction_bul_bzns §YAgrarunion§! wurde in die Regierung integriert"</v>
+        <v> BUL_bzns_integrated_flag: "Die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  wurde in die Regierung integriert"</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17056,11 +17056,11 @@
       </c>
       <c r="C684" s="1" t="str">
         <f aca="false">A684 &amp;" " &amp;"""" &amp;B684 &amp;""""</f>
-        <v> BUL_nsm_destroyed_flag: "Die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! wurde zerstört"</v>
+        <v> BUL_nsm_destroyed_flag: "Die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wurde zerstört"</v>
       </c>
       <c r="D684" s="1" t="str">
         <f aca="false">IF(ISBLANK(A684),"",C684)</f>
-        <v> BUL_nsm_destroyed_flag: "Die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! wurde zerstört"</v>
+        <v> BUL_nsm_destroyed_flag: "Die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wurde zerstört"</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17072,11 +17072,11 @@
       </c>
       <c r="C685" s="1" t="str">
         <f aca="false">A685 &amp;" " &amp;"""" &amp;B685 &amp;""""</f>
-        <v> BUL_nsm_integrated_flag: "Die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! wurde in die Regierung integriert"</v>
+        <v> BUL_nsm_integrated_flag: "Die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wurde in die Regierung integriert"</v>
       </c>
       <c r="D685" s="1" t="str">
         <f aca="false">IF(ISBLANK(A685),"",C685)</f>
-        <v> BUL_nsm_integrated_flag: "Die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! wurde in die Regierung integriert"</v>
+        <v> BUL_nsm_integrated_flag: "Die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  wurde in die Regierung integriert"</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17088,11 +17088,11 @@
       </c>
       <c r="C686" s="1" t="str">
         <f aca="false">A686 &amp;" " &amp;"""" &amp;B686 &amp;""""</f>
-        <v> BUL_zveno_legalized_flag: " Hat das von £faction_bul_zveno §YZveno§! vorgeschlagene Direktorat für Gesellschaftliche Erneuerung gegründet."</v>
+        <v> BUL_zveno_legalized_flag: " Hat das von £faction_bul_zveno §Y§Y Zveno §!§!  vorgeschlagene Direktorat für Gesellschaftliche Erneuerung gegründet."</v>
       </c>
       <c r="D686" s="1" t="str">
         <f aca="false">IF(ISBLANK(A686),"",C686)</f>
-        <v> BUL_zveno_legalized_flag: " Hat das von £faction_bul_zveno §YZveno§! vorgeschlagene Direktorat für Gesellschaftliche Erneuerung gegründet."</v>
+        <v> BUL_zveno_legalized_flag: " Hat das von £faction_bul_zveno §Y§Y Zveno §!§!  vorgeschlagene Direktorat für Gesellschaftliche Erneuerung gegründet."</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17104,11 +17104,11 @@
       </c>
       <c r="C687" s="1" t="str">
         <f aca="false">A687 &amp;" " &amp;"""" &amp;B687 &amp;""""</f>
-        <v> BUL_bs_legalized_flag: " Hat die Fraktion £faction_bul_bs §YBreite Sozialisten§! legalisiert."</v>
+        <v> BUL_bs_legalized_flag: " Hat die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  legalisiert."</v>
       </c>
       <c r="D687" s="1" t="str">
         <f aca="false">IF(ISBLANK(A687),"",C687)</f>
-        <v> BUL_bs_legalized_flag: " Hat die Fraktion £faction_bul_bs §YBreite Sozialisten§! legalisiert."</v>
+        <v> BUL_bs_legalized_flag: " Hat die Fraktion £faction_bul_bs §Y§Y Breite Sozialisten §!§!  legalisiert."</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17120,11 +17120,11 @@
       </c>
       <c r="C688" s="1" t="str">
         <f aca="false">A688 &amp;" " &amp;"""" &amp;B688 &amp;""""</f>
-        <v> BUL_bzns_legalized_flag: " Hat die Fraktion £faction_bul_bzns §YAgrarunion§! legalisiert."</v>
+        <v> BUL_bzns_legalized_flag: " Hat die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  legalisiert."</v>
       </c>
       <c r="D688" s="1" t="str">
         <f aca="false">IF(ISBLANK(A688),"",C688)</f>
-        <v> BUL_bzns_legalized_flag: " Hat die Fraktion £faction_bul_bzns §YAgrarunion§! legalisiert."</v>
+        <v> BUL_bzns_legalized_flag: " Hat die Fraktion £faction_bul_bzns §Y§Y Agrarunion §!§!  legalisiert."</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17136,11 +17136,11 @@
       </c>
       <c r="C689" s="1" t="str">
         <f aca="false">A689 &amp;" " &amp;"""" &amp;B689 &amp;""""</f>
-        <v> BUL_nsm_legalized_flag: " Hat die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! legalisiert."</v>
+        <v> BUL_nsm_legalized_flag: " Hat die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  legalisiert."</v>
       </c>
       <c r="D689" s="1" t="str">
         <f aca="false">IF(ISBLANK(A689),"",C689)</f>
-        <v> BUL_nsm_legalized_flag: " Hat die Fraktion £faction_bul_nsm §YNationalsozialistische Bewegung§! legalisiert."</v>
+        <v> BUL_nsm_legalized_flag: " Hat die Fraktion £faction_bul_nsm §Y§Y Nationalsozialistische Bewegung §!§!  legalisiert."</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17168,11 +17168,11 @@
       </c>
       <c r="C691" s="1" t="str">
         <f aca="false">A691 &amp;" " &amp;"""" &amp;B691 &amp;""""</f>
-        <v> BUL_cooperation_faction_speech_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_low]§! Tagen.\n"</v>
+        <v> BUL_cooperation_faction_speech_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_low] §!§!  Tagen.\n"</v>
       </c>
       <c r="D691" s="1" t="str">
         <f aca="false">IF(ISBLANK(A691),"",C691)</f>
-        <v> BUL_cooperation_faction_speech_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_low]§! Tagen.\n"</v>
+        <v> BUL_cooperation_faction_speech_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_low] §!§!  Tagen.\n"</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17184,11 +17184,11 @@
       </c>
       <c r="C692" s="1" t="str">
         <f aca="false">A692 &amp;" " &amp;"""" &amp;B692 &amp;""""</f>
-        <v> BUL_cooperation_faction_joint_act_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_medium]§! Tagen.\n"</v>
+        <v> BUL_cooperation_faction_joint_act_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_medium] §!§!  Tagen.\n"</v>
       </c>
       <c r="D692" s="1" t="str">
         <f aca="false">IF(ISBLANK(A692),"",C692)</f>
-        <v> BUL_cooperation_faction_joint_act_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_medium]§! Tagen.\n"</v>
+        <v> BUL_cooperation_faction_joint_act_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_medium] §!§!  Tagen.\n"</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17200,11 +17200,11 @@
       </c>
       <c r="C693" s="1" t="str">
         <f aca="false">A693 &amp;" " &amp;"""" &amp;B693 &amp;""""</f>
-        <v> BUL_cooperation_fund_faction_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_high]§! Tagen.\n"</v>
+        <v> BUL_cooperation_fund_faction_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_high] §!§!  Tagen.\n"</v>
       </c>
       <c r="D693" s="1" t="str">
         <f aca="false">IF(ISBLANK(A693),"",C693)</f>
-        <v> BUL_cooperation_fund_faction_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_high]§! Tagen.\n"</v>
+        <v> BUL_cooperation_fund_faction_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_high] §!§!  Tagen.\n"</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17216,11 +17216,11 @@
       </c>
       <c r="C694" s="1" t="str">
         <f aca="false">A694 &amp;" " &amp;"""" &amp;B694 &amp;""""</f>
-        <v> BUL_oppression_ban_faction_media_tt: "Fraktionsbeliebtheit liegt unter §Y55§!"</v>
+        <v> BUL_oppression_ban_faction_media_tt: "Fraktionsbeliebtheit liegt unter §Y§Y 55 §!§! "</v>
       </c>
       <c r="D694" s="1" t="str">
         <f aca="false">IF(ISBLANK(A694),"",C694)</f>
-        <v> BUL_oppression_ban_faction_media_tt: "Fraktionsbeliebtheit liegt unter §Y55§!"</v>
+        <v> BUL_oppression_ban_faction_media_tt: "Fraktionsbeliebtheit liegt unter §Y§Y 55 §!§! "</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17232,11 +17232,11 @@
       </c>
       <c r="C695" s="1" t="str">
         <f aca="false">A695 &amp;" " &amp;"""" &amp;B695 &amp;""""</f>
-        <v> BUL_oppression_ban_faction_media_freedom_of_press_tt: "§Y365§! sind seit der Einführung der Pressefreiheit durch die Regierung vergangen"</v>
+        <v> BUL_oppression_ban_faction_media_freedom_of_press_tt: "§Y§Y 365 §!§!  sind seit der Einführung der Pressefreiheit durch die Regierung vergangen"</v>
       </c>
       <c r="D695" s="1" t="str">
         <f aca="false">IF(ISBLANK(A695),"",C695)</f>
-        <v> BUL_oppression_ban_faction_media_freedom_of_press_tt: "§Y365§! sind seit der Einführung der Pressefreiheit durch die Regierung vergangen"</v>
+        <v> BUL_oppression_ban_faction_media_freedom_of_press_tt: "§Y§Y 365 §!§!  sind seit der Einführung der Pressefreiheit durch die Regierung vergangen"</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17248,11 +17248,11 @@
       </c>
       <c r="C696" s="1" t="str">
         <f aca="false">A696 &amp;" " &amp;"""" &amp;B696 &amp;""""</f>
-        <v> BUL_has_banned_faction_media_trigger_tt: "Hat in den letzten §Y365§! Tagen die Medien einer Fraktion verboten"</v>
+        <v> BUL_has_banned_faction_media_trigger_tt: "Hat in den letzten §Y§Y 365 §!§!  Tagen die Medien einer Fraktion verboten"</v>
       </c>
       <c r="D696" s="1" t="str">
         <f aca="false">IF(ISBLANK(A696),"",C696)</f>
-        <v> BUL_has_banned_faction_media_trigger_tt: "Hat in den letzten §Y365§! Tagen die Medien einer Fraktion verboten"</v>
+        <v> BUL_has_banned_faction_media_trigger_tt: "Hat in den letzten §Y§Y 365 §!§!  Tagen die Medien einer Fraktion verboten"</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17264,11 +17264,11 @@
       </c>
       <c r="C697" s="1" t="str">
         <f aca="false">A697 &amp;" " &amp;"""" &amp;B697 &amp;""""</f>
-        <v> BUL_has_banned_faction_media_trigger_tt_NOT: "Nicht: Hat in den letzten §Y365§! Tagen die Medien einer Fraktion verboten"</v>
+        <v> BUL_has_banned_faction_media_trigger_tt_NOT: "Nicht: Hat in den letzten §Y§Y 365 §!§!  Tagen die Medien einer Fraktion verboten"</v>
       </c>
       <c r="D697" s="1" t="str">
         <f aca="false">IF(ISBLANK(A697),"",C697)</f>
-        <v> BUL_has_banned_faction_media_trigger_tt_NOT: "Nicht: Hat in den letzten §Y365§! Tagen die Medien einer Fraktion verboten"</v>
+        <v> BUL_has_banned_faction_media_trigger_tt_NOT: "Nicht: Hat in den letzten §Y§Y 365 §!§!  Tagen die Medien einer Fraktion verboten"</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17280,11 +17280,11 @@
       </c>
       <c r="C698" s="1" t="str">
         <f aca="false">A698 &amp;" " &amp;"""" &amp;B698 &amp;""""</f>
-        <v> BUL_oppression_imprison_faction_leaders_tt: "Fraktionsbeliebtheit liegt unter §Y40§!"</v>
+        <v> BUL_oppression_imprison_faction_leaders_tt: "Fraktionsbeliebtheit liegt unter §Y§Y 40 §!§! "</v>
       </c>
       <c r="D698" s="1" t="str">
         <f aca="false">IF(ISBLANK(A698),"",C698)</f>
-        <v> BUL_oppression_imprison_faction_leaders_tt: "Fraktionsbeliebtheit liegt unter §Y40§!"</v>
+        <v> BUL_oppression_imprison_faction_leaders_tt: "Fraktionsbeliebtheit liegt unter §Y§Y 40 §!§! "</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17296,11 +17296,11 @@
       </c>
       <c r="C699" s="1" t="str">
         <f aca="false">A699 &amp;" " &amp;"""" &amp;B699 &amp;""""</f>
-        <v> BUL_opression_discredit_faction_leaders_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_low]§! Tagen.\n"</v>
+        <v> BUL_opression_discredit_faction_leaders_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_low] §!§!  Tagen.\n"</v>
       </c>
       <c r="D699" s="1" t="str">
         <f aca="false">IF(ISBLANK(A699),"",C699)</f>
-        <v> BUL_opression_discredit_faction_leaders_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_low]§! Tagen.\n"</v>
+        <v> BUL_opression_discredit_faction_leaders_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_low] §!§!  Tagen.\n"</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17312,11 +17312,11 @@
       </c>
       <c r="C700" s="1" t="str">
         <f aca="false">A700 &amp;" " &amp;"""" &amp;B700 &amp;""""</f>
-        <v> BUL_opression_anti_faction_speech_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_medium]§! Tagen.\n"</v>
+        <v> BUL_opression_anti_faction_speech_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_medium] §!§!  Tagen.\n"</v>
       </c>
       <c r="D700" s="1" t="str">
         <f aca="false">IF(ISBLANK(A700),"",C700)</f>
-        <v> BUL_opression_anti_faction_speech_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_medium]§! Tagen.\n"</v>
+        <v> BUL_opression_anti_faction_speech_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_medium] §!§!  Tagen.\n"</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17328,11 +17328,11 @@
       </c>
       <c r="C701" s="1" t="str">
         <f aca="false">A701 &amp;" " &amp;"""" &amp;B701 &amp;""""</f>
-        <v> BUL_opression_raid_faction_supporters_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_very_high]§! Tagen.\n"</v>
+        <v> BUL_opression_raid_faction_supporters_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_very_high] §!§!  Tagen.\n"</v>
       </c>
       <c r="D701" s="1" t="str">
         <f aca="false">IF(ISBLANK(A701),"",C701)</f>
-        <v> BUL_opression_raid_faction_supporters_cd_tt: "[GetDecisionCooldownTooltip] §Y[?BUL.BUL_faction_days_reenable_very_high]§! Tagen.\n"</v>
+        <v> BUL_opression_raid_faction_supporters_cd_tt: "[GetDecisionCooldownTooltip] §Y§Y [?BUL.BUL_faction_days_reenable_very_high] §!§!  Tagen.\n"</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17344,11 +17344,11 @@
       </c>
       <c r="C702" s="1" t="str">
         <f aca="false">A702 &amp;" " &amp;"""" &amp;B702 &amp;""""</f>
-        <v> BUL_legalize_faction_prevents_oppression_tt: "\n§RWenn wir diese Entscheidung abschließen, können wir diese Fraktion in Zukunft nicht mehr unterdrücken (außer, um Radikale zu unterdrücken, die aktiv das Wohlergehen der Nation gefährden).§!"</v>
+        <v> BUL_legalize_faction_prevents_oppression_tt: "\n§R§R Wenn wir diese Entscheidung abschließen, können wir diese Fraktion in Zukunft nicht mehr unterdrücken (außer, um Radikale zu unterdrücken, die aktiv das Wohlergehen der Nation gefährden). §!§! "</v>
       </c>
       <c r="D702" s="1" t="str">
         <f aca="false">IF(ISBLANK(A702),"",C702)</f>
-        <v> BUL_legalize_faction_prevents_oppression_tt: "\n§RWenn wir diese Entscheidung abschließen, können wir diese Fraktion in Zukunft nicht mehr unterdrücken (außer, um Radikale zu unterdrücken, die aktiv das Wohlergehen der Nation gefährden).§!"</v>
+        <v> BUL_legalize_faction_prevents_oppression_tt: "\n§R§R Wenn wir diese Entscheidung abschließen, können wir diese Fraktion in Zukunft nicht mehr unterdrücken (außer, um Radikale zu unterdrücken, die aktiv das Wohlergehen der Nation gefährden). §!§! "</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17360,11 +17360,11 @@
       </c>
       <c r="C703" s="1" t="str">
         <f aca="false">A703 &amp;" " &amp;"""" &amp;B703 &amp;""""</f>
-        <v> BUL_ban_media_prevents_cooperation_tt: "\n§RWenn wir diese Entscheidung abschließen, können wir nicht länger mit dieser Fraktion kooperieren.§!"</v>
+        <v> BUL_ban_media_prevents_cooperation_tt: "\n§R§R Wenn wir diese Entscheidung abschließen, können wir nicht länger mit dieser Fraktion kooperieren. §!§! "</v>
       </c>
       <c r="D703" s="1" t="str">
         <f aca="false">IF(ISBLANK(A703),"",C703)</f>
-        <v> BUL_ban_media_prevents_cooperation_tt: "\n§RWenn wir diese Entscheidung abschließen, können wir nicht länger mit dieser Fraktion kooperieren.§!"</v>
+        <v> BUL_ban_media_prevents_cooperation_tt: "\n§R§R Wenn wir diese Entscheidung abschließen, können wir nicht länger mit dieser Fraktion kooperieren. §!§! "</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17408,11 +17408,11 @@
       </c>
       <c r="C706" s="1" t="str">
         <f aca="false">A706 &amp;" " &amp;"""" &amp;B706 &amp;""""</f>
-        <v> BUL_bzns_media_banned_flag: "Hat die Verbreitung von Medien der £faction_bul_bzns §YAgrarunion§! verboten."</v>
+        <v> BUL_bzns_media_banned_flag: "Hat die Verbreitung von Medien der £faction_bul_bzns §Y§Y Agrarunion §!§!  verboten."</v>
       </c>
       <c r="D706" s="1" t="str">
         <f aca="false">IF(ISBLANK(A706),"",C706)</f>
-        <v> BUL_bzns_media_banned_flag: "Hat die Verbreitung von Medien der £faction_bul_bzns §YAgrarunion§! verboten."</v>
+        <v> BUL_bzns_media_banned_flag: "Hat die Verbreitung von Medien der £faction_bul_bzns §Y§Y Agrarunion §!§!  verboten."</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17424,11 +17424,11 @@
       </c>
       <c r="C707" s="1" t="str">
         <f aca="false">A707 &amp;" " &amp;"""" &amp;B707 &amp;""""</f>
-        <v> BUL_nsm_media_banned_flag: "Hat die Verbreitung von Medien der £faction_bul_nsm §YNationalsozialistischen Bewegung§! verboten."</v>
+        <v> BUL_nsm_media_banned_flag: "Hat die Verbreitung von Medien der £faction_bul_nsm §Y§Y Nationalsozialistischen Bewegung §!§!  verboten."</v>
       </c>
       <c r="D707" s="1" t="str">
         <f aca="false">IF(ISBLANK(A707),"",C707)</f>
-        <v> BUL_nsm_media_banned_flag: "Hat die Verbreitung von Medien der £faction_bul_nsm §YNationalsozialistischen Bewegung§! verboten."</v>
+        <v> BUL_nsm_media_banned_flag: "Hat die Verbreitung von Medien der £faction_bul_nsm §Y§Y Nationalsozialistischen Bewegung §!§!  verboten."</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17904,11 +17904,11 @@
       </c>
       <c r="C737" s="1" t="str">
         <f aca="false">A737 &amp;" " &amp;"""" &amp;B737 &amp;""""</f>
-        <v> BUL_destroy_imro_divisions_macedonia_tt: "Hat weniger als §Y2 Infanterie§!-Divisionen in §YSofia§! entlang der Grenze zum Staat §YMazedonien§!"</v>
+        <v> BUL_destroy_imro_divisions_macedonia_tt: "Hat weniger als §Y§Y 2 Infanterie §!§! -Divisionen in §Y§Y Sofia §!§!  entlang der Grenze zum Staat §Y§Y Mazedonien §!§! "</v>
       </c>
       <c r="D737" s="1" t="str">
         <f aca="false">IF(ISBLANK(A737),"",C737)</f>
-        <v> BUL_destroy_imro_divisions_macedonia_tt: "Hat weniger als §Y2 Infanterie§!-Divisionen in §YSofia§! entlang der Grenze zum Staat §YMazedonien§!"</v>
+        <v> BUL_destroy_imro_divisions_macedonia_tt: "Hat weniger als §Y§Y 2 Infanterie §!§! -Divisionen in §Y§Y Sofia §!§!  entlang der Grenze zum Staat §Y§Y Mazedonien §!§! "</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17920,11 +17920,11 @@
       </c>
       <c r="C738" s="1" t="str">
         <f aca="false">A738 &amp;" " &amp;"""" &amp;B738 &amp;""""</f>
-        <v> BUL_destroy_imro_divisions_central_macedonia_tt: "Hat weniger als §Y4 Infanterie§!-Divisionen in §YPlowdiw§! entlang der Grenze zum Staat §YZentralmazedonien§!"</v>
+        <v> BUL_destroy_imro_divisions_central_macedonia_tt: "Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Plowdiw §!§!  entlang der Grenze zum Staat §Y§Y Zentralmazedonien §!§! "</v>
       </c>
       <c r="D738" s="1" t="str">
         <f aca="false">IF(ISBLANK(A738),"",C738)</f>
-        <v> BUL_destroy_imro_divisions_central_macedonia_tt: "Hat weniger als §Y4 Infanterie§!-Divisionen in §YPlowdiw§! entlang der Grenze zum Staat §YZentralmazedonien§!"</v>
+        <v> BUL_destroy_imro_divisions_central_macedonia_tt: "Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Plowdiw §!§!  entlang der Grenze zum Staat §Y§Y Zentralmazedonien §!§! "</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17936,11 +17936,11 @@
       </c>
       <c r="C739" s="1" t="str">
         <f aca="false">A739 &amp;" " &amp;"""" &amp;B739 &amp;""""</f>
-        <v> BUL_destroy_imro_divisions_thrace_tt: "Hat weniger als §Y4 Infanterie§!-Divisionen in §YPlowdiw§! entlang der Grenze zum Staat §YThrakien§!"</v>
+        <v> BUL_destroy_imro_divisions_thrace_tt: "Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Plowdiw §!§!  entlang der Grenze zum Staat §Y§Y Thrakien §!§! "</v>
       </c>
       <c r="D739" s="1" t="str">
         <f aca="false">IF(ISBLANK(A739),"",C739)</f>
-        <v> BUL_destroy_imro_divisions_thrace_tt: "Hat weniger als §Y4 Infanterie§!-Divisionen in §YPlowdiw§! entlang der Grenze zum Staat §YThrakien§!"</v>
+        <v> BUL_destroy_imro_divisions_thrace_tt: "Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Plowdiw §!§!  entlang der Grenze zum Staat §Y§Y Thrakien §!§! "</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18048,11 +18048,11 @@
       </c>
       <c r="C746" s="1" t="str">
         <f aca="false">A746 &amp;" " &amp;"""" &amp;B746 &amp;""""</f>
-        <v> BUL_support_imro_garrisons_tt: "Erhält §Y[?BUL_imro_garrisons_mp_value] Mannstärke§! für jeden mazedonischen Staat, der voll unter [ROOT.GetAdjective]er Kontrolle ist."</v>
+        <v> BUL_support_imro_garrisons_tt: "Erhält §Y§Y [?BUL_imro_garrisons_mp_value] Mannstärke §!§!  für jeden mazedonischen Staat, der voll unter [ROOT.GetAdjective]er Kontrolle ist."</v>
       </c>
       <c r="D746" s="1" t="str">
         <f aca="false">IF(ISBLANK(A746),"",C746)</f>
-        <v> BUL_support_imro_garrisons_tt: "Erhält §Y[?BUL_imro_garrisons_mp_value] Mannstärke§! für jeden mazedonischen Staat, der voll unter [ROOT.GetAdjective]er Kontrolle ist."</v>
+        <v> BUL_support_imro_garrisons_tt: "Erhält §Y§Y [?BUL_imro_garrisons_mp_value] Mannstärke §!§!  für jeden mazedonischen Staat, der voll unter [ROOT.GetAdjective]er Kontrolle ist."</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18080,11 +18080,11 @@
       </c>
       <c r="C748" s="1" t="str">
         <f aca="false">A748 &amp;" " &amp;"""" &amp;B748 &amp;""""</f>
-        <v> BUL_destroy_imro_divisions_macedonia_foreign_tt: "Hat weniger als §Y9 Infanterie§!-Divisionen in §YMazedonien§!."</v>
+        <v> BUL_destroy_imro_divisions_macedonia_foreign_tt: "Hat weniger als §Y§Y 9 Infanterie §!§! -Divisionen in §Y§Y Mazedonien §!§! ."</v>
       </c>
       <c r="D748" s="1" t="str">
         <f aca="false">IF(ISBLANK(A748),"",C748)</f>
-        <v> BUL_destroy_imro_divisions_macedonia_foreign_tt: "Hat weniger als §Y9 Infanterie§!-Divisionen in §YMazedonien§!."</v>
+        <v> BUL_destroy_imro_divisions_macedonia_foreign_tt: "Hat weniger als §Y§Y 9 Infanterie §!§! -Divisionen in §Y§Y Mazedonien §!§! ."</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18096,11 +18096,11 @@
       </c>
       <c r="C749" s="1" t="str">
         <f aca="false">A749 &amp;" " &amp;"""" &amp;B749 &amp;""""</f>
-        <v> BUL_destroy_imro_divisions_central_macedonia_foreign_tt: "Hat weniger als §Y4 Infanterie§!-Divisionen in §YZentralmazedonien§!."</v>
+        <v> BUL_destroy_imro_divisions_central_macedonia_foreign_tt: "Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Zentralmazedonien §!§! ."</v>
       </c>
       <c r="D749" s="1" t="str">
         <f aca="false">IF(ISBLANK(A749),"",C749)</f>
-        <v> BUL_destroy_imro_divisions_central_macedonia_foreign_tt: "Hat weniger als §Y4 Infanterie§!-Divisionen in §YZentralmazedonien§!."</v>
+        <v> BUL_destroy_imro_divisions_central_macedonia_foreign_tt: "Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen in §Y§Y Zentralmazedonien §!§! ."</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18112,11 +18112,11 @@
       </c>
       <c r="C750" s="1" t="str">
         <f aca="false">A750 &amp;" " &amp;"""" &amp;B750 &amp;""""</f>
-        <v> BUL_destroy_imro_divisions_thrace_foreign_tt: "Hat weniger als §Y3 Infanterie§!-Divisionen in §YThrakien§!."</v>
+        <v> BUL_destroy_imro_divisions_thrace_foreign_tt: "Hat weniger als §Y§Y 3 Infanterie §!§! -Divisionen in §Y§Y Thrakien §!§! ."</v>
       </c>
       <c r="D750" s="1" t="str">
         <f aca="false">IF(ISBLANK(A750),"",C750)</f>
-        <v> BUL_destroy_imro_divisions_thrace_foreign_tt: "Hat weniger als §Y3 Infanterie§!-Divisionen in §YThrakien§!."</v>
+        <v> BUL_destroy_imro_divisions_thrace_foreign_tt: "Hat weniger als §Y§Y 3 Infanterie §!§! -Divisionen in §Y§Y Thrakien §!§! ."</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18160,11 +18160,11 @@
       </c>
       <c r="C753" s="1" t="str">
         <f aca="false">A753 &amp;" " &amp;"""" &amp;B753 &amp;""""</f>
-        <v> BUL_destroy_imro_foreign_cancel_trigger_macedonia: "§Y[106.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y9 Infanterie§!-Divisionen §Y[106.GetName]§!\n"</v>
+        <v> BUL_destroy_imro_foreign_cancel_trigger_macedonia: "§Y§Y [106.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 9 Infanterie §!§! -Divisionen §Y§Y [106.GetName] §!§! \n"</v>
       </c>
       <c r="D753" s="1" t="str">
         <f aca="false">IF(ISBLANK(A753),"",C753)</f>
-        <v> BUL_destroy_imro_foreign_cancel_trigger_macedonia: "§Y[106.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y9 Infanterie§!-Divisionen §Y[106.GetName]§!\n"</v>
+        <v> BUL_destroy_imro_foreign_cancel_trigger_macedonia: "§Y§Y [106.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 9 Infanterie §!§! -Divisionen §Y§Y [106.GetName] §!§! \n"</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18176,11 +18176,11 @@
       </c>
       <c r="C754" s="1" t="str">
         <f aca="false">A754 &amp;" " &amp;"""" &amp;B754 &amp;""""</f>
-        <v> BUL_destroy_imro_foreign_cancel_trigger_central_macedonia: "§Y[731.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y4 Infanterie§!-Divisionen §Y[731.GetName]§!\n"</v>
+        <v> BUL_destroy_imro_foreign_cancel_trigger_central_macedonia: "§Y§Y [731.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen §Y§Y [731.GetName] §!§! \n"</v>
       </c>
       <c r="D754" s="1" t="str">
         <f aca="false">IF(ISBLANK(A754),"",C754)</f>
-        <v> BUL_destroy_imro_foreign_cancel_trigger_central_macedonia: "§Y[731.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y4 Infanterie§!-Divisionen §Y[731.GetName]§!\n"</v>
+        <v> BUL_destroy_imro_foreign_cancel_trigger_central_macedonia: "§Y§Y [731.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 4 Infanterie §!§! -Divisionen §Y§Y [731.GetName] §!§! \n"</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18192,11 +18192,11 @@
       </c>
       <c r="C755" s="1" t="str">
         <f aca="false">A755 &amp;" " &amp;"""" &amp;B755 &amp;""""</f>
-        <v> BUL_destroy_imro_foreign_cancel_trigger_thrace: "§Y[184.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y3 Infanterie§!-Divisionen §Y[184.GetName]§!\n"</v>
+        <v> BUL_destroy_imro_foreign_cancel_trigger_thrace: "§Y§Y [184.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 3 Infanterie §!§! -Divisionen §Y§Y [184.GetName] §!§! \n"</v>
       </c>
       <c r="D755" s="1" t="str">
         <f aca="false">IF(ISBLANK(A755),"",C755)</f>
-        <v> BUL_destroy_imro_foreign_cancel_trigger_thrace: "§Y[184.GetName]§!: \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y[ROOT.GetName]§! kontrolliert\n   Hat weniger als §Y3 Infanterie§!-Divisionen §Y[184.GetName]§!\n"</v>
+        <v> BUL_destroy_imro_foreign_cancel_trigger_thrace: "§Y§Y [184.GetName] §!§! : \n Eine der folgenden Bedingungen muss zutreffen: \n   Nicht vollständig von §Y§Y [ROOT.GetName] §!§!  kontrolliert\n   Hat weniger als §Y§Y 3 Infanterie §!§! -Divisionen §Y§Y [184.GetName] §!§! \n"</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18269,11 +18269,11 @@
       </c>
       <c r="C760" s="1" t="str">
         <f aca="false">A760 &amp;" " &amp;"""" &amp;B760 &amp;""""</f>
-        <v> BUL_the_fatherland_front_desc_planning: "Die Anführer der §YVaterlandsfront§! bereiten einen Putsch vor.\nIrgendwann werden sie Unterstützung suchen. [GetZvenoName], [GetBsName], [GetBznsName], die üblichen Verdächtigen.\nWir können verschiedene Maßnahmen ergreifen, um ihre Vorbereitungen zu behindern und ihren Versuch, die Regierung zu stürzen, zu schwächen:\n-Anführer und Sympathisanten der §YVaterlandsfront§! aufspüren und verhaften.\n-Die Gruppierungen, deren Unterstützung sie gewinnen wollen, zerstören oder integrieren.\n-Wenn die §YKommunistische Unterstützung§! bei unter 1 liegt, können wir der §YVaterlandsfront§! den Todesstoß versetzen."</v>
+        <v> BUL_the_fatherland_front_desc_planning: "Die Anführer der §Y§Y Vaterlandsfront §!§!  bereiten einen Putsch vor.\nIrgendwann werden sie Unterstützung suchen. [GetZvenoName], [GetBsName], [GetBznsName], die üblichen Verdächtigen.\nWir können verschiedene Maßnahmen ergreifen, um ihre Vorbereitungen zu behindern und ihren Versuch, die Regierung zu stürzen, zu schwächen:\n-Anführer und Sympathisanten der §Y§Y Vaterlandsfront §!§!  aufspüren und verhaften.\n-Die Gruppierungen, deren Unterstützung sie gewinnen wollen, zerstören oder integrieren.\n-Wenn die §Y§Y Kommunistische Unterstützung §!§!  bei unter 1 liegt, können wir der §Y§Y Vaterlandsfront §!§!  den Todesstoß versetzen."</v>
       </c>
       <c r="D760" s="1" t="str">
         <f aca="false">IF(ISBLANK(A760),"",C760)</f>
-        <v> BUL_the_fatherland_front_desc_planning: "Die Anführer der §YVaterlandsfront§! bereiten einen Putsch vor.\nIrgendwann werden sie Unterstützung suchen. [GetZvenoName], [GetBsName], [GetBznsName], die üblichen Verdächtigen.\nWir können verschiedene Maßnahmen ergreifen, um ihre Vorbereitungen zu behindern und ihren Versuch, die Regierung zu stürzen, zu schwächen:\n-Anführer und Sympathisanten der §YVaterlandsfront§! aufspüren und verhaften.\n-Die Gruppierungen, deren Unterstützung sie gewinnen wollen, zerstören oder integrieren.\n-Wenn die §YKommunistische Unterstützung§! bei unter 1 liegt, können wir der §YVaterlandsfront§! den Todesstoß versetzen."</v>
+        <v> BUL_the_fatherland_front_desc_planning: "Die Anführer der §Y§Y Vaterlandsfront §!§!  bereiten einen Putsch vor.\nIrgendwann werden sie Unterstützung suchen. [GetZvenoName], [GetBsName], [GetBznsName], die üblichen Verdächtigen.\nWir können verschiedene Maßnahmen ergreifen, um ihre Vorbereitungen zu behindern und ihren Versuch, die Regierung zu stürzen, zu schwächen:\n-Anführer und Sympathisanten der §Y§Y Vaterlandsfront §!§!  aufspüren und verhaften.\n-Die Gruppierungen, deren Unterstützung sie gewinnen wollen, zerstören oder integrieren.\n-Wenn die §Y§Y Kommunistische Unterstützung §!§!  bei unter 1 liegt, können wir der §Y§Y Vaterlandsfront §!§!  den Todesstoß versetzen."</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18285,11 +18285,11 @@
       </c>
       <c r="C761" s="1" t="str">
         <f aca="false">A761 &amp;" " &amp;"""" &amp;B761 &amp;""""</f>
-        <v> BUL_the_fatherland_front_desc_coup: "Die Anführer der Vaterlandsfront haben den Putsch geplant und warten jetzt auf den richtigen Augenblick.\nWahrscheinlichkeit, dass der Putsch stattfindet:\nBasis §Y10%§! [GetAtWarFfPercentage] [GetAllyAtWarFfPercentage] [GetSovNeighborFfPercentage] [GetCommunistSovFfPercentage]"</v>
+        <v> BUL_the_fatherland_front_desc_coup: "Die Anführer der Vaterlandsfront haben den Putsch geplant und warten jetzt auf den richtigen Augenblick.\nWahrscheinlichkeit, dass der Putsch stattfindet:\nBasis §Y§Y 10% §!§!  [GetAtWarFfPercentage] [GetAllyAtWarFfPercentage] [GetSovNeighborFfPercentage] [GetCommunistSovFfPercentage]"</v>
       </c>
       <c r="D761" s="1" t="str">
         <f aca="false">IF(ISBLANK(A761),"",C761)</f>
-        <v> BUL_the_fatherland_front_desc_coup: "Die Anführer der Vaterlandsfront haben den Putsch geplant und warten jetzt auf den richtigen Augenblick.\nWahrscheinlichkeit, dass der Putsch stattfindet:\nBasis §Y10%§! [GetAtWarFfPercentage] [GetAllyAtWarFfPercentage] [GetSovNeighborFfPercentage] [GetCommunistSovFfPercentage]"</v>
+        <v> BUL_the_fatherland_front_desc_coup: "Die Anführer der Vaterlandsfront haben den Putsch geplant und warten jetzt auf den richtigen Augenblick.\nWahrscheinlichkeit, dass der Putsch stattfindet:\nBasis §Y§Y 10% §!§!  [GetAtWarFfPercentage] [GetAllyAtWarFfPercentage] [GetSovNeighborFfPercentage] [GetCommunistSovFfPercentage]"</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18314,11 +18314,11 @@
       </c>
       <c r="C763" s="1" t="str">
         <f aca="false">A763 &amp;" " &amp;"""" &amp;B763 &amp;""""</f>
-        <v> BUL_ff_percentage_at_war: "\nIm Krieg: §Y15%§!"</v>
+        <v> BUL_ff_percentage_at_war: "\nIm Krieg: §Y§Y 15% §!§! "</v>
       </c>
       <c r="D763" s="1" t="str">
         <f aca="false">IF(ISBLANK(A763),"",C763)</f>
-        <v> BUL_ff_percentage_at_war: "\nIm Krieg: §Y15%§!"</v>
+        <v> BUL_ff_percentage_at_war: "\nIm Krieg: §Y§Y 15% §!§! "</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18330,11 +18330,11 @@
       </c>
       <c r="C764" s="1" t="str">
         <f aca="false">A764 &amp;" " &amp;"""" &amp;B764 &amp;""""</f>
-        <v> BUL_ff_percentage_at_war_with_sov: "\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y25%§!"</v>
+        <v> BUL_ff_percentage_at_war_with_sov: "\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y§Y 25% §!§! "</v>
       </c>
       <c r="D764" s="1" t="str">
         <f aca="false">IF(ISBLANK(A764),"",C764)</f>
-        <v> BUL_ff_percentage_at_war_with_sov: "\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y25%§!"</v>
+        <v> BUL_ff_percentage_at_war_with_sov: "\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y§Y 25% §!§! "</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18346,11 +18346,11 @@
       </c>
       <c r="C765" s="1" t="str">
         <f aca="false">A765 &amp;" " &amp;"""" &amp;B765 &amp;""""</f>
-        <v> BUL_ff_percentage_at_war_with_communist_sov: "\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y75%§!"</v>
+        <v> BUL_ff_percentage_at_war_with_communist_sov: "\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y§Y 75% §!§! "</v>
       </c>
       <c r="D765" s="1" t="str">
         <f aca="false">IF(ISBLANK(A765),"",C765)</f>
-        <v> BUL_ff_percentage_at_war_with_communist_sov: "\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y75%§!"</v>
+        <v> BUL_ff_percentage_at_war_with_communist_sov: "\nIm Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y§Y 75% §!§! "</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18375,11 +18375,11 @@
       </c>
       <c r="C767" s="1" t="str">
         <f aca="false">A767 &amp;" " &amp;"""" &amp;B767 &amp;""""</f>
-        <v> BUL_ff_percentage_ally_at_war_with_sov: "\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y25%§!"</v>
+        <v> BUL_ff_percentage_ally_at_war_with_sov: "\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y§Y 25% §!§! "</v>
       </c>
       <c r="D767" s="1" t="str">
         <f aca="false">IF(ISBLANK(A767),"",C767)</f>
-        <v> BUL_ff_percentage_ally_at_war_with_sov: "\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y25%§!"</v>
+        <v> BUL_ff_percentage_ally_at_war_with_sov: "\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef]: §Y§Y 25% §!§! "</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18391,11 +18391,11 @@
       </c>
       <c r="C768" s="1" t="str">
         <f aca="false">A768 &amp;" " &amp;"""" &amp;B768 &amp;""""</f>
-        <v> BUL_ff_percentage_ally_at_war_with_communist_sov: "\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y100%§!"</v>
+        <v> BUL_ff_percentage_ally_at_war_with_communist_sov: "\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y§Y 100% §!§! "</v>
       </c>
       <c r="D768" s="1" t="str">
         <f aca="false">IF(ISBLANK(A768),"",C768)</f>
-        <v> BUL_ff_percentage_ally_at_war_with_communist_sov: "\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y100%§!"</v>
+        <v> BUL_ff_percentage_ally_at_war_with_communist_sov: "\nVerbündeter im Krieg mit [SOV.GetFlag][SOV.GetNameDef] (kommunistisch): §Y§Y 100% §!§! "</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18420,11 +18420,11 @@
       </c>
       <c r="C770" s="1" t="str">
         <f aca="false">A770 &amp;" " &amp;"""" &amp;B770 &amp;""""</f>
-        <v> BUL_ff_percentage_sov_is_neighbor: "\n[SOV.GetFlag][SOV.GetNameDef] kontrolliert einen benachbarten Staat: §Y15%§!"</v>
+        <v> BUL_ff_percentage_sov_is_neighbor: "\n[SOV.GetFlag][SOV.GetNameDef] kontrolliert einen benachbarten Staat: §Y§Y 15% §!§! "</v>
       </c>
       <c r="D770" s="1" t="str">
         <f aca="false">IF(ISBLANK(A770),"",C770)</f>
-        <v> BUL_ff_percentage_sov_is_neighbor: "\n[SOV.GetFlag][SOV.GetNameDef] kontrolliert einen benachbarten Staat: §Y15%§!"</v>
+        <v> BUL_ff_percentage_sov_is_neighbor: "\n[SOV.GetFlag][SOV.GetNameDef] kontrolliert einen benachbarten Staat: §Y§Y 15% §!§! "</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18436,11 +18436,11 @@
       </c>
       <c r="C771" s="1" t="str">
         <f aca="false">A771 &amp;" " &amp;"""" &amp;B771 &amp;""""</f>
-        <v> BUL_ff_percentage_enemy_sov_is_neighbor: "\n[SOV.GetFlag][SOV.GetNameDef] (kommunistisch) kontrolliert einen benachbarten Staat: §Y100%§!"</v>
+        <v> BUL_ff_percentage_enemy_sov_is_neighbor: "\n[SOV.GetFlag][SOV.GetNameDef] (kommunistisch) kontrolliert einen benachbarten Staat: §Y§Y 100% §!§! "</v>
       </c>
       <c r="D771" s="1" t="str">
         <f aca="false">IF(ISBLANK(A771),"",C771)</f>
-        <v> BUL_ff_percentage_enemy_sov_is_neighbor: "\n[SOV.GetFlag][SOV.GetNameDef] (kommunistisch) kontrolliert einen benachbarten Staat: §Y100%§!"</v>
+        <v> BUL_ff_percentage_enemy_sov_is_neighbor: "\n[SOV.GetFlag][SOV.GetNameDef] (kommunistisch) kontrolliert einen benachbarten Staat: §Y§Y 100% §!§! "</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18465,11 +18465,11 @@
       </c>
       <c r="C773" s="1" t="str">
         <f aca="false">A773 &amp;" " &amp;"""" &amp;B773 &amp;""""</f>
-        <v> BUL_ff_percentage_sov_communist: "\n[SOV.GetFlag][SOV.GetNameDef] ist kommunistisch: §Y15%§!"</v>
+        <v> BUL_ff_percentage_sov_communist: "\n[SOV.GetFlag][SOV.GetNameDef] ist kommunistisch: §Y§Y 15% §!§! "</v>
       </c>
       <c r="D773" s="1" t="str">
         <f aca="false">IF(ISBLANK(A773),"",C773)</f>
-        <v> BUL_ff_percentage_sov_communist: "\n[SOV.GetFlag][SOV.GetNameDef] ist kommunistisch: §Y15%§!"</v>
+        <v> BUL_ff_percentage_sov_communist: "\n[SOV.GetFlag][SOV.GetNameDef] ist kommunistisch: §Y§Y 15% §!§! "</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18529,11 +18529,11 @@
       </c>
       <c r="C777" s="1" t="str">
         <f aca="false">A777 &amp;" " &amp;"""" &amp;B777 &amp;""""</f>
-        <v> BUL_ff_impending_coup_mission: "Putsch der §YVaterlandsfront§! steht unmittelbar bevor"</v>
+        <v> BUL_ff_impending_coup_mission: "Putsch der §Y§Y Vaterlandsfront §!§!  steht unmittelbar bevor"</v>
       </c>
       <c r="D777" s="1" t="str">
         <f aca="false">IF(ISBLANK(A777),"",C777)</f>
-        <v> BUL_ff_impending_coup_mission: "Putsch der §YVaterlandsfront§! steht unmittelbar bevor"</v>
+        <v> BUL_ff_impending_coup_mission: "Putsch der §Y§Y Vaterlandsfront §!§!  steht unmittelbar bevor"</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18545,11 +18545,11 @@
       </c>
       <c r="C778" s="1" t="str">
         <f aca="false">A778 &amp;" " &amp;"""" &amp;B778 &amp;""""</f>
-        <v> BUL_ff_impending_coup_mission_desc: "Die Anführer der §YVaterlandsfront§! treffen Vorbereitungen für einen Putsch."</v>
+        <v> BUL_ff_impending_coup_mission_desc: "Die Anführer der §Y§Y Vaterlandsfront §!§!  treffen Vorbereitungen für einen Putsch."</v>
       </c>
       <c r="D778" s="1" t="str">
         <f aca="false">IF(ISBLANK(A778),"",C778)</f>
-        <v> BUL_ff_impending_coup_mission_desc: "Die Anführer der §YVaterlandsfront§! treffen Vorbereitungen für einen Putsch."</v>
+        <v> BUL_ff_impending_coup_mission_desc: "Die Anführer der §Y§Y Vaterlandsfront §!§!  treffen Vorbereitungen für einen Putsch."</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18561,11 +18561,11 @@
       </c>
       <c r="C779" s="1" t="str">
         <f aca="false">A779 &amp;" " &amp;"""" &amp;B779 &amp;""""</f>
-        <v> BUL_ff_approaching_zveno_mission: "§YVaterlandsfront§! wendet sich an [GetZvenoName]"</v>
+        <v> BUL_ff_approaching_zveno_mission: "§Y§Y Vaterlandsfront §!§!  wendet sich an [GetZvenoName]"</v>
       </c>
       <c r="D779" s="1" t="str">
         <f aca="false">IF(ISBLANK(A779),"",C779)</f>
-        <v> BUL_ff_approaching_zveno_mission: "§YVaterlandsfront§! wendet sich an [GetZvenoName]"</v>
+        <v> BUL_ff_approaching_zveno_mission: "§Y§Y Vaterlandsfront §!§!  wendet sich an [GetZvenoName]"</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18577,11 +18577,11 @@
       </c>
       <c r="C780" s="1" t="str">
         <f aca="false">A780 &amp;" " &amp;"""" &amp;B780 &amp;""""</f>
-        <v> BUL_ff_approaching_zveno_mission_desc: "Die §YVaterlandsfront§! will [GetZvenoName] überzeugen, sich dem Putsch anzuschließen."</v>
+        <v> BUL_ff_approaching_zveno_mission_desc: "Die §Y§Y Vaterlandsfront §!§!  will [GetZvenoName] überzeugen, sich dem Putsch anzuschließen."</v>
       </c>
       <c r="D780" s="1" t="str">
         <f aca="false">IF(ISBLANK(A780),"",C780)</f>
-        <v> BUL_ff_approaching_zveno_mission_desc: "Die §YVaterlandsfront§! will [GetZvenoName] überzeugen, sich dem Putsch anzuschließen."</v>
+        <v> BUL_ff_approaching_zveno_mission_desc: "Die §Y§Y Vaterlandsfront §!§!  will [GetZvenoName] überzeugen, sich dem Putsch anzuschließen."</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18593,11 +18593,11 @@
       </c>
       <c r="C781" s="1" t="str">
         <f aca="false">A781 &amp;" " &amp;"""" &amp;B781 &amp;""""</f>
-        <v> BUL_ff_approaching_bs_mission: "§YVaterlandsfront§! wendet sich an [GetBsName]"</v>
+        <v> BUL_ff_approaching_bs_mission: "§Y§Y Vaterlandsfront §!§!  wendet sich an [GetBsName]"</v>
       </c>
       <c r="D781" s="1" t="str">
         <f aca="false">IF(ISBLANK(A781),"",C781)</f>
-        <v> BUL_ff_approaching_bs_mission: "§YVaterlandsfront§! wendet sich an [GetBsName]"</v>
+        <v> BUL_ff_approaching_bs_mission: "§Y§Y Vaterlandsfront §!§!  wendet sich an [GetBsName]"</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18609,11 +18609,11 @@
       </c>
       <c r="C782" s="1" t="str">
         <f aca="false">A782 &amp;" " &amp;"""" &amp;B782 &amp;""""</f>
-        <v> BUL_ff_approaching_bs_mission_desc: "Die §YVaterlandsfront§! will die Gruppe namens [GetBsName] überzeugen, sich dem Putsch anzuschließen."</v>
+        <v> BUL_ff_approaching_bs_mission_desc: "Die §Y§Y Vaterlandsfront §!§!  will die Gruppe namens [GetBsName] überzeugen, sich dem Putsch anzuschließen."</v>
       </c>
       <c r="D782" s="1" t="str">
         <f aca="false">IF(ISBLANK(A782),"",C782)</f>
-        <v> BUL_ff_approaching_bs_mission_desc: "Die §YVaterlandsfront§! will die Gruppe namens [GetBsName] überzeugen, sich dem Putsch anzuschließen."</v>
+        <v> BUL_ff_approaching_bs_mission_desc: "Die §Y§Y Vaterlandsfront §!§!  will die Gruppe namens [GetBsName] überzeugen, sich dem Putsch anzuschließen."</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18625,11 +18625,11 @@
       </c>
       <c r="C783" s="1" t="str">
         <f aca="false">A783 &amp;" " &amp;"""" &amp;B783 &amp;""""</f>
-        <v> BUL_ff_approaching_bzns_mission: "§YVaterlandsfront§! wendet sich an [GetBznsName]"</v>
+        <v> BUL_ff_approaching_bzns_mission: "§Y§Y Vaterlandsfront §!§!  wendet sich an [GetBznsName]"</v>
       </c>
       <c r="D783" s="1" t="str">
         <f aca="false">IF(ISBLANK(A783),"",C783)</f>
-        <v> BUL_ff_approaching_bzns_mission: "§YVaterlandsfront§! wendet sich an [GetBznsName]"</v>
+        <v> BUL_ff_approaching_bzns_mission: "§Y§Y Vaterlandsfront §!§!  wendet sich an [GetBznsName]"</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18641,11 +18641,11 @@
       </c>
       <c r="C784" s="1" t="str">
         <f aca="false">A784 &amp;" " &amp;"""" &amp;B784 &amp;""""</f>
-        <v> BUL_ff_approaching_bzns_mission_desc: "Die §YVaterlandsfront§! will die [GetBznsName] überzeugen, sich dem Putsch anzuschließen."</v>
+        <v> BUL_ff_approaching_bzns_mission_desc: "Die §Y§Y Vaterlandsfront §!§!  will die [GetBznsName] überzeugen, sich dem Putsch anzuschließen."</v>
       </c>
       <c r="D784" s="1" t="str">
         <f aca="false">IF(ISBLANK(A784),"",C784)</f>
-        <v> BUL_ff_approaching_bzns_mission_desc: "Die §YVaterlandsfront§! will die [GetBznsName] überzeugen, sich dem Putsch anzuschließen."</v>
+        <v> BUL_ff_approaching_bzns_mission_desc: "Die §Y§Y Vaterlandsfront §!§!  will die [GetBznsName] überzeugen, sich dem Putsch anzuschließen."</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18753,11 +18753,11 @@
       </c>
       <c r="C791" s="1" t="str">
         <f aca="false">A791 &amp;" " &amp;"""" &amp;B791 &amp;""""</f>
-        <v> BUL_ff_approaching_faction_timer_effects_tt: "Die Gruppe schließt sich der Vaterlandsfront an. Basierend auf der §YFraktionsbeliebtheit§! werden Tage von der Mission §YPutsch der Vaterlandsfront steht unmittelbar bevor§! abgezogen. Die §YFraktionsloyalität§! gegenüber der Regierung schwächt den Effekt etwas ab."</v>
+        <v> BUL_ff_approaching_faction_timer_effects_tt: "Die Gruppe schließt sich der Vaterlandsfront an. Basierend auf der §Y§Y Fraktionsbeliebtheit §!§!  werden Tage von der Mission §Y§Y Putsch der Vaterlandsfront steht unmittelbar bevor §!§!  abgezogen. Die §Y§Y Fraktionsloyalität §!§!  gegenüber der Regierung schwächt den Effekt etwas ab."</v>
       </c>
       <c r="D791" s="1" t="str">
         <f aca="false">IF(ISBLANK(A791),"",C791)</f>
-        <v> BUL_ff_approaching_faction_timer_effects_tt: "Die Gruppe schließt sich der Vaterlandsfront an. Basierend auf der §YFraktionsbeliebtheit§! werden Tage von der Mission §YPutsch der Vaterlandsfront steht unmittelbar bevor§! abgezogen. Die §YFraktionsloyalität§! gegenüber der Regierung schwächt den Effekt etwas ab."</v>
+        <v> BUL_ff_approaching_faction_timer_effects_tt: "Die Gruppe schließt sich der Vaterlandsfront an. Basierend auf der §Y§Y Fraktionsbeliebtheit §!§!  werden Tage von der Mission §Y§Y Putsch der Vaterlandsfront steht unmittelbar bevor §!§!  abgezogen. Die §Y§Y Fraktionsloyalität §!§!  gegenüber der Regierung schwächt den Effekt etwas ab."</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18785,11 +18785,11 @@
       </c>
       <c r="C793" s="1" t="str">
         <f aca="false">A793 &amp;" " &amp;"""" &amp;B793 &amp;""""</f>
-        <v> BUL_ff_preventive_action_taken_tt: "Verringert die Chance, dass die Vaterlandsfront einen Putsch unternimmt, um §G[?BUL.BUL_ff_preventive_actions_base_value]%§!.\nMaximaler Wert §Y[?BUL.BUL_ff_preventive_actions_cap_value]%§!."</v>
+        <v> BUL_ff_preventive_action_taken_tt: "Verringert die Chance, dass die Vaterlandsfront einen Putsch unternimmt, um §G§G [?BUL.BUL_ff_preventive_actions_base_value]% §!§! .\nMaximaler Wert §Y§Y [?BUL.BUL_ff_preventive_actions_cap_value]% §!§! ."</v>
       </c>
       <c r="D793" s="1" t="str">
         <f aca="false">IF(ISBLANK(A793),"",C793)</f>
-        <v> BUL_ff_preventive_action_taken_tt: "Verringert die Chance, dass die Vaterlandsfront einen Putsch unternimmt, um §G[?BUL.BUL_ff_preventive_actions_base_value]%§!.\nMaximaler Wert §Y[?BUL.BUL_ff_preventive_actions_cap_value]%§!."</v>
+        <v> BUL_ff_preventive_action_taken_tt: "Verringert die Chance, dass die Vaterlandsfront einen Putsch unternimmt, um §G§G [?BUL.BUL_ff_preventive_actions_base_value]% §!§! .\nMaximaler Wert §Y§Y [?BUL.BUL_ff_preventive_actions_cap_value]% §!§! ."</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18817,11 +18817,11 @@
       </c>
       <c r="C795" s="1" t="str">
         <f aca="false">A795 &amp;" " &amp;"""" &amp;B795 &amp;""""</f>
-        <v> BUL_ff_root_out_sympathizers_cooldown_tt: "[GetDecisionCooldownTooltip] §Y15 Tage§!.\n"</v>
+        <v> BUL_ff_root_out_sympathizers_cooldown_tt: "[GetDecisionCooldownTooltip] §Y§Y 15 Tage §!§! .\n"</v>
       </c>
       <c r="D795" s="1" t="str">
         <f aca="false">IF(ISBLANK(A795),"",C795)</f>
-        <v> BUL_ff_root_out_sympathizers_cooldown_tt: "[GetDecisionCooldownTooltip] §Y15 Tage§!.\n"</v>
+        <v> BUL_ff_root_out_sympathizers_cooldown_tt: "[GetDecisionCooldownTooltip] §Y§Y 15 Tage §!§! .\n"</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18833,11 +18833,11 @@
       </c>
       <c r="C796" s="1" t="str">
         <f aca="false">A796 &amp;" " &amp;"""" &amp;B796 &amp;""""</f>
-        <v> BUL_ff_massive_arrests_cooldown_tt: "[GetDecisionCooldownTooltip] §Y30 Tage§!.\n"</v>
+        <v> BUL_ff_massive_arrests_cooldown_tt: "[GetDecisionCooldownTooltip] §Y§Y 30 Tage §!§! .\n"</v>
       </c>
       <c r="D796" s="1" t="str">
         <f aca="false">IF(ISBLANK(A796),"",C796)</f>
-        <v> BUL_ff_massive_arrests_cooldown_tt: "[GetDecisionCooldownTooltip] §Y30 Tage§!.\n"</v>
+        <v> BUL_ff_massive_arrests_cooldown_tt: "[GetDecisionCooldownTooltip] §Y§Y 30 Tage §!§! .\n"</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18849,11 +18849,11 @@
       </c>
       <c r="C797" s="1" t="str">
         <f aca="false">A797 &amp;" " &amp;"""" &amp;B797 &amp;""""</f>
-        <v> BUL_ff_deal_the_final_blow_zveno_pop_tt: "[GetZvenoName] - Beliebtheit steht bei §Y0§!."</v>
+        <v> BUL_ff_deal_the_final_blow_zveno_pop_tt: "[GetZvenoName] - Beliebtheit steht bei §Y§Y 0 §!§! ."</v>
       </c>
       <c r="D797" s="1" t="str">
         <f aca="false">IF(ISBLANK(A797),"",C797)</f>
-        <v> BUL_ff_deal_the_final_blow_zveno_pop_tt: "[GetZvenoName] - Beliebtheit steht bei §Y0§!."</v>
+        <v> BUL_ff_deal_the_final_blow_zveno_pop_tt: "[GetZvenoName] - Beliebtheit steht bei §Y§Y 0 §!§! ."</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18865,11 +18865,11 @@
       </c>
       <c r="C798" s="1" t="str">
         <f aca="false">A798 &amp;" " &amp;"""" &amp;B798 &amp;""""</f>
-        <v> BUL_ff_deal_the_final_blow_bs_pop_tt: "[GetBsName] - Beliebtheit steht bei §Y0§!."</v>
+        <v> BUL_ff_deal_the_final_blow_bs_pop_tt: "[GetBsName] - Beliebtheit steht bei §Y§Y 0 §!§! ."</v>
       </c>
       <c r="D798" s="1" t="str">
         <f aca="false">IF(ISBLANK(A798),"",C798)</f>
-        <v> BUL_ff_deal_the_final_blow_bs_pop_tt: "[GetBsName] - Beliebtheit steht bei §Y0§!."</v>
+        <v> BUL_ff_deal_the_final_blow_bs_pop_tt: "[GetBsName] - Beliebtheit steht bei §Y§Y 0 §!§! ."</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18881,11 +18881,11 @@
       </c>
       <c r="C799" s="1" t="str">
         <f aca="false">A799 &amp;" " &amp;"""" &amp;B799 &amp;""""</f>
-        <v> BUL_ff_deal_the_final_blow_bzns_pop_tt: "[GetBznsName] - Beliebtheit steht bei §Y0§!."</v>
+        <v> BUL_ff_deal_the_final_blow_bzns_pop_tt: "[GetBznsName] - Beliebtheit steht bei §Y§Y 0 §!§! ."</v>
       </c>
       <c r="D799" s="1" t="str">
         <f aca="false">IF(ISBLANK(A799),"",C799)</f>
-        <v> BUL_ff_deal_the_final_blow_bzns_pop_tt: "[GetBznsName] - Beliebtheit steht bei §Y0§!."</v>
+        <v> BUL_ff_deal_the_final_blow_bzns_pop_tt: "[GetBznsName] - Beliebtheit steht bei §Y§Y 0 §!§! ."</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19121,11 +19121,11 @@
       </c>
       <c r="C814" s="1" t="str">
         <f aca="false">A814 &amp;" " &amp;"""" &amp;B814 &amp;""""</f>
-        <v> BUL_rearmament_main_factors_tt: "\nHauptfaktoren, die sich auf die [ENG.GetAdjective]e Entscheidung auswirken: \n§G- Scharfe öffentliche Kritik an IMRO  \n- Gute Beziehungen zu §Y[ENG.GetNameWithFlag]§! \n- Abschluss des Fokus§YVertrag der ewigen Freundschaft§! oder §YDer Vertrag von Thessaloniki§! \n- Tendenz Richtung Demokratie\n- Selbe Regierungsform wie §Y[ENG.GetNameWithFlag]§!§! \n§R- Schlechte Beziehungen zu §Y[ENG.GetNameWithFlag]§! \n- Unterstützung für IMRO \n- Ernennung von Bogdan Filow zum Berater oder Staatsoberhaupt§!"</v>
+        <v> BUL_rearmament_main_factors_tt: "\nHauptfaktoren, die sich auf die [ENG.GetAdjective]e Entscheidung auswirken: \n§G§G - Scharfe öffentliche Kritik an IMRO  \n- Gute Beziehungen zu §Y§Y [ENG.GetNameWithFlag] §!§!  \n- Abschluss des Fokus§Y§Y Vertrag der ewigen Freundschaft §!§!  oder §Y§Y Der Vertrag von Thessaloniki §!§!  \n- Tendenz Richtung Demokratie\n- Selbe Regierungsform wie §Y§Y [ENG.GetNameWithFlag] §!§!  §!§!  \n§R§R - Schlechte Beziehungen zu §Y§Y [ENG.GetNameWithFlag] §!§!  \n- Unterstützung für IMRO \n- Ernennung von Bogdan Filow zum Berater oder Staatsoberhaupt §!§! "</v>
       </c>
       <c r="D814" s="1" t="str">
         <f aca="false">IF(ISBLANK(A814),"",C814)</f>
-        <v> BUL_rearmament_main_factors_tt: "\nHauptfaktoren, die sich auf die [ENG.GetAdjective]e Entscheidung auswirken: \n§G- Scharfe öffentliche Kritik an IMRO  \n- Gute Beziehungen zu §Y[ENG.GetNameWithFlag]§! \n- Abschluss des Fokus§YVertrag der ewigen Freundschaft§! oder §YDer Vertrag von Thessaloniki§! \n- Tendenz Richtung Demokratie\n- Selbe Regierungsform wie §Y[ENG.GetNameWithFlag]§!§! \n§R- Schlechte Beziehungen zu §Y[ENG.GetNameWithFlag]§! \n- Unterstützung für IMRO \n- Ernennung von Bogdan Filow zum Berater oder Staatsoberhaupt§!"</v>
+        <v> BUL_rearmament_main_factors_tt: "\nHauptfaktoren, die sich auf die [ENG.GetAdjective]e Entscheidung auswirken: \n§G§G - Scharfe öffentliche Kritik an IMRO  \n- Gute Beziehungen zu §Y§Y [ENG.GetNameWithFlag] §!§!  \n- Abschluss des Fokus§Y§Y Vertrag der ewigen Freundschaft §!§!  oder §Y§Y Der Vertrag von Thessaloniki §!§!  \n- Tendenz Richtung Demokratie\n- Selbe Regierungsform wie §Y§Y [ENG.GetNameWithFlag] §!§!  §!§!  \n§R§R - Schlechte Beziehungen zu §Y§Y [ENG.GetNameWithFlag] §!§!  \n- Unterstützung für IMRO \n- Ernennung von Bogdan Filow zum Berater oder Staatsoberhaupt §!§! "</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19265,11 +19265,11 @@
       </c>
       <c r="C823" s="1" t="str">
         <f aca="false">A823 &amp;" " &amp;"""" &amp;B823 &amp;""""</f>
-        <v> BUL_purchase_artillery_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_artillery] Stück §YArtillerie§![GetAvailableArtilleryToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
+        <v> BUL_purchase_artillery_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_artillery] Stück §Y§Y Artillerie §!§! [GetAvailableArtilleryToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
       </c>
       <c r="D823" s="1" t="str">
         <f aca="false">IF(ISBLANK(A823),"",C823)</f>
-        <v> BUL_purchase_artillery_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_artillery] Stück §YArtillerie§![GetAvailableArtilleryToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
+        <v> BUL_purchase_artillery_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_artillery] Stück §Y§Y Artillerie §!§! [GetAvailableArtilleryToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19281,11 +19281,11 @@
       </c>
       <c r="C824" s="1" t="str">
         <f aca="false">A824 &amp;" " &amp;"""" &amp;B824 &amp;""""</f>
-        <v> BUL_purchase_artillery_anti_air_available: " oder §YFlak§!"</v>
+        <v> BUL_purchase_artillery_anti_air_available: " oder §Y§Y Flak §!§! "</v>
       </c>
       <c r="D824" s="1" t="str">
         <f aca="false">IF(ISBLANK(A824),"",C824)</f>
-        <v> BUL_purchase_artillery_anti_air_available: " oder §YFlak§!"</v>
+        <v> BUL_purchase_artillery_anti_air_available: " oder §Y§Y Flak §!§! "</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19297,11 +19297,11 @@
       </c>
       <c r="C825" s="1" t="str">
         <f aca="false">A825 &amp;" " &amp;"""" &amp;B825 &amp;""""</f>
-        <v> BUL_purchase_artillery_anti_tank_available: " oder §YPanzerabwehr§!"</v>
+        <v> BUL_purchase_artillery_anti_tank_available: " oder §Y§Y Panzerabwehr §!§! "</v>
       </c>
       <c r="D825" s="1" t="str">
         <f aca="false">IF(ISBLANK(A825),"",C825)</f>
-        <v> BUL_purchase_artillery_anti_tank_available: " oder §YPanzerabwehr§!"</v>
+        <v> BUL_purchase_artillery_anti_tank_available: " oder §Y§Y Panzerabwehr §!§! "</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19313,11 +19313,11 @@
       </c>
       <c r="C826" s="1" t="str">
         <f aca="false">A826 &amp;" " &amp;"""" &amp;B826 &amp;""""</f>
-        <v> BUL_purchase_artillery_everything_available: ", §YFlak§! oder §YPanzerabwehr§!"</v>
+        <v> BUL_purchase_artillery_everything_available: ", §Y§Y Flak §!§!  oder §Y§Y Panzerabwehr §!§! "</v>
       </c>
       <c r="D826" s="1" t="str">
         <f aca="false">IF(ISBLANK(A826),"",C826)</f>
-        <v> BUL_purchase_artillery_everything_available: ", §YFlak§! oder §YPanzerabwehr§!"</v>
+        <v> BUL_purchase_artillery_everything_available: ", §Y§Y Flak §!§!  oder §Y§Y Panzerabwehr §!§! "</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19342,11 +19342,11 @@
       </c>
       <c r="C828" s="1" t="str">
         <f aca="false">A828 &amp;" " &amp;"""" &amp;B828 &amp;""""</f>
-        <v> BUL_purchase_vehicles_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_motorized] §Ymotorisierte§![GetAvailableVehiclesToPurchase] Fahrzeuge kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
+        <v> BUL_purchase_vehicles_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_motorized] §Y§Y motorisierte §!§! [GetAvailableVehiclesToPurchase] Fahrzeuge kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
       </c>
       <c r="D828" s="1" t="str">
         <f aca="false">IF(ISBLANK(A828),"",C828)</f>
-        <v> BUL_purchase_vehicles_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_motorized] §Ymotorisierte§![GetAvailableVehiclesToPurchase] Fahrzeuge kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
+        <v> BUL_purchase_vehicles_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_motorized] §Y§Y motorisierte §!§! [GetAvailableVehiclesToPurchase] Fahrzeuge kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19358,11 +19358,11 @@
       </c>
       <c r="C829" s="1" t="str">
         <f aca="false">A829 &amp;" " &amp;"""" &amp;B829 &amp;""""</f>
-        <v> BUL_purchase_vehicles_mechanized_available: " oder [?BUL_quantity_purchased_mechanized] §Ymechanisierte§!"</v>
+        <v> BUL_purchase_vehicles_mechanized_available: " oder [?BUL_quantity_purchased_mechanized] §Y§Y mechanisierte §!§! "</v>
       </c>
       <c r="D829" s="1" t="str">
         <f aca="false">IF(ISBLANK(A829),"",C829)</f>
-        <v> BUL_purchase_vehicles_mechanized_available: " oder [?BUL_quantity_purchased_mechanized] §Ymechanisierte§!"</v>
+        <v> BUL_purchase_vehicles_mechanized_available: " oder [?BUL_quantity_purchased_mechanized] §Y§Y mechanisierte §!§! "</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19374,11 +19374,11 @@
       </c>
       <c r="C830" s="1" t="str">
         <f aca="false">A830 &amp;" " &amp;"""" &amp;B830 &amp;""""</f>
-        <v> BUL_purchase_vehicles_armored_car_available: " oder [?BUL_quantity_purchased_armored_car] §Ygepanzerte§!"</v>
+        <v> BUL_purchase_vehicles_armored_car_available: " oder [?BUL_quantity_purchased_armored_car] §Y§Y gepanzerte §!§! "</v>
       </c>
       <c r="D830" s="1" t="str">
         <f aca="false">IF(ISBLANK(A830),"",C830)</f>
-        <v> BUL_purchase_vehicles_armored_car_available: " oder [?BUL_quantity_purchased_armored_car] §Ygepanzerte§!"</v>
+        <v> BUL_purchase_vehicles_armored_car_available: " oder [?BUL_quantity_purchased_armored_car] §Y§Y gepanzerte §!§! "</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19390,11 +19390,11 @@
       </c>
       <c r="C831" s="1" t="str">
         <f aca="false">A831 &amp;" " &amp;"""" &amp;B831 &amp;""""</f>
-        <v> BUL_purchase_vehicles_everything_available: ", [?BUL_quantity_purchased_mechanized] §Ymechanisierte§! oder [?BUL_quantity_purchased_armored_car] §Ygepanzerte§!"</v>
+        <v> BUL_purchase_vehicles_everything_available: ", [?BUL_quantity_purchased_mechanized] §Y§Y mechanisierte §!§!  oder [?BUL_quantity_purchased_armored_car] §Y§Y gepanzerte §!§! "</v>
       </c>
       <c r="D831" s="1" t="str">
         <f aca="false">IF(ISBLANK(A831),"",C831)</f>
-        <v> BUL_purchase_vehicles_everything_available: ", [?BUL_quantity_purchased_mechanized] §Ymechanisierte§! oder [?BUL_quantity_purchased_armored_car] §Ygepanzerte§!"</v>
+        <v> BUL_purchase_vehicles_everything_available: ", [?BUL_quantity_purchased_mechanized] §Y§Y mechanisierte §!§!  oder [?BUL_quantity_purchased_armored_car] §Y§Y gepanzerte §!§! "</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19419,11 +19419,11 @@
       </c>
       <c r="C833" s="1" t="str">
         <f aca="false">A833 &amp;" " &amp;"""" &amp;B833 &amp;""""</f>
-        <v> BUL_purchase_armor_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_light_armor] §Yleichte Panzer§![GetAvailableArmorToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
+        <v> BUL_purchase_armor_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_light_armor] §Y§Y leichte Panzer §!§! [GetAvailableArmorToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
       </c>
       <c r="D833" s="1" t="str">
         <f aca="false">IF(ISBLANK(A833),"",C833)</f>
-        <v> BUL_purchase_armor_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_light_armor] §Yleichte Panzer§![GetAvailableArmorToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
+        <v> BUL_purchase_armor_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_light_armor] §Y§Y leichte Panzer §!§! [GetAvailableArmorToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19435,11 +19435,11 @@
       </c>
       <c r="C834" s="1" t="str">
         <f aca="false">A834 &amp;" " &amp;"""" &amp;B834 &amp;""""</f>
-        <v> BUL_purchase_armor_medium_available: " oder [?BUL_quantity_purchased_medium_armor] §Ymittlere Panzer§!"</v>
+        <v> BUL_purchase_armor_medium_available: " oder [?BUL_quantity_purchased_medium_armor] §Y§Y mittlere Panzer §!§! "</v>
       </c>
       <c r="D834" s="1" t="str">
         <f aca="false">IF(ISBLANK(A834),"",C834)</f>
-        <v> BUL_purchase_armor_medium_available: " oder [?BUL_quantity_purchased_medium_armor] §Ymittlere Panzer§!"</v>
+        <v> BUL_purchase_armor_medium_available: " oder [?BUL_quantity_purchased_medium_armor] §Y§Y mittlere Panzer §!§! "</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19451,11 +19451,11 @@
       </c>
       <c r="C835" s="1" t="str">
         <f aca="false">A835 &amp;" " &amp;"""" &amp;B835 &amp;""""</f>
-        <v> BUL_purchase_armor_heavy_available: " oder [?BUL_quantity_purchased_heavy_armor] §Yschwere Panzer§!"</v>
+        <v> BUL_purchase_armor_heavy_available: " oder [?BUL_quantity_purchased_heavy_armor] §Y§Y schwere Panzer §!§! "</v>
       </c>
       <c r="D835" s="1" t="str">
         <f aca="false">IF(ISBLANK(A835),"",C835)</f>
-        <v> BUL_purchase_armor_heavy_available: " oder [?BUL_quantity_purchased_heavy_armor] §Yschwere Panzer§!"</v>
+        <v> BUL_purchase_armor_heavy_available: " oder [?BUL_quantity_purchased_heavy_armor] §Y§Y schwere Panzer §!§! "</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19467,11 +19467,11 @@
       </c>
       <c r="C836" s="1" t="str">
         <f aca="false">A836 &amp;" " &amp;"""" &amp;B836 &amp;""""</f>
-        <v> BUL_purchase_armor_everything_available: ", [?BUL_quantity_purchased_medium_armor] §Ymittlere Panzer§! oder [?BUL_quantity_purchased_heavy_armor] §Yschwere Panzer§!"</v>
+        <v> BUL_purchase_armor_everything_available: ", [?BUL_quantity_purchased_medium_armor] §Y§Y mittlere Panzer §!§!  oder [?BUL_quantity_purchased_heavy_armor] §Y§Y schwere Panzer §!§! "</v>
       </c>
       <c r="D836" s="1" t="str">
         <f aca="false">IF(ISBLANK(A836),"",C836)</f>
-        <v> BUL_purchase_armor_everything_available: ", [?BUL_quantity_purchased_medium_armor] §Ymittlere Panzer§! oder [?BUL_quantity_purchased_heavy_armor] §Yschwere Panzer§!"</v>
+        <v> BUL_purchase_armor_everything_available: ", [?BUL_quantity_purchased_medium_armor] §Y§Y mittlere Panzer §!§!  oder [?BUL_quantity_purchased_heavy_armor] §Y§Y schwere Panzer §!§! "</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19496,11 +19496,11 @@
       </c>
       <c r="C838" s="1" t="str">
         <f aca="false">A838 &amp;" " &amp;"""" &amp;B838 &amp;""""</f>
-        <v> BUL_purchase_aircraft_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_fighter] §YJagdflugzeuge§![GetAvailableAircraftToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
+        <v> BUL_purchase_aircraft_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_fighter] §Y§Y Jagdflugzeuge §!§! [GetAvailableAircraftToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
       </c>
       <c r="D838" s="1" t="str">
         <f aca="false">IF(ISBLANK(A838),"",C838)</f>
-        <v> BUL_purchase_aircraft_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_fighter] §YJagdflugzeuge§![GetAvailableAircraftToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
+        <v> BUL_purchase_aircraft_tt: "\nWir wählen, ob wir [?BUL_quantity_purchased_fighter] §Y§Y Jagdflugzeuge §!§! [GetAvailableAircraftToPurchase] kaufen, basierend auf [FROM.GetAdjective]en Forschungen.\n"</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19512,11 +19512,11 @@
       </c>
       <c r="C839" s="1" t="str">
         <f aca="false">A839 &amp;" " &amp;"""" &amp;B839 &amp;""""</f>
-        <v> BUL_purchase_aircraft_naval_bomber_available: " oder [?BUL_quantity_purchased_naval_bomber] §YMarinebomber§!"</v>
+        <v> BUL_purchase_aircraft_naval_bomber_available: " oder [?BUL_quantity_purchased_naval_bomber] §Y§Y Marinebomber §!§! "</v>
       </c>
       <c r="D839" s="1" t="str">
         <f aca="false">IF(ISBLANK(A839),"",C839)</f>
-        <v> BUL_purchase_aircraft_naval_bomber_available: " oder [?BUL_quantity_purchased_naval_bomber] §YMarinebomber§!"</v>
+        <v> BUL_purchase_aircraft_naval_bomber_available: " oder [?BUL_quantity_purchased_naval_bomber] §Y§Y Marinebomber §!§! "</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19528,11 +19528,11 @@
       </c>
       <c r="C840" s="1" t="str">
         <f aca="false">A840 &amp;" " &amp;"""" &amp;B840 &amp;""""</f>
-        <v> BUL_purchase_aircraft_tactical_bomber_available: " oder [?BUL_quantity_purchased_tactical_bomber] §Ytaktische Bomber§!"</v>
+        <v> BUL_purchase_aircraft_tactical_bomber_available: " oder [?BUL_quantity_purchased_tactical_bomber] §Y§Y taktische Bomber §!§! "</v>
       </c>
       <c r="D840" s="1" t="str">
         <f aca="false">IF(ISBLANK(A840),"",C840)</f>
-        <v> BUL_purchase_aircraft_tactical_bomber_available: " oder [?BUL_quantity_purchased_tactical_bomber] §Ytaktische Bomber§!"</v>
+        <v> BUL_purchase_aircraft_tactical_bomber_available: " oder [?BUL_quantity_purchased_tactical_bomber] §Y§Y taktische Bomber §!§! "</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19544,11 +19544,11 @@
       </c>
       <c r="C841" s="1" t="str">
         <f aca="false">A841 &amp;" " &amp;"""" &amp;B841 &amp;""""</f>
-        <v> BUL_purchase_aircraft_everything_available: ", [?BUL_quantity_purchased_naval_bomber] §YMarinebomber§! oder [?BUL_quantity_purchased_tactical_bomber] §Ytaktische Bomber§!"</v>
+        <v> BUL_purchase_aircraft_everything_available: ", [?BUL_quantity_purchased_naval_bomber] §Y§Y Marinebomber §!§!  oder [?BUL_quantity_purchased_tactical_bomber] §Y§Y taktische Bomber §!§! "</v>
       </c>
       <c r="D841" s="1" t="str">
         <f aca="false">IF(ISBLANK(A841),"",C841)</f>
-        <v> BUL_purchase_aircraft_everything_available: ", [?BUL_quantity_purchased_naval_bomber] §YMarinebomber§! oder [?BUL_quantity_purchased_tactical_bomber] §Ytaktische Bomber§!"</v>
+        <v> BUL_purchase_aircraft_everything_available: ", [?BUL_quantity_purchased_naval_bomber] §Y§Y Marinebomber §!§!  oder [?BUL_quantity_purchased_tactical_bomber] §Y§Y taktische Bomber §!§! "</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19685,11 +19685,11 @@
       </c>
       <c r="C850" s="1" t="str">
         <f aca="false">A850 &amp;" " &amp;"""" &amp;B850 &amp;""""</f>
-        <v> BUL_purchase_ships_submarines_tt: "Wir erhalten §Y3 U-Boote§!."</v>
+        <v> BUL_purchase_ships_submarines_tt: "Wir erhalten §Y§Y 3 U-Boote §!§! ."</v>
       </c>
       <c r="D850" s="1" t="str">
         <f aca="false">IF(ISBLANK(A850),"",C850)</f>
-        <v> BUL_purchase_ships_submarines_tt: "Wir erhalten §Y3 U-Boote§!."</v>
+        <v> BUL_purchase_ships_submarines_tt: "Wir erhalten §Y§Y 3 U-Boote §!§! ."</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19701,11 +19701,11 @@
       </c>
       <c r="C851" s="1" t="str">
         <f aca="false">A851 &amp;" " &amp;"""" &amp;B851 &amp;""""</f>
-        <v> BUL_purchase_ships_destroyers_tt: "Wir erhalten §Y3 Zerstörer§!."</v>
+        <v> BUL_purchase_ships_destroyers_tt: "Wir erhalten §Y§Y 3 Zerstörer §!§! ."</v>
       </c>
       <c r="D851" s="1" t="str">
         <f aca="false">IF(ISBLANK(A851),"",C851)</f>
-        <v> BUL_purchase_ships_destroyers_tt: "Wir erhalten §Y3 Zerstörer§!."</v>
+        <v> BUL_purchase_ships_destroyers_tt: "Wir erhalten §Y§Y 3 Zerstörer §!§! ."</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19717,11 +19717,11 @@
       </c>
       <c r="C852" s="1" t="str">
         <f aca="false">A852 &amp;" " &amp;"""" &amp;B852 &amp;""""</f>
-        <v> BUL_purchase_ships_light_cruiser_tt: "Wir erhalten einen §Yleichten Kreuzer§!."</v>
+        <v> BUL_purchase_ships_light_cruiser_tt: "Wir erhalten einen §Y§Y leichten Kreuzer §!§! ."</v>
       </c>
       <c r="D852" s="1" t="str">
         <f aca="false">IF(ISBLANK(A852),"",C852)</f>
-        <v> BUL_purchase_ships_light_cruiser_tt: "Wir erhalten einen §Yleichten Kreuzer§!."</v>
+        <v> BUL_purchase_ships_light_cruiser_tt: "Wir erhalten einen §Y§Y leichten Kreuzer §!§! ."</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19733,11 +19733,11 @@
       </c>
       <c r="C853" s="1" t="str">
         <f aca="false">A853 &amp;" " &amp;"""" &amp;B853 &amp;""""</f>
-        <v> BUL_purchase_ships_undetermined_tt: "Wenn unser Vorschlag angenommen wird, wählen wir, ob wir §Y3 U-Boote§!, §Y2 Zerstörer§! oder einen §Yleichten Kreuzer§! kaufen."</v>
+        <v> BUL_purchase_ships_undetermined_tt: "Wenn unser Vorschlag angenommen wird, wählen wir, ob wir §Y§Y 3 U-Boote §!§! , §Y§Y 2 Zerstörer §!§!  oder einen §Y§Y leichten Kreuzer §!§!  kaufen."</v>
       </c>
       <c r="D853" s="1" t="str">
         <f aca="false">IF(ISBLANK(A853),"",C853)</f>
-        <v> BUL_purchase_ships_undetermined_tt: "Wenn unser Vorschlag angenommen wird, wählen wir, ob wir §Y3 U-Boote§!, §Y2 Zerstörer§! oder einen §Yleichten Kreuzer§! kaufen."</v>
+        <v> BUL_purchase_ships_undetermined_tt: "Wenn unser Vorschlag angenommen wird, wählen wir, ob wir §Y§Y 3 U-Boote §!§! , §Y§Y 2 Zerstörer §!§!  oder einen §Y§Y leichten Kreuzer §!§!  kaufen."</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19797,11 +19797,11 @@
       </c>
       <c r="C857" s="1" t="str">
         <f aca="false">A857 &amp;" " &amp;"""" &amp;B857 &amp;""""</f>
-        <v> BUL_german_industrial_agreements_category_desc: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie §YAn Deutschland herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[GER.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_german_industrial_agreements_category_desc: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie §Y§Y An Deutschland herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [GER.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D857" s="1" t="str">
         <f aca="false">IF(ISBLANK(A857),"",C857)</f>
-        <v> BUL_german_industrial_agreements_category_desc: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie §YAn Deutschland herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[GER.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_german_industrial_agreements_category_desc: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie §Y§Y An Deutschland herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [GER.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19813,11 +19813,11 @@
       </c>
       <c r="C858" s="1" t="str">
         <f aca="false">A858 &amp;" " &amp;"""" &amp;B858 &amp;""""</f>
-        <v> BUL_german_industrial_agreements_cap_basic_tt: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YAn Deutschland herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
+        <v> BUL_german_industrial_agreements_cap_basic_tt: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y An Deutschland herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D858" s="1" t="str">
         <f aca="false">IF(ISBLANK(A858),"",C858)</f>
-        <v> BUL_german_industrial_agreements_cap_basic_tt: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YAn Deutschland herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
+        <v> BUL_german_industrial_agreements_cap_basic_tt: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y An Deutschland herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19829,11 +19829,11 @@
       </c>
       <c r="C859" s="1" t="str">
         <f aca="false">A859 &amp;" " &amp;"""" &amp;B859 &amp;""""</f>
-        <v> BUL_german_industrial_agreements_cap_approach_tt: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §YAn Deutschland herantreten§! abgeschlossen).\nTreten Sie §Y[GER.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_german_industrial_agreements_cap_approach_tt: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §Y§Y An Deutschland herantreten §!§!  abgeschlossen).\nTreten Sie §Y§Y [GER.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D859" s="1" t="str">
         <f aca="false">IF(ISBLANK(A859),"",C859)</f>
-        <v> BUL_german_industrial_agreements_cap_approach_tt: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §YAn Deutschland herantreten§! abgeschlossen).\nTreten Sie §Y[GER.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_german_industrial_agreements_cap_approach_tt: "Aktuelle [GER.GetAdjective]e Fabriken: [?BUL.BUL_german_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §Y§Y An Deutschland herantreten §!§!  abgeschlossen).\nTreten Sie §Y§Y [GER.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19877,11 +19877,11 @@
       </c>
       <c r="C862" s="1" t="str">
         <f aca="false">A862 &amp;" " &amp;"""" &amp;B862 &amp;""""</f>
-        <v> BUL_british_industrial_agreements_category_desc: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §YAn Großbritannien herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[ENG.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_british_industrial_agreements_category_desc: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [ENG.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D862" s="1" t="str">
         <f aca="false">IF(ISBLANK(A862),"",C862)</f>
-        <v> BUL_british_industrial_agreements_category_desc: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §YAn Großbritannien herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[ENG.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_british_industrial_agreements_category_desc: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [ENG.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19893,11 +19893,11 @@
       </c>
       <c r="C863" s="1" t="str">
         <f aca="false">A863 &amp;" " &amp;"""" &amp;B863 &amp;""""</f>
-        <v> BUL_british_industrial_agreements_cap_basic_tt: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YAn Großbritannien herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
+        <v> BUL_british_industrial_agreements_cap_basic_tt: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D863" s="1" t="str">
         <f aca="false">IF(ISBLANK(A863),"",C863)</f>
-        <v> BUL_british_industrial_agreements_cap_basic_tt: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YAn Großbritannien herantreten§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
+        <v> BUL_british_industrial_agreements_cap_basic_tt: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19909,11 +19909,11 @@
       </c>
       <c r="C864" s="1" t="str">
         <f aca="false">A864 &amp;" " &amp;"""" &amp;B864 &amp;""""</f>
-        <v> BUL_british_industrial_agreements_cap_approach_tt: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §YAn Großbritannien herantreten§! abgeschlossen).\nTreten Sie §Y[ENG.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_british_industrial_agreements_cap_approach_tt: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  abgeschlossen).\nTreten Sie §Y§Y [ENG.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D864" s="1" t="str">
         <f aca="false">IF(ISBLANK(A864),"",C864)</f>
-        <v> BUL_british_industrial_agreements_cap_approach_tt: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §YAn Großbritannien herantreten§! abgeschlossen).\nTreten Sie §Y[ENG.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_british_industrial_agreements_cap_approach_tt: "Aktuelle [ENG.GetAdjective]e Fabriken: [?BUL.BUL_british_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat Schwerpunkt §Y§Y An Großbritannien herantreten §!§!  abgeschlossen).\nTreten Sie §Y§Y [ENG.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19957,11 +19957,11 @@
       </c>
       <c r="C867" s="1" t="str">
         <f aca="false">A867 &amp;" " &amp;"""" &amp;B867 &amp;""""</f>
-        <v> BUL_soviet_industrial_agreements_category_desc: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[SOV.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_soviet_industrial_agreements_category_desc: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [SOV.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D867" s="1" t="str">
         <f aca="false">IF(ISBLANK(A867),"",C867)</f>
-        <v> BUL_soviet_industrial_agreements_category_desc: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y[SOV.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_soviet_industrial_agreements_category_desc: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]\nBasisgrenze: [?BUL.BUL_industrial_investments_basic_cap|R0]\nSchließen Sie den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen.\nTreten Sie §Y§Y [SOV.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19973,11 +19973,11 @@
       </c>
       <c r="C868" s="1" t="str">
         <f aca="false">A868 &amp;" " &amp;"""" &amp;B868 &amp;""""</f>
-        <v> BUL_soviet_industrial_agreements_cap_basic_tt: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
+        <v> BUL_soviet_industrial_agreements_cap_basic_tt: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D868" s="1" t="str">
         <f aca="false">IF(ISBLANK(A868),"",C868)</f>
-        <v> BUL_soviet_industrial_agreements_cap_basic_tt: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
+        <v> BUL_soviet_industrial_agreements_cap_basic_tt: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_basic_cap|R0].\nSchließen Sie den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  ab, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_medium_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19989,11 +19989,11 @@
       </c>
       <c r="C869" s="1" t="str">
         <f aca="false">A869 &amp;" " &amp;"""" &amp;B869 &amp;""""</f>
-        <v> BUL_soviet_industrial_agreements_cap_approach_tt: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! abgeschlossen).\nTreten Sie §Y[SOV.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_soviet_industrial_agreements_cap_approach_tt: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  abgeschlossen).\nTreten Sie §Y§Y [SOV.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
       <c r="D869" s="1" t="str">
         <f aca="false">IF(ISBLANK(A869),"",C869)</f>
-        <v> BUL_soviet_industrial_agreements_cap_approach_tt: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat den Schwerpunkt §YSowjetisch-bulgarischer Unterstützungsvertrag§! abgeschlossen).\nTreten Sie §Y[SOV.GetFactionName]§! bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
+        <v> BUL_soviet_industrial_agreements_cap_approach_tt: "Aktuelle [SOV.GetAdjective] Fabriken: [?BUL.BUL_soviet_industrial_investments|Y0]/[?BUL.BUL_industrial_investments_medium_cap|R0] (hat den Schwerpunkt §Y§Y Sowjetisch-bulgarischer Unterstützungsvertrag §!§!  abgeschlossen).\nTreten Sie §Y§Y [SOV.GetFactionName] §!§!  bei, um die Grenze auf bis zu [?BUL.BUL_industrial_investments_max_cap|G0] zu erhöhen."</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20069,11 +20069,11 @@
       </c>
       <c r="C874" s="1" t="str">
         <f aca="false">A874 &amp;" " &amp;"""" &amp;B874 &amp;""""</f>
-        <v> BUL_increase_foreign_industry_ns_tt: "Modifiziert §YAusländische Industrie§! um\nKonsumgüterfabriken: §R+0.5%§!"</v>
+        <v> BUL_increase_foreign_industry_ns_tt: "Modifiziert §Y§Y Ausländische Industrie §!§!  um\nKonsumgüterfabriken: §R§R +0.5% §!§! "</v>
       </c>
       <c r="D874" s="1" t="str">
         <f aca="false">IF(ISBLANK(A874),"",C874)</f>
-        <v> BUL_increase_foreign_industry_ns_tt: "Modifiziert §YAusländische Industrie§! um\nKonsumgüterfabriken: §R+0.5%§!"</v>
+        <v> BUL_increase_foreign_industry_ns_tt: "Modifiziert §Y§Y Ausländische Industrie §!§!  um\nKonsumgüterfabriken: §R§R +0.5% §!§! "</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20357,11 +20357,11 @@
       </c>
       <c r="C892" s="1" t="str">
         <f aca="false">A892 &amp;" " &amp;"""" &amp;B892 &amp;""""</f>
-        <v> BUL_foreign_agreements_factions_ger_tt: "Ist nicht mit §Y[GER.GetNameWithFlag]§! in einer Fraktion (oder §Y[GER.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)"</v>
+        <v> BUL_foreign_agreements_factions_ger_tt: "Ist nicht mit §Y§Y [GER.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [GER.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )"</v>
       </c>
       <c r="D892" s="1" t="str">
         <f aca="false">IF(ISBLANK(A892),"",C892)</f>
-        <v> BUL_foreign_agreements_factions_ger_tt: "Ist nicht mit §Y[GER.GetNameWithFlag]§! in einer Fraktion (oder §Y[GER.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)"</v>
+        <v> BUL_foreign_agreements_factions_ger_tt: "Ist nicht mit §Y§Y [GER.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [GER.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )"</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20373,11 +20373,11 @@
       </c>
       <c r="C893" s="1" t="str">
         <f aca="false">A893 &amp;" " &amp;"""" &amp;B893 &amp;""""</f>
-        <v> BUL_foreign_agreements_factions_eng_tt: "Ist nicht mit §Y[ENG.GetNameWithFlag]§! in einer Fraktion (oder §Y[ENG.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)"</v>
+        <v> BUL_foreign_agreements_factions_eng_tt: "Ist nicht mit §Y§Y [ENG.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [ENG.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )"</v>
       </c>
       <c r="D893" s="1" t="str">
         <f aca="false">IF(ISBLANK(A893),"",C893)</f>
-        <v> BUL_foreign_agreements_factions_eng_tt: "Ist nicht mit §Y[ENG.GetNameWithFlag]§! in einer Fraktion (oder §Y[ENG.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)"</v>
+        <v> BUL_foreign_agreements_factions_eng_tt: "Ist nicht mit §Y§Y [ENG.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [ENG.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )"</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20389,11 +20389,11 @@
       </c>
       <c r="C894" s="1" t="str">
         <f aca="false">A894 &amp;" " &amp;"""" &amp;B894 &amp;""""</f>
-        <v> BUL_foreign_agreements_factions_sov_tt: "Ist nicht mit §Y[SOV.GetNameWithFlag]§! in einer Fraktion (oder §Y[SOV.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)"</v>
+        <v> BUL_foreign_agreements_factions_sov_tt: "Ist nicht mit §Y§Y [SOV.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [SOV.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )"</v>
       </c>
       <c r="D894" s="1" t="str">
         <f aca="false">IF(ISBLANK(A894),"",C894)</f>
-        <v> BUL_foreign_agreements_factions_sov_tt: "Ist nicht mit §Y[SOV.GetNameWithFlag]§! in einer Fraktion (oder §Y[SOV.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)"</v>
+        <v> BUL_foreign_agreements_factions_sov_tt: "Ist nicht mit §Y§Y [SOV.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [SOV.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )"</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20405,11 +20405,11 @@
       </c>
       <c r="C895" s="1" t="str">
         <f aca="false">A895 &amp;" " &amp;"""" &amp;B895 &amp;""""</f>
-        <v> BUL_foreign_agreements_factions_ita_tt: "Ist nicht mit §Y[ITA.GetNameWithFlag]§! in einer Fraktion (oder §Y[ITA.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)"</v>
+        <v> BUL_foreign_agreements_factions_ita_tt: "Ist nicht mit §Y§Y [ITA.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [ITA.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )"</v>
       </c>
       <c r="D895" s="1" t="str">
         <f aca="false">IF(ISBLANK(A895),"",C895)</f>
-        <v> BUL_foreign_agreements_factions_ita_tt: "Ist nicht mit §Y[ITA.GetNameWithFlag]§! in einer Fraktion (oder §Y[ITA.GetNameWithFlag]§! ist Untertan von §Y[ROOT.GetNameWithFlag]§!)"</v>
+        <v> BUL_foreign_agreements_factions_ita_tt: "Ist nicht mit §Y§Y [ITA.GetNameWithFlag] §!§!  in einer Fraktion (oder §Y§Y [ITA.GetNameWithFlag] §!§!  ist Untertan von §Y§Y [ROOT.GetNameWithFlag] §!§! )"</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20533,11 +20533,11 @@
       </c>
       <c r="C903" s="1" t="str">
         <f aca="false">A903 &amp;" " &amp;"""" &amp;B903 &amp;""""</f>
-        <v> BUL_secure_occupation_in_balkan_state_tt: "(Länder mit wenig §YMannstärke§! und §YInfantry-Ausrüstung§! sind eher geneigt, einzuwilligen.)"</v>
+        <v> BUL_secure_occupation_in_balkan_state_tt: "(Länder mit wenig §Y§Y Mannstärke §!§!  und §Y§Y Infantry-Ausrüstung §!§!  sind eher geneigt, einzuwilligen.)"</v>
       </c>
       <c r="D903" s="1" t="str">
         <f aca="false">IF(ISBLANK(A903),"",C903)</f>
-        <v> BUL_secure_occupation_in_balkan_state_tt: "(Länder mit wenig §YMannstärke§! und §YInfantry-Ausrüstung§! sind eher geneigt, einzuwilligen.)"</v>
+        <v> BUL_secure_occupation_in_balkan_state_tt: "(Länder mit wenig §Y§Y Mannstärke §!§!  und §Y§Y Infantry-Ausrüstung §!§!  sind eher geneigt, einzuwilligen.)"</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20581,11 +20581,11 @@
       </c>
       <c r="C906" s="1" t="str">
         <f aca="false">A906 &amp;" " &amp;"""" &amp;B906 &amp;""""</f>
-        <v> BUL_bulgarian_territorial_expansion_arranged_tt: "Staaten mit §YVorab arrangierter bulgarischer Gebietsexpansion§! Modifikatoren werden auf Bulgarien übertragen, sobald ein Bündnismitglied den Staat kontrolliert und Bulgarien demselben Bündnis wie Deutschland beigetreten ist."</v>
+        <v> BUL_bulgarian_territorial_expansion_arranged_tt: "Staaten mit §Y§Y Vorab arrangierter bulgarischer Gebietsexpansion §!§!  Modifikatoren werden auf Bulgarien übertragen, sobald ein Bündnismitglied den Staat kontrolliert und Bulgarien demselben Bündnis wie Deutschland beigetreten ist."</v>
       </c>
       <c r="D906" s="1" t="str">
         <f aca="false">IF(ISBLANK(A906),"",C906)</f>
-        <v> BUL_bulgarian_territorial_expansion_arranged_tt: "Staaten mit §YVorab arrangierter bulgarischer Gebietsexpansion§! Modifikatoren werden auf Bulgarien übertragen, sobald ein Bündnismitglied den Staat kontrolliert und Bulgarien demselben Bündnis wie Deutschland beigetreten ist."</v>
+        <v> BUL_bulgarian_territorial_expansion_arranged_tt: "Staaten mit §Y§Y Vorab arrangierter bulgarischer Gebietsexpansion §!§!  Modifikatoren werden auf Bulgarien übertragen, sobald ein Bündnismitglied den Staat kontrolliert und Bulgarien demselben Bündnis wie Deutschland beigetreten ist."</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20901,11 +20901,11 @@
       </c>
       <c r="C926" s="1" t="str">
         <f aca="false">A926 &amp;" " &amp;"""" &amp;B926 &amp;""""</f>
-        <v> BUL_fight_alongside_country_comrades_join_cw_tt: "§Y[ROOT.GetNameWithFlag]§! schließt sich §Y[FROM.GetNameWithFlag]§! im dortigen Bürgerkrieg an."</v>
+        <v> BUL_fight_alongside_country_comrades_join_cw_tt: "§Y§Y [ROOT.GetNameWithFlag] §!§!  schließt sich §Y§Y [FROM.GetNameWithFlag] §!§!  im dortigen Bürgerkrieg an."</v>
       </c>
       <c r="D926" s="1" t="str">
         <f aca="false">IF(ISBLANK(A926),"",C926)</f>
-        <v> BUL_fight_alongside_country_comrades_join_cw_tt: "§Y[ROOT.GetNameWithFlag]§! schließt sich §Y[FROM.GetNameWithFlag]§! im dortigen Bürgerkrieg an."</v>
+        <v> BUL_fight_alongside_country_comrades_join_cw_tt: "§Y§Y [ROOT.GetNameWithFlag] §!§!  schließt sich §Y§Y [FROM.GetNameWithFlag] §!§!  im dortigen Bürgerkrieg an."</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21493,11 +21493,11 @@
       </c>
       <c r="C963" s="1" t="str">
         <f aca="false">A963 &amp;" " &amp;"""" &amp;B963 &amp;""""</f>
-        <v> BUL_fate_of_the_balkans_influence_government_tt: "[FROM.GetFlag]§Y[FROM.GetNameDefCap]§! ist geeigneter, sich in Zukunft Bulgarien zu unterwerfen."</v>
+        <v> BUL_fate_of_the_balkans_influence_government_tt: "[FROM.GetFlag]§Y§Y [FROM.GetNameDefCap] §!§!  ist geeigneter, sich in Zukunft Bulgarien zu unterwerfen."</v>
       </c>
       <c r="D963" s="1" t="str">
         <f aca="false">IF(ISBLANK(A963),"",C963)</f>
-        <v> BUL_fate_of_the_balkans_influence_government_tt: "[FROM.GetFlag]§Y[FROM.GetNameDefCap]§! ist geeigneter, sich in Zukunft Bulgarien zu unterwerfen."</v>
+        <v> BUL_fate_of_the_balkans_influence_government_tt: "[FROM.GetFlag]§Y§Y [FROM.GetNameDefCap] §!§!  ist geeigneter, sich in Zukunft Bulgarien zu unterwerfen."</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21557,11 +21557,11 @@
       </c>
       <c r="C967" s="1" t="str">
         <f aca="false">A967 &amp;" " &amp;"""" &amp;B967 &amp;""""</f>
-        <v> BUL_fate_of_the_balkans_ultimatum_tt: "\nFaktoren, die sich auf die Bereitschaft von [FROM.GetFlag]§Y[FROM.GetNameDefCap]§! auswirken, einzuwilligen: [ROOT.GetUltimatumOpinion] [ROOT.GetUltimatumStrength] [ROOT.GetUltimatumIdeology] [ROOT.GetUltimatumFaction] [ROOT.GetUltimatumInfluence] [ROOT.GetUltimatumNeighbor] [ROOT.GetUltimatumMajor]"</v>
+        <v> BUL_fate_of_the_balkans_ultimatum_tt: "\nFaktoren, die sich auf die Bereitschaft von [FROM.GetFlag]§Y§Y [FROM.GetNameDefCap] §!§!  auswirken, einzuwilligen: [ROOT.GetUltimatumOpinion] [ROOT.GetUltimatumStrength] [ROOT.GetUltimatumIdeology] [ROOT.GetUltimatumFaction] [ROOT.GetUltimatumInfluence] [ROOT.GetUltimatumNeighbor] [ROOT.GetUltimatumMajor]"</v>
       </c>
       <c r="D967" s="1" t="str">
         <f aca="false">IF(ISBLANK(A967),"",C967)</f>
-        <v> BUL_fate_of_the_balkans_ultimatum_tt: "\nFaktoren, die sich auf die Bereitschaft von [FROM.GetFlag]§Y[FROM.GetNameDefCap]§! auswirken, einzuwilligen: [ROOT.GetUltimatumOpinion] [ROOT.GetUltimatumStrength] [ROOT.GetUltimatumIdeology] [ROOT.GetUltimatumFaction] [ROOT.GetUltimatumInfluence] [ROOT.GetUltimatumNeighbor] [ROOT.GetUltimatumMajor]"</v>
+        <v> BUL_fate_of_the_balkans_ultimatum_tt: "\nFaktoren, die sich auf die Bereitschaft von [FROM.GetFlag]§Y§Y [FROM.GetNameDefCap] §!§!  auswirken, einzuwilligen: [ROOT.GetUltimatumOpinion] [ROOT.GetUltimatumStrength] [ROOT.GetUltimatumIdeology] [ROOT.GetUltimatumFaction] [ROOT.GetUltimatumInfluence] [ROOT.GetUltimatumNeighbor] [ROOT.GetUltimatumMajor]"</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21573,11 +21573,11 @@
       </c>
       <c r="C968" s="1" t="str">
         <f aca="false">A968 &amp;" " &amp;"""" &amp;B968 &amp;""""</f>
-        <v> BUL_ultimatum_opinion_high: "\n- §GHat eine hohe Meinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_opinion_high: "\n- §G§G Hat eine hohe Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
       <c r="D968" s="1" t="str">
         <f aca="false">IF(ISBLANK(A968),"",C968)</f>
-        <v> BUL_ultimatum_opinion_high: "\n- §GHat eine hohe Meinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_opinion_high: "\n- §G§G Hat eine hohe Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21589,11 +21589,11 @@
       </c>
       <c r="C969" s="1" t="str">
         <f aca="false">A969 &amp;" " &amp;"""" &amp;B969 &amp;""""</f>
-        <v> BUL_ultimatum_opinion_medium: "\n- §YMeinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_opinion_medium: "\n- §Y§Y Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
       <c r="D969" s="1" t="str">
         <f aca="false">IF(ISBLANK(A969),"",C969)</f>
-        <v> BUL_ultimatum_opinion_medium: "\n- §YMeinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_opinion_medium: "\n- §Y§Y Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21605,11 +21605,11 @@
       </c>
       <c r="C970" s="1" t="str">
         <f aca="false">A970 &amp;" " &amp;"""" &amp;B970 &amp;""""</f>
-        <v> BUL_ultimatum_opinion_low: "\n- §RHat eine niedrige Meinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_opinion_low: "\n- §R§R Hat eine niedrige Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
       <c r="D970" s="1" t="str">
         <f aca="false">IF(ISBLANK(A970),"",C970)</f>
-        <v> BUL_ultimatum_opinion_low: "\n- §RHat eine niedrige Meinung von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_opinion_low: "\n- §R§R Hat eine niedrige Meinung von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21621,11 +21621,11 @@
       </c>
       <c r="C971" s="1" t="str">
         <f aca="false">A971 &amp;" " &amp;"""" &amp;B971 &amp;""""</f>
-        <v> BUL_ultimatum_strength_high: "\n- §GHohe§! [ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e §Gmilitärische Stärke§!"</v>
+        <v> BUL_ultimatum_strength_high: "\n- §G§G Hohe §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e §G§G militärische Stärke §!§! "</v>
       </c>
       <c r="D971" s="1" t="str">
         <f aca="false">IF(ISBLANK(A971),"",C971)</f>
-        <v> BUL_ultimatum_strength_high: "\n- §GHohe§! [ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e §Gmilitärische Stärke§!"</v>
+        <v> BUL_ultimatum_strength_high: "\n- §G§G Hohe §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e §G§G militärische Stärke §!§! "</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21637,11 +21637,11 @@
       </c>
       <c r="C972" s="1" t="str">
         <f aca="false">A972 &amp;" " &amp;"""" &amp;B972 &amp;""""</f>
-        <v> BUL_ultimatum_strength_medium: "\n- [ROOT.GetFlag]§Y[ROOT.GetAdjective]e militärische Stärke§!"</v>
+        <v> BUL_ultimatum_strength_medium: "\n- [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective]e militärische Stärke §!§! "</v>
       </c>
       <c r="D972" s="1" t="str">
         <f aca="false">IF(ISBLANK(A972),"",C972)</f>
-        <v> BUL_ultimatum_strength_medium: "\n- [ROOT.GetFlag]§Y[ROOT.GetAdjective]e militärische Stärke§!"</v>
+        <v> BUL_ultimatum_strength_medium: "\n- [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective]e militärische Stärke §!§! "</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21653,11 +21653,11 @@
       </c>
       <c r="C973" s="1" t="str">
         <f aca="false">A973 &amp;" " &amp;"""" &amp;B973 &amp;""""</f>
-        <v> BUL_ultimatum_strength_low: "\n- §RNiedrige§! [ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e §Rmilitärische Stärke§!"</v>
+        <v> BUL_ultimatum_strength_low: "\n- §R§R Niedrige §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e §R§R militärische Stärke §!§! "</v>
       </c>
       <c r="D973" s="1" t="str">
         <f aca="false">IF(ISBLANK(A973),"",C973)</f>
-        <v> BUL_ultimatum_strength_low: "\n- §RNiedrige§! [ROOT.GetFlag]§Y[ROOT.GetAdjective]§!e §Rmilitärische Stärke§!"</v>
+        <v> BUL_ultimatum_strength_low: "\n- §R§R Niedrige §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetAdjective] §!§! e §R§R militärische Stärke §!§! "</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21669,11 +21669,11 @@
       </c>
       <c r="C974" s="1" t="str">
         <f aca="false">A974 &amp;" " &amp;"""" &amp;B974 &amp;""""</f>
-        <v> BUL_ultimatum_ideology_high: "\n- §GSelbe Ideologie§!"</v>
+        <v> BUL_ultimatum_ideology_high: "\n- §G§G Selbe Ideologie §!§! "</v>
       </c>
       <c r="D974" s="1" t="str">
         <f aca="false">IF(ISBLANK(A974),"",C974)</f>
-        <v> BUL_ultimatum_ideology_high: "\n- §GSelbe Ideologie§!"</v>
+        <v> BUL_ultimatum_ideology_high: "\n- §G§G Selbe Ideologie §!§! "</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21685,11 +21685,11 @@
       </c>
       <c r="C975" s="1" t="str">
         <f aca="false">A975 &amp;" " &amp;"""" &amp;B975 &amp;""""</f>
-        <v> BUL_ultimatum_ideology_medium: "\n- §YKompatible Ideologie§!"</v>
+        <v> BUL_ultimatum_ideology_medium: "\n- §Y§Y Kompatible Ideologie §!§! "</v>
       </c>
       <c r="D975" s="1" t="str">
         <f aca="false">IF(ISBLANK(A975),"",C975)</f>
-        <v> BUL_ultimatum_ideology_medium: "\n- §YKompatible Ideologie§!"</v>
+        <v> BUL_ultimatum_ideology_medium: "\n- §Y§Y Kompatible Ideologie §!§! "</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21701,11 +21701,11 @@
       </c>
       <c r="C976" s="1" t="str">
         <f aca="false">A976 &amp;" " &amp;"""" &amp;B976 &amp;""""</f>
-        <v> BUL_ultimatum_ideology_low: "\n- §RIst [FROM.GetRulingIdeology]§!"</v>
+        <v> BUL_ultimatum_ideology_low: "\n- §R§R Ist [FROM.GetRulingIdeology] §!§! "</v>
       </c>
       <c r="D976" s="1" t="str">
         <f aca="false">IF(ISBLANK(A976),"",C976)</f>
-        <v> BUL_ultimatum_ideology_low: "\n- §RIst [FROM.GetRulingIdeology]§!"</v>
+        <v> BUL_ultimatum_ideology_low: "\n- §R§R Ist [FROM.GetRulingIdeology] §!§! "</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21730,11 +21730,11 @@
       </c>
       <c r="C978" s="1" t="str">
         <f aca="false">A978 &amp;" " &amp;"""" &amp;B978 &amp;""""</f>
-        <v> BUL_ultimatum_faction_bad: "\n- §RIst [FROM.GetFactionName]-Mitglied§!"</v>
+        <v> BUL_ultimatum_faction_bad: "\n- §R§R Ist [FROM.GetFactionName]-Mitglied §!§! "</v>
       </c>
       <c r="D978" s="1" t="str">
         <f aca="false">IF(ISBLANK(A978),"",C978)</f>
-        <v> BUL_ultimatum_faction_bad: "\n- §RIst [FROM.GetFactionName]-Mitglied§!"</v>
+        <v> BUL_ultimatum_faction_bad: "\n- §R§R Ist [FROM.GetFactionName]-Mitglied §!§! "</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21746,11 +21746,11 @@
       </c>
       <c r="C979" s="1" t="str">
         <f aca="false">A979 &amp;" " &amp;"""" &amp;B979 &amp;""""</f>
-        <v> BUL_ultimatum_influence_good: "\n- §GWurde beeinflusst von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_influence_good: "\n- §G§G Wurde beeinflusst von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
       <c r="D979" s="1" t="str">
         <f aca="false">IF(ISBLANK(A979),"",C979)</f>
-        <v> BUL_ultimatum_influence_good: "\n- §GWurde beeinflusst von§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_influence_good: "\n- §G§G Wurde beeinflusst von §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21775,11 +21775,11 @@
       </c>
       <c r="C981" s="1" t="str">
         <f aca="false">A981 &amp;" " &amp;"""" &amp;B981 &amp;""""</f>
-        <v> BUL_ultimatum_neighbor_good: "\n- §GGrenzt an§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_neighbor_good: "\n- §G§G Grenzt an §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
       <c r="D981" s="1" t="str">
         <f aca="false">IF(ISBLANK(A981),"",C981)</f>
-        <v> BUL_ultimatum_neighbor_good: "\n- §GGrenzt an§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_neighbor_good: "\n- §G§G Grenzt an §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21791,11 +21791,11 @@
       </c>
       <c r="C982" s="1" t="str">
         <f aca="false">A982 &amp;" " &amp;"""" &amp;B982 &amp;""""</f>
-        <v> BUL_ultimatum_neighbor_bad: "\n- §RGrenzt nicht an§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_neighbor_bad: "\n- §R§R Grenzt nicht an §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
       <c r="D982" s="1" t="str">
         <f aca="false">IF(ISBLANK(A982),"",C982)</f>
-        <v> BUL_ultimatum_neighbor_bad: "\n- §RGrenzt nicht an§! [ROOT.GetFlag]§Y[ROOT.GetNameDefCap]§!"</v>
+        <v> BUL_ultimatum_neighbor_bad: "\n- §R§R Grenzt nicht an §!§!  [ROOT.GetFlag]§Y§Y [ROOT.GetNameDefCap] §!§! "</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21820,11 +21820,11 @@
       </c>
       <c r="C984" s="1" t="str">
         <f aca="false">A984 &amp;" " &amp;"""" &amp;B984 &amp;""""</f>
-        <v> BUL_ultimatum_is_major: "\n- §RIst eine Großmacht§!"</v>
+        <v> BUL_ultimatum_is_major: "\n- §R§R Ist eine Großmacht §!§! "</v>
       </c>
       <c r="D984" s="1" t="str">
         <f aca="false">IF(ISBLANK(A984),"",C984)</f>
-        <v> BUL_ultimatum_is_major: "\n- §RIst eine Großmacht§!"</v>
+        <v> BUL_ultimatum_is_major: "\n- §R§R Ist eine Großmacht §!§! "</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22220,11 +22220,11 @@
       </c>
       <c r="C1009" s="1" t="str">
         <f aca="false">A1009 &amp;" " &amp;"""" &amp;B1009 &amp;""""</f>
-        <v> BUL_balkan_confederation_ai_tt: "§Y[FROM.GetNameWithFlag]§! wird eher bereit sein, unseren diplomatischen Vorschlägen zuzustimmen."</v>
+        <v> BUL_balkan_confederation_ai_tt: "§Y§Y [FROM.GetNameWithFlag] §!§!  wird eher bereit sein, unseren diplomatischen Vorschlägen zuzustimmen."</v>
       </c>
       <c r="D1009" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1009),"",C1009)</f>
-        <v> BUL_balkan_confederation_ai_tt: "§Y[FROM.GetNameWithFlag]§! wird eher bereit sein, unseren diplomatischen Vorschlägen zuzustimmen."</v>
+        <v> BUL_balkan_confederation_ai_tt: "§Y§Y [FROM.GetNameWithFlag] §!§!  wird eher bereit sein, unseren diplomatischen Vorschlägen zuzustimmen."</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22236,11 +22236,11 @@
       </c>
       <c r="C1010" s="1" t="str">
         <f aca="false">A1010 &amp;" " &amp;"""" &amp;B1010 &amp;""""</f>
-        <v> BUL_balkan_confederation_balkan_summit_cooldown_tt: "[GetDecisionCooldownTooltip] §Y365 Tage§!.\n"</v>
+        <v> BUL_balkan_confederation_balkan_summit_cooldown_tt: "[GetDecisionCooldownTooltip] §Y§Y 365 Tage §!§! .\n"</v>
       </c>
       <c r="D1010" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1010),"",C1010)</f>
-        <v> BUL_balkan_confederation_balkan_summit_cooldown_tt: "[GetDecisionCooldownTooltip] §Y365 Tage§!.\n"</v>
+        <v> BUL_balkan_confederation_balkan_summit_cooldown_tt: "[GetDecisionCooldownTooltip] §Y§Y 365 Tage §!§! .\n"</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22252,11 +22252,11 @@
       </c>
       <c r="C1011" s="1" t="str">
         <f aca="false">A1011 &amp;" " &amp;"""" &amp;B1011 &amp;""""</f>
-        <v> BUL_balkan_confederation_cooldown_tt: "[GetDecisionCooldownTooltip] §Y365 Tage§!.\n"</v>
+        <v> BUL_balkan_confederation_cooldown_tt: "[GetDecisionCooldownTooltip] §Y§Y 365 Tage §!§! .\n"</v>
       </c>
       <c r="D1011" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1011),"",C1011)</f>
-        <v> BUL_balkan_confederation_cooldown_tt: "[GetDecisionCooldownTooltip] §Y365 Tage§!.\n"</v>
+        <v> BUL_balkan_confederation_cooldown_tt: "[GetDecisionCooldownTooltip] §Y§Y 365 Tage §!§! .\n"</v>
       </c>
     </row>
   </sheetData>
